--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="260" windowWidth="15460" windowHeight="13480" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -998,6 +998,18 @@
   </si>
   <si>
     <t>Y694RX1Q020SBEA</t>
+  </si>
+  <si>
+    <t>WPSFD41312</t>
+  </si>
+  <si>
+    <t>Capital price</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Commodity for Final Demand: Private Capital Equipment, Index 1982=100, Quarterly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>P_capital</t>
   </si>
 </sst>
 </file>
@@ -1083,11 +1095,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1153,7 +1167,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1164,6 +1178,7 @@
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1174,6 +1189,7 @@
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -1507,7 +1523,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1523,7 +1539,8 @@
     <col min="9" max="9" width="16.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="17" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="18"/>
+    <col min="12" max="12" width="12.83203125" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="11" customFormat="1">
@@ -1560,6 +1577,9 @@
       <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="L1" s="12" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1">
       <c r="A2" s="20" t="s">
@@ -1595,7 +1615,7 @@
       <c r="K2" s="11">
         <v>10</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="12">
         <v>11</v>
       </c>
       <c r="M2" s="11">
@@ -1611,7 +1631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="165">
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="195">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1644,6 +1664,9 @@
       </c>
       <c r="K3" s="11" t="s">
         <v>15</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="11" customFormat="1" ht="30">
@@ -1677,8 +1700,11 @@
       <c r="K4" s="11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="30">
+      <c r="L4" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -1707,6 +1733,9 @@
       <c r="K5" s="11" t="s">
         <v>309</v>
       </c>
+      <c r="L5" s="12" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="75">
       <c r="A6" s="19" t="s">
@@ -1737,6 +1766,9 @@
       <c r="K6" s="11" t="s">
         <v>310</v>
       </c>
+      <c r="L6" s="12" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="11" customFormat="1">
       <c r="A7" s="19" t="s">
@@ -1766,6 +1798,9 @@
       </c>
       <c r="K7" s="15">
         <v>43009</v>
+      </c>
+      <c r="L7" s="14">
+        <v>43056</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="11" customFormat="1" ht="135">
@@ -1779,6 +1814,7 @@
       <c r="F8" s="12"/>
       <c r="H8" s="12"/>
       <c r="J8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1793,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P285"/>
+  <dimension ref="A1:P286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1838,6 +1874,9 @@
       <c r="K1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
@@ -1919,6 +1958,7 @@
       <c r="K4" s="7">
         <v>22</v>
       </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -1947,6 +1987,9 @@
       <c r="K5" s="7">
         <v>22.08</v>
       </c>
+      <c r="L5" s="5">
+        <v>19.899999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -1975,6 +2018,9 @@
       <c r="K6" s="7">
         <v>22.84</v>
       </c>
+      <c r="L6" s="5">
+        <v>20.100000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -2003,6 +2049,9 @@
       <c r="K7" s="7">
         <v>23.41</v>
       </c>
+      <c r="L7" s="5">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
@@ -2031,6 +2080,9 @@
       <c r="K8" s="7">
         <v>23.5</v>
       </c>
+      <c r="L8" s="5">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -2059,6 +2111,9 @@
       <c r="K9" s="7">
         <v>24.15</v>
       </c>
+      <c r="L9" s="5">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -2087,6 +2142,9 @@
       <c r="K10" s="7">
         <v>24.36</v>
       </c>
+      <c r="L10" s="5">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -2115,6 +2173,9 @@
       <c r="K11" s="7">
         <v>24.05</v>
       </c>
+      <c r="L11" s="5">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -2143,6 +2204,9 @@
       <c r="K12" s="7">
         <v>23.91</v>
       </c>
+      <c r="L12" s="5">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -2171,6 +2235,9 @@
       <c r="K13" s="7">
         <v>23.92</v>
       </c>
+      <c r="L13" s="5">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -2199,6 +2266,9 @@
       <c r="K14" s="7">
         <v>23.75</v>
       </c>
+      <c r="L14" s="5">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -2227,6 +2297,9 @@
       <c r="K15" s="7">
         <v>23.61</v>
       </c>
+      <c r="L15" s="5">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -2255,8 +2328,11 @@
       <c r="K16" s="7">
         <v>23.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="5">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2283,8 +2359,11 @@
       <c r="K17" s="7">
         <v>23.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="5">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2311,8 +2390,11 @@
       <c r="K18" s="7">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="5">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2339,8 +2421,11 @@
       <c r="K19" s="7">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="5">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2367,8 +2452,11 @@
       <c r="K20" s="7">
         <v>25.88</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="5">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2395,8 +2483,11 @@
       <c r="K21" s="7">
         <v>25.93</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2423,8 +2514,11 @@
       <c r="K22" s="7">
         <v>26.03</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2451,8 +2545,11 @@
       <c r="K23" s="7">
         <v>26.47</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="5">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2479,8 +2576,11 @@
       <c r="K24" s="7">
         <v>26.39</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2507,8 +2607,11 @@
       <c r="K25" s="7">
         <v>26.53</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2535,8 +2638,11 @@
       <c r="K26" s="7">
         <v>26.63</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2563,8 +2669,11 @@
       <c r="K27" s="7">
         <v>26.71</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2591,8 +2700,11 @@
       <c r="K28" s="7">
         <v>26.63</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="5">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2731,11 @@
       <c r="K29" s="7">
         <v>26.77</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="5">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2647,8 +2762,11 @@
       <c r="K30" s="7">
         <v>26.89</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2675,8 +2793,11 @@
       <c r="K31" s="7">
         <v>26.87</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="5">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2703,8 +2824,11 @@
       <c r="K32" s="7">
         <v>26.93</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2731,8 +2855,11 @@
       <c r="K33" s="7">
         <v>26.94</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="5">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2759,8 +2886,11 @@
       <c r="K34" s="7">
         <v>26.81</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2787,8 +2917,11 @@
       <c r="K35" s="7">
         <v>26.77</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="5">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2815,8 +2948,11 @@
       <c r="K36" s="7">
         <v>26.79</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="5">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2843,8 +2979,11 @@
       <c r="K37" s="7">
         <v>26.71</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="5">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2871,8 +3010,11 @@
       <c r="K38" s="7">
         <v>26.85</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="5">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2899,8 +3041,11 @@
       <c r="K39" s="7">
         <v>26.87</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="5">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -2927,8 +3072,11 @@
       <c r="K40" s="7">
         <v>26.89</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="5">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -2955,8 +3103,11 @@
       <c r="K41" s="7">
         <v>27.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="5">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2983,8 +3134,11 @@
       <c r="K42" s="7">
         <v>27.35</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="5">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3011,8 +3165,11 @@
       <c r="K43" s="7">
         <v>27.63</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="5">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -3039,8 +3196,11 @@
       <c r="K44" s="7">
         <v>27.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -3067,8 +3227,11 @@
       <c r="K45" s="7">
         <v>28.11</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="5">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -3095,8 +3258,11 @@
       <c r="K46" s="7">
         <v>28.32</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="5">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -3123,8 +3289,11 @@
       <c r="K47" s="7">
         <v>28.47</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -3151,8 +3320,11 @@
       <c r="K48" s="7">
         <v>28.87</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -3179,8 +3351,11 @@
       <c r="K49" s="7">
         <v>28.91</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="5">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -3207,8 +3382,11 @@
       <c r="K50" s="7">
         <v>28.91</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="5">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -3235,8 +3413,11 @@
       <c r="K51" s="7">
         <v>28.97</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="5">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -3263,8 +3444,11 @@
       <c r="K52" s="7">
         <v>28.97</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="5">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -3291,8 +3475,11 @@
       <c r="K53" s="7">
         <v>29.11</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -3319,8 +3506,11 @@
       <c r="K54" s="7">
         <v>29.25</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -3347,8 +3537,11 @@
       <c r="K55" s="7">
         <v>29.41</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="5">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -3375,8 +3568,11 @@
       <c r="K56" s="7">
         <v>29.41</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -3403,8 +3599,11 @@
       <c r="K57" s="7">
         <v>29.61</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="5">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -3431,8 +3630,11 @@
       <c r="K58" s="7">
         <v>29.61</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="5">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3459,8 +3661,11 @@
       <c r="K59" s="7">
         <v>29.81</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="5">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -3487,8 +3692,11 @@
       <c r="K60" s="7">
         <v>29.84</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3515,8 +3723,11 @@
       <c r="K61" s="7">
         <v>29.84</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3543,8 +3754,11 @@
       <c r="K62" s="7">
         <v>29.98</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -3571,8 +3785,11 @@
       <c r="K63" s="7">
         <v>30.01</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="5">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -3599,8 +3816,11 @@
       <c r="K64" s="7">
         <v>30.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -3627,8 +3847,11 @@
       <c r="K65" s="7">
         <v>30.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3655,8 +3878,11 @@
       <c r="K66" s="7">
         <v>30.42</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -3683,8 +3909,11 @@
       <c r="K67" s="7">
         <v>30.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -3711,8 +3940,11 @@
       <c r="K68" s="7">
         <v>30.51</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -3739,8 +3971,11 @@
       <c r="K69" s="7">
         <v>30.61</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -3767,8 +4002,11 @@
       <c r="K70" s="7">
         <v>30.72</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="5">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -3795,8 +4033,11 @@
       <c r="K71" s="7">
         <v>30.88</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="5">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -3823,8 +4064,11 @@
       <c r="K72" s="7">
         <v>30.94</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="5">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -3851,8 +4095,11 @@
       <c r="K73" s="7">
         <v>31.01</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="5">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3879,8 +4126,11 @@
       <c r="K74" s="7">
         <v>31.08</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="5">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3907,8 +4157,11 @@
       <c r="K75" s="7">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="5">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -3935,8 +4188,11 @@
       <c r="K76" s="7">
         <v>31.31</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="5">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -3963,8 +4219,11 @@
       <c r="K77" s="7">
         <v>31.61</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="5">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -3991,8 +4250,11 @@
       <c r="K78" s="7">
         <v>31.62</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="5">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -4019,8 +4281,11 @@
       <c r="K79" s="7">
         <v>31.85</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -4047,8 +4312,11 @@
       <c r="K80" s="7">
         <v>32.18</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="5">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -4075,8 +4343,11 @@
       <c r="K81" s="7">
         <v>32.380000000000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="5">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -4103,8 +4374,11 @@
       <c r="K82" s="7">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="5">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -4131,8 +4405,11 @@
       <c r="K83" s="7">
         <v>32.92</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="5">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -4159,8 +4436,11 @@
       <c r="K84" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="5">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -4187,8 +4467,11 @@
       <c r="K85" s="7">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="5">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -4215,8 +4498,11 @@
       <c r="K86" s="7">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="5">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -4243,8 +4529,11 @@
       <c r="K87" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="5">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -4271,8 +4560,11 @@
       <c r="K88" s="7">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="5">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -4299,8 +4591,11 @@
       <c r="K89" s="7">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -4327,8 +4622,11 @@
       <c r="K90" s="7">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="5">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -4357,8 +4655,11 @@
       <c r="K91" s="7">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="5">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -4387,8 +4688,11 @@
       <c r="K92" s="7">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="5">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -4417,8 +4721,11 @@
       <c r="K93" s="7">
         <v>36.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="5">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -4447,8 +4754,11 @@
       <c r="K94" s="7">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="5">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -4477,8 +4787,11 @@
       <c r="K95" s="7">
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="5">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -4507,8 +4820,11 @@
       <c r="K96" s="7">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="5">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -4537,8 +4853,11 @@
       <c r="K97" s="7">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="5">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4567,8 +4886,11 @@
       <c r="K98" s="7">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="5">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -4597,8 +4919,11 @@
       <c r="K99" s="7">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="5">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -4627,8 +4952,11 @@
       <c r="K100" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="5">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -4657,8 +4985,11 @@
       <c r="K101" s="7">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="5">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -4687,8 +5018,11 @@
       <c r="K102" s="7">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="5">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -4717,8 +5051,11 @@
       <c r="K103" s="7">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="5">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -4747,8 +5084,11 @@
       <c r="K104" s="7">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="5">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -4777,8 +5117,11 @@
       <c r="K105" s="7">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="5">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -4807,8 +5150,11 @@
       <c r="K106" s="7">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -4837,8 +5183,11 @@
       <c r="K107" s="7">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -4867,8 +5216,11 @@
       <c r="K108" s="7">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="5">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -4897,8 +5249,11 @@
       <c r="K109" s="7">
         <v>44.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="5">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -4927,8 +5282,11 @@
       <c r="K110" s="7">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="5">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -4957,8 +5315,11 @@
       <c r="K111" s="7">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="5">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -4987,8 +5348,11 @@
       <c r="K112" s="7">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112" s="5">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -5017,8 +5381,11 @@
       <c r="K113" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113" s="5">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>135</v>
       </c>
@@ -5047,8 +5414,11 @@
       <c r="K114" s="7">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114" s="5">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -5077,8 +5447,11 @@
       <c r="K115" s="7">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115" s="5">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -5107,8 +5480,11 @@
       <c r="K116" s="7">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116" s="5">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -5137,8 +5513,11 @@
       <c r="K117" s="7">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>139</v>
       </c>
@@ -5167,8 +5546,11 @@
       <c r="K118" s="7">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118" s="5">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -5197,8 +5579,11 @@
       <c r="K119" s="7">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -5227,8 +5612,11 @@
       <c r="K120" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120" s="5">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -5257,8 +5645,11 @@
       <c r="K121" s="7">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121" s="5">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -5287,8 +5678,11 @@
       <c r="K122" s="7">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122" s="5">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -5317,8 +5711,11 @@
       <c r="K123" s="7">
         <v>58.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -5347,8 +5744,11 @@
       <c r="K124" s="7">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124" s="5">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -5377,8 +5777,11 @@
       <c r="K125" s="7">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125" s="5">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -5407,8 +5810,11 @@
       <c r="K126" s="7">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -5437,8 +5843,11 @@
       <c r="K127" s="7">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127" s="5">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -5470,8 +5879,11 @@
       <c r="K128" s="7">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128" s="5">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -5503,8 +5915,11 @@
       <c r="K129" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -5536,8 +5951,11 @@
       <c r="K130" s="7">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130" s="5">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -5569,8 +5987,11 @@
       <c r="K131" s="7">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>153</v>
       </c>
@@ -5602,8 +6023,11 @@
       <c r="K132" s="7">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132" s="5">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -5635,8 +6059,11 @@
       <c r="K133" s="7">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133" s="5">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -5668,8 +6095,11 @@
       <c r="K134" s="7">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" s="5">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -5701,8 +6131,11 @@
       <c r="K135" s="7">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135" s="5">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -5734,8 +6167,11 @@
       <c r="K136" s="7">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136" s="5">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>158</v>
       </c>
@@ -5767,8 +6203,11 @@
       <c r="K137" s="7">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137" s="5">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -5800,8 +6239,11 @@
       <c r="K138" s="7">
         <v>83.9</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138" s="5">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -5833,8 +6275,11 @@
       <c r="K139" s="7">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139" s="5">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -5866,8 +6311,11 @@
       <c r="K140" s="7">
         <v>88.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140" s="5">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -5899,8 +6347,11 @@
       <c r="K141" s="7">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141" s="5">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>163</v>
       </c>
@@ -5932,8 +6383,11 @@
       <c r="K142" s="7">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142" s="5">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -5965,8 +6419,11 @@
       <c r="K143" s="7">
         <v>94.1</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143" s="5">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>165</v>
       </c>
@@ -5998,8 +6455,11 @@
       <c r="K144" s="7">
         <v>94.7</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" s="5">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>166</v>
       </c>
@@ -6031,8 +6491,11 @@
       <c r="K145" s="7">
         <v>97</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -6064,8 +6527,11 @@
       <c r="K146" s="7">
         <v>97.7</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -6097,8 +6563,11 @@
       <c r="K147" s="7">
         <v>97.7</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147" s="5">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>169</v>
       </c>
@@ -6130,8 +6599,11 @@
       <c r="K148" s="7">
         <v>98.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148" s="5">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>170</v>
       </c>
@@ -6163,8 +6635,11 @@
       <c r="K149" s="7">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149" s="5">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -6196,8 +6671,11 @@
       <c r="K150" s="7">
         <v>100.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150" s="5">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>172</v>
       </c>
@@ -6229,8 +6707,11 @@
       <c r="K151" s="7">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151" s="5">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>173</v>
       </c>
@@ -6262,8 +6743,11 @@
       <c r="K152" s="7">
         <v>102.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152" s="5">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>174</v>
       </c>
@@ -6295,8 +6779,11 @@
       <c r="K153" s="7">
         <v>103.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153" s="5">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>175</v>
       </c>
@@ -6328,8 +6815,11 @@
       <c r="K154" s="7">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154" s="5">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>176</v>
       </c>
@@ -6361,8 +6851,11 @@
       <c r="K155" s="7">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155" s="5">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -6394,8 +6887,11 @@
       <c r="K156" s="7">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156" s="5">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>178</v>
       </c>
@@ -6427,8 +6923,11 @@
       <c r="K157" s="7">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157" s="5">
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>179</v>
       </c>
@@ -6460,8 +6959,11 @@
       <c r="K158" s="7">
         <v>108.1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="5">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -6493,8 +6995,11 @@
       <c r="K159" s="7">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159" s="5">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -6526,8 +7031,11 @@
       <c r="K160" s="7">
         <v>109.1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160" s="5">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -6559,8 +7067,11 @@
       <c r="K161" s="7">
         <v>109.4</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161" s="5">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>183</v>
       </c>
@@ -6592,8 +7103,11 @@
       <c r="K162" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162" s="5">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -6625,8 +7139,11 @@
       <c r="K163" s="7">
         <v>110.8</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163" s="5">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -6658,8 +7175,11 @@
       <c r="K164" s="7">
         <v>112.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164" s="5">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>186</v>
       </c>
@@ -6691,8 +7211,11 @@
       <c r="K165" s="7">
         <v>113.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165" s="5">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -6724,8 +7247,11 @@
       <c r="K166" s="7">
         <v>114.7</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -6757,8 +7283,11 @@
       <c r="K167" s="7">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167" s="5">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>189</v>
       </c>
@@ -6790,8 +7319,11 @@
       <c r="K168" s="7">
         <v>116.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168" s="5">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -6823,8 +7355,11 @@
       <c r="K169" s="7">
         <v>118</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -6856,8 +7391,11 @@
       <c r="K170" s="7">
         <v>119.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170" s="5">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>192</v>
       </c>
@@ -6889,8 +7427,11 @@
       <c r="K171" s="7">
         <v>120.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171" s="5">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>193</v>
       </c>
@@ -6924,8 +7465,11 @@
       <c r="K172" s="7">
         <v>122.2</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172" s="5">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>194</v>
       </c>
@@ -6959,8 +7503,11 @@
       <c r="K173" s="7">
         <v>124.1</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173" s="5">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>195</v>
       </c>
@@ -6994,8 +7541,11 @@
       <c r="K174" s="7">
         <v>124.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174" s="5">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>196</v>
       </c>
@@ -7029,8 +7579,11 @@
       <c r="K175" s="7">
         <v>126.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175" s="5">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>197</v>
       </c>
@@ -7064,8 +7617,11 @@
       <c r="K176" s="7">
         <v>128.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176" s="5">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>198</v>
       </c>
@@ -7099,8 +7655,11 @@
       <c r="K177" s="7">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177" s="5">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -7134,8 +7693,11 @@
       <c r="K178" s="7">
         <v>132.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178" s="5">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>200</v>
       </c>
@@ -7169,8 +7731,11 @@
       <c r="K179" s="7">
         <v>134.19999999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179" s="5">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>201</v>
       </c>
@@ -7204,8 +7769,11 @@
       <c r="K180" s="7">
         <v>134.80000000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>202</v>
       </c>
@@ -7239,8 +7807,11 @@
       <c r="K181" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181" s="5">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>203</v>
       </c>
@@ -7274,8 +7845,11 @@
       <c r="K182" s="7">
         <v>137</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182" s="5">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -7309,8 +7883,11 @@
       <c r="K183" s="7">
         <v>138.19999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>205</v>
       </c>
@@ -7344,8 +7921,11 @@
       <c r="K184" s="7">
         <v>139.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184" s="5">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>206</v>
       </c>
@@ -7379,8 +7959,11 @@
       <c r="K185" s="7">
         <v>140.1</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>207</v>
       </c>
@@ -7414,8 +7997,11 @@
       <c r="K186" s="7">
         <v>141.1</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186" s="5">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -7449,8 +8035,11 @@
       <c r="K187" s="7">
         <v>142.30000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187" s="5">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -7484,8 +8073,11 @@
       <c r="K188" s="7">
         <v>143.30000000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188" s="5">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>210</v>
       </c>
@@ -7519,8 +8111,11 @@
       <c r="K189" s="7">
         <v>144.30000000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189" s="5">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -7554,8 +8149,11 @@
       <c r="K190" s="7">
         <v>145</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190" s="5">
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -7589,8 +8187,11 @@
       <c r="K191" s="7">
         <v>146.30000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191" s="5">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -7624,8 +8225,11 @@
       <c r="K192" s="7">
         <v>147.1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192" s="5">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -7659,8 +8263,11 @@
       <c r="K193" s="7">
         <v>147.9</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193" s="5">
+        <v>134.30000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -7694,8 +8301,11 @@
       <c r="K194" s="7">
         <v>149.30000000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194" s="5">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -7729,8 +8339,11 @@
       <c r="K195" s="7">
         <v>150.1</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195" s="5">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -7764,8 +8377,11 @@
       <c r="K196" s="7">
         <v>151.19999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196" s="5">
+        <v>135.9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -7799,8 +8415,11 @@
       <c r="K197" s="7">
         <v>152.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197" s="5">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -7834,8 +8453,11 @@
       <c r="K198" s="7">
         <v>153.1</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198" s="5">
+        <v>136.80000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -7869,8 +8491,11 @@
       <c r="K199" s="7">
         <v>153.9</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -7904,8 +8529,11 @@
       <c r="K200" s="7">
         <v>155.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200" s="5">
+        <v>138.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -7939,8 +8567,11 @@
       <c r="K201" s="7">
         <v>156.69999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201" s="5">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -7974,8 +8605,11 @@
       <c r="K202" s="7">
         <v>157.69999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202" s="5">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -8009,8 +8643,11 @@
       <c r="K203" s="7">
         <v>159.1</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203" s="5">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -8044,8 +8681,11 @@
       <c r="K204" s="7">
         <v>159.80000000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204" s="5">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -8079,8 +8719,11 @@
       <c r="K205" s="7">
         <v>160.19999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205" s="5">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -8114,8 +8757,11 @@
       <c r="K206" s="7">
         <v>161.19999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206" s="5">
+        <v>138.19999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -8149,8 +8795,11 @@
       <c r="K207" s="7">
         <v>161.80000000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207" s="5">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -8184,8 +8833,11 @@
       <c r="K208" s="7">
         <v>162</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208" s="5">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -8219,8 +8871,11 @@
       <c r="K209" s="7">
         <v>162.80000000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209" s="5">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -8254,8 +8909,11 @@
       <c r="K210" s="7">
         <v>163.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210" s="5">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -8289,8 +8947,11 @@
       <c r="K211" s="7">
         <v>164.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211" s="5">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -8324,8 +8985,11 @@
       <c r="K212" s="7">
         <v>164.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212" s="5">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -8359,8 +9023,11 @@
       <c r="K213" s="7">
         <v>166</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213" s="5">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -8394,8 +9061,11 @@
       <c r="K214" s="7">
         <v>167.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214" s="5">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -8429,8 +9099,11 @@
       <c r="K215" s="7">
         <v>168.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -8464,8 +9137,11 @@
       <c r="K216" s="7">
         <v>171</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216" s="5">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -8499,8 +9175,11 @@
       <c r="K217" s="7">
         <v>172.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217" s="5">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -8534,8 +9213,11 @@
       <c r="K218" s="7">
         <v>173.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218" s="5">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -8569,8 +9251,11 @@
       <c r="K219" s="7">
         <v>174.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219" s="5">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -8604,8 +9289,11 @@
       <c r="K220" s="7">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220" s="5">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -8639,8 +9327,11 @@
       <c r="K221" s="7">
         <v>177.7</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="L221" s="5">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -8674,8 +9365,11 @@
       <c r="K222" s="7">
         <v>178.1</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="L222" s="5">
+        <v>140.19999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -8709,8 +9403,11 @@
       <c r="K223" s="7">
         <v>177.4</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="L223" s="5">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -8744,8 +9441,11 @@
       <c r="K224" s="7">
         <v>178.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224" s="5">
+        <v>139.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -8779,8 +9479,11 @@
       <c r="K225" s="7">
         <v>179.6</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="L225" s="5">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -8814,8 +9517,11 @@
       <c r="K226" s="7">
         <v>180.8</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -8849,8 +9555,11 @@
       <c r="K227" s="7">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="L227" s="5">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -8884,8 +9593,11 @@
       <c r="K228" s="7">
         <v>183.9</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="L228" s="5">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -8919,8 +9631,11 @@
       <c r="K229" s="7">
         <v>183.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="L229" s="5">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -8954,8 +9669,11 @@
       <c r="K230" s="7">
         <v>185.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="L230" s="5">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -8989,8 +9707,11 @@
       <c r="K231" s="7">
         <v>185.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="L231" s="5">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -9024,8 +9745,11 @@
       <c r="K232" s="7">
         <v>187.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="L232" s="5">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -9059,8 +9783,11 @@
       <c r="K233" s="7">
         <v>188.9</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233" s="5">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -9094,8 +9821,11 @@
       <c r="K234" s="7">
         <v>189.8</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234" s="5">
+        <v>142.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -9129,8 +9859,11 @@
       <c r="K235" s="7">
         <v>191.7</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235" s="5">
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -9164,8 +9897,11 @@
       <c r="K236" s="7">
         <v>193.1</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="L236" s="5">
+        <v>144.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -9199,8 +9935,11 @@
       <c r="K237" s="7">
         <v>193.7</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="L237" s="5">
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -9234,8 +9973,11 @@
       <c r="K238" s="7">
         <v>198.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="L238" s="5">
+        <v>145.30000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -9269,8 +10011,11 @@
       <c r="K239" s="7">
         <v>198.1</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="L239" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -9304,8 +10049,11 @@
       <c r="K240" s="7">
         <v>199.7</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="L240" s="5">
+        <v>146.30000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -9339,8 +10087,11 @@
       <c r="K241" s="7">
         <v>201.8</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241" s="5">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -9374,8 +10125,11 @@
       <c r="K242" s="7">
         <v>202.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242" s="5">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -9409,8 +10163,11 @@
       <c r="K243" s="7">
         <v>203.1</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243" s="5">
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -9444,8 +10201,11 @@
       <c r="K244" s="7">
         <v>205.28800000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244" s="5">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -9479,8 +10239,11 @@
       <c r="K245" s="7">
         <v>207.23400000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245" s="5">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -9514,8 +10277,11 @@
       <c r="K246" s="7">
         <v>208.547</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="L246" s="5">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -9549,8 +10315,11 @@
       <c r="K247" s="7">
         <v>211.44499999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247" s="5">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -9584,8 +10353,11 @@
       <c r="K248" s="7">
         <v>213.44800000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248" s="5">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -9619,8 +10391,11 @@
       <c r="K249" s="7">
         <v>217.46299999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="L249" s="5">
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -9654,8 +10429,11 @@
       <c r="K250" s="7">
         <v>218.87700000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250" s="5">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -9689,8 +10467,11 @@
       <c r="K251" s="7">
         <v>211.398</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -9724,8 +10505,11 @@
       <c r="K252" s="7">
         <v>212.495</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252" s="5">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -9759,8 +10543,11 @@
       <c r="K253" s="7">
         <v>214.79</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="L253" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -9794,8 +10581,11 @@
       <c r="K254" s="7">
         <v>215.86099999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254" s="5">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -9829,8 +10619,11 @@
       <c r="K255" s="7">
         <v>217.34700000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="L255" s="5">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -9864,8 +10657,11 @@
       <c r="K256" s="7">
         <v>217.35300000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="L256" s="5">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -9899,8 +10695,11 @@
       <c r="K257" s="7">
         <v>217.19900000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="L257" s="5">
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -9934,8 +10733,11 @@
       <c r="K258" s="7">
         <v>218.27500000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="L258" s="5">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -9969,8 +10771,11 @@
       <c r="K259" s="7">
         <v>220.47200000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259" s="5">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -10004,8 +10809,11 @@
       <c r="K260" s="7">
         <v>223.04599999999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="L260" s="5">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -10039,8 +10847,11 @@
       <c r="K261" s="7">
         <v>224.80600000000001</v>
       </c>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="L261" s="5">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -10074,8 +10885,11 @@
       <c r="K262" s="7">
         <v>226.59700000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="L262" s="5">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -10109,8 +10923,11 @@
       <c r="K263" s="7">
         <v>227.22300000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="L263" s="5">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -10144,8 +10961,11 @@
       <c r="K264" s="7">
         <v>228.80699999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="L264" s="5">
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -10179,8 +10999,11 @@
       <c r="K265" s="7">
         <v>228.524</v>
       </c>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="L265" s="5">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -10214,8 +11037,11 @@
       <c r="K266" s="7">
         <v>231.01499999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="L266" s="5">
+        <v>163.19999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -10249,8 +11075,11 @@
       <c r="K267" s="7">
         <v>231.221</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="L267" s="5">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -10284,8 +11113,11 @@
       <c r="K268" s="7">
         <v>232.29900000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="L268" s="5">
+        <v>163.69999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -10319,8 +11151,11 @@
       <c r="K269" s="7">
         <v>232.374</v>
       </c>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="L269" s="5">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -10354,8 +11189,11 @@
       <c r="K270" s="7">
         <v>233.63200000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="L270" s="5">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -10389,8 +11227,11 @@
       <c r="K271" s="7">
         <v>234.72300000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="L271" s="5">
+        <v>165.4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -10424,8 +11265,11 @@
       <c r="K272" s="7">
         <v>235.97800000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="L272" s="5">
+        <v>165.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>294</v>
       </c>
@@ -10459,8 +11303,11 @@
       <c r="K273" s="7">
         <v>237.029</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273" s="5">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -10494,8 +11341,11 @@
       <c r="K274" s="7">
         <v>237.48599999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="L274" s="5">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -10529,8 +11379,11 @@
       <c r="K275" s="7">
         <v>236.29</v>
       </c>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="L275" s="5">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -10564,8 +11417,11 @@
       <c r="K276" s="7">
         <v>235.989</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276" s="5">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>298</v>
       </c>
@@ -10599,8 +11455,11 @@
       <c r="K277" s="7">
         <v>237.41900000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277" s="5">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>299</v>
       </c>
@@ -10634,8 +11493,11 @@
       <c r="K278" s="7">
         <v>237.46700000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278" s="5">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>300</v>
       </c>
@@ -10669,8 +11531,11 @@
       <c r="K279" s="7">
         <v>237.846</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279" s="5">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>301</v>
       </c>
@@ -10704,8 +11569,11 @@
       <c r="K280" s="7">
         <v>238.078</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280" s="5">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -10739,8 +11607,11 @@
       <c r="K281" s="7">
         <v>239.84200000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281" s="5">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>303</v>
       </c>
@@ -10774,8 +11645,11 @@
       <c r="K282" s="7">
         <v>241.006</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282" s="5">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>304</v>
       </c>
@@ -10809,8 +11683,11 @@
       <c r="K283" s="7">
         <v>242.821</v>
       </c>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="L283" s="5">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>305</v>
       </c>
@@ -10844,8 +11721,11 @@
       <c r="K284" s="7">
         <v>243.75200000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="L284" s="5">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>306</v>
       </c>
@@ -10878,6 +11758,14 @@
       </c>
       <c r="K285" s="7">
         <v>243.79</v>
+      </c>
+      <c r="L285" s="5">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
+      <c r="L286" s="5">
+        <v>171.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\BG_2017\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="0" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="333">
   <si>
     <t>Name</t>
   </si>
@@ -1021,12 +1016,15 @@
   </si>
   <si>
     <t>Rel_Price</t>
+  </si>
+  <si>
+    <t>just = P_IT / CPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1640,28 +1638,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="9"/>
+    <col min="1" max="1" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1698,8 +1696,11 @@
       <c r="L1" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="195">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="31.5">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="63">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="78.75">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="135">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1933,6 +1934,9 @@
       <c r="H8" s="3"/>
       <c r="J8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1949,19 +1953,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="23.375" style="13"/>
+    <col min="5" max="5" width="23.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="21">
       <c r="A3" s="20" t="s">
         <v>330</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="21">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21">
       <c r="A5" s="24" t="s">
         <v>24</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="21">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="21">
       <c r="A7" s="24" t="s">
         <v>26</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="24" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="21">
       <c r="A9" s="24" t="s">
         <v>28</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="21">
       <c r="A10" s="24" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="21">
       <c r="A11" s="24" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="21">
       <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="21">
       <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="21">
       <c r="A14" s="24" t="s">
         <v>33</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="21">
       <c r="A15" s="24" t="s">
         <v>34</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21">
       <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="21">
       <c r="A17" s="24" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="21">
       <c r="A18" s="24" t="s">
         <v>37</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="21">
       <c r="A19" s="24" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="21">
       <c r="A20" s="24" t="s">
         <v>39</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="21">
       <c r="A21" s="24" t="s">
         <v>40</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="21">
       <c r="A22" s="24" t="s">
         <v>41</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="21">
       <c r="A23" s="24" t="s">
         <v>42</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="21">
       <c r="A24" s="24" t="s">
         <v>43</v>
       </c>
@@ -2963,7 +2967,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="21">
       <c r="A25" s="24" t="s">
         <v>44</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="21">
       <c r="A26" s="24" t="s">
         <v>45</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="21">
       <c r="A27" s="24" t="s">
         <v>46</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="21">
       <c r="A28" s="24" t="s">
         <v>47</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="21">
       <c r="A29" s="24" t="s">
         <v>48</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="21">
       <c r="A30" s="24" t="s">
         <v>49</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="21">
       <c r="A31" s="24" t="s">
         <v>50</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="21">
       <c r="A32" s="24" t="s">
         <v>51</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="21">
       <c r="A33" s="24" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="21">
       <c r="A34" s="24" t="s">
         <v>53</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="21">
       <c r="A35" s="24" t="s">
         <v>54</v>
       </c>
@@ -3425,7 +3429,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="21">
       <c r="A36" s="24" t="s">
         <v>55</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="21">
       <c r="A37" s="24" t="s">
         <v>56</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="21">
       <c r="A38" s="24" t="s">
         <v>57</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="21">
       <c r="A39" s="24" t="s">
         <v>58</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="21">
       <c r="A40" s="24" t="s">
         <v>59</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="21">
       <c r="A41" s="24" t="s">
         <v>60</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="21">
       <c r="A42" s="24" t="s">
         <v>61</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="21">
       <c r="A43" s="24" t="s">
         <v>62</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="21">
       <c r="A44" s="24" t="s">
         <v>63</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="21">
       <c r="A45" s="24" t="s">
         <v>64</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="21">
       <c r="A46" s="24" t="s">
         <v>65</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="21">
       <c r="A47" s="24" t="s">
         <v>66</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="21">
       <c r="A48" s="24" t="s">
         <v>67</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="21">
       <c r="A49" s="24" t="s">
         <v>68</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="21">
       <c r="A50" s="24" t="s">
         <v>69</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="21">
       <c r="A51" s="24" t="s">
         <v>70</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="21">
       <c r="A52" s="24" t="s">
         <v>71</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="21">
       <c r="A53" s="24" t="s">
         <v>72</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="21">
       <c r="A54" s="24" t="s">
         <v>73</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="21">
       <c r="A55" s="24" t="s">
         <v>74</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="21">
       <c r="A56" s="24" t="s">
         <v>75</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="21">
       <c r="A57" s="24" t="s">
         <v>76</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="21">
       <c r="A58" s="24" t="s">
         <v>77</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="21">
       <c r="A59" s="24" t="s">
         <v>78</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="21">
       <c r="A60" s="24" t="s">
         <v>79</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="21">
       <c r="A61" s="24" t="s">
         <v>80</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="21">
       <c r="A62" s="24" t="s">
         <v>81</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="21">
       <c r="A63" s="24" t="s">
         <v>82</v>
       </c>
@@ -4601,7 +4605,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="21">
       <c r="A64" s="24" t="s">
         <v>83</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="21">
       <c r="A65" s="24" t="s">
         <v>84</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="21">
       <c r="A66" s="24" t="s">
         <v>85</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="21">
       <c r="A67" s="24" t="s">
         <v>86</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="21">
       <c r="A68" s="24" t="s">
         <v>87</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="21">
       <c r="A69" s="24" t="s">
         <v>88</v>
       </c>
@@ -4853,7 +4857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="21">
       <c r="A70" s="24" t="s">
         <v>89</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="21">
       <c r="A71" s="24" t="s">
         <v>90</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="21">
       <c r="A72" s="24" t="s">
         <v>91</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="21">
       <c r="A73" s="24" t="s">
         <v>92</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="21">
       <c r="A74" s="24" t="s">
         <v>93</v>
       </c>
@@ -5063,7 +5067,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="21">
       <c r="A75" s="24" t="s">
         <v>94</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="21">
       <c r="A76" s="24" t="s">
         <v>95</v>
       </c>
@@ -5147,7 +5151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="21">
       <c r="A77" s="24" t="s">
         <v>96</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="21">
       <c r="A78" s="24" t="s">
         <v>97</v>
       </c>
@@ -5231,7 +5235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="21">
       <c r="A79" s="24" t="s">
         <v>98</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="21">
       <c r="A80" s="24" t="s">
         <v>99</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="21">
       <c r="A81" s="24" t="s">
         <v>100</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="21">
       <c r="A82" s="24" t="s">
         <v>101</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="21">
       <c r="A83" s="24" t="s">
         <v>102</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="21">
       <c r="A84" s="24" t="s">
         <v>103</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="21">
       <c r="A85" s="24" t="s">
         <v>104</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="21">
       <c r="A86" s="24" t="s">
         <v>105</v>
       </c>
@@ -5567,7 +5571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="21">
       <c r="A87" s="24" t="s">
         <v>106</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="21">
       <c r="A88" s="24" t="s">
         <v>107</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="21">
       <c r="A89" s="24" t="s">
         <v>108</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="21">
       <c r="A90" s="24" t="s">
         <v>109</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="21">
       <c r="A91" s="24" t="s">
         <v>110</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="21">
       <c r="A92" s="24" t="s">
         <v>111</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="21">
       <c r="A93" s="24" t="s">
         <v>113</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="21">
       <c r="A94" s="24" t="s">
         <v>114</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="21">
       <c r="A95" s="24" t="s">
         <v>115</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="21">
       <c r="A96" s="24" t="s">
         <v>116</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="21">
       <c r="A97" s="24" t="s">
         <v>117</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="21">
       <c r="A98" s="24" t="s">
         <v>118</v>
       </c>
@@ -6071,7 +6075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="21">
       <c r="A99" s="24" t="s">
         <v>119</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="21">
       <c r="A100" s="24" t="s">
         <v>120</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="21">
       <c r="A101" s="24" t="s">
         <v>121</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="21">
       <c r="A102" s="24" t="s">
         <v>122</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="21">
       <c r="A103" s="24" t="s">
         <v>123</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="21">
       <c r="A104" s="24" t="s">
         <v>124</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="21">
       <c r="A105" s="24" t="s">
         <v>125</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="21">
       <c r="A106" s="24" t="s">
         <v>126</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="21">
       <c r="A107" s="24" t="s">
         <v>127</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="21">
       <c r="A108" s="24" t="s">
         <v>128</v>
       </c>
@@ -6491,7 +6495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="21">
       <c r="A109" s="24" t="s">
         <v>129</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="21">
       <c r="A110" s="24" t="s">
         <v>130</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="21">
       <c r="A111" s="24" t="s">
         <v>131</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="21">
       <c r="A112" s="24" t="s">
         <v>132</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="21">
       <c r="A113" s="24" t="s">
         <v>133</v>
       </c>
@@ -6701,7 +6705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="21">
       <c r="A114" s="24" t="s">
         <v>134</v>
       </c>
@@ -6743,7 +6747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="21">
       <c r="A115" s="24" t="s">
         <v>135</v>
       </c>
@@ -6785,7 +6789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="21">
       <c r="A116" s="24" t="s">
         <v>136</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="21">
       <c r="A117" s="24" t="s">
         <v>137</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="21">
       <c r="A118" s="24" t="s">
         <v>138</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="21">
       <c r="A119" s="24" t="s">
         <v>139</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="21">
       <c r="A120" s="24" t="s">
         <v>140</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="21">
       <c r="A121" s="24" t="s">
         <v>141</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="21">
       <c r="A122" s="24" t="s">
         <v>142</v>
       </c>
@@ -7079,7 +7083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="21">
       <c r="A123" s="24" t="s">
         <v>143</v>
       </c>
@@ -7121,7 +7125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="21">
       <c r="A124" s="24" t="s">
         <v>144</v>
       </c>
@@ -7163,7 +7167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="21">
       <c r="A125" s="24" t="s">
         <v>145</v>
       </c>
@@ -7205,7 +7209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="21">
       <c r="A126" s="24" t="s">
         <v>146</v>
       </c>
@@ -7247,7 +7251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="21">
       <c r="A127" s="24" t="s">
         <v>147</v>
       </c>
@@ -7289,7 +7293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="21">
       <c r="A128" s="24" t="s">
         <v>148</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="21">
       <c r="A129" s="24" t="s">
         <v>149</v>
       </c>
@@ -7373,7 +7377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="21">
       <c r="A130" s="24" t="s">
         <v>150</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="21">
       <c r="A131" s="24" t="s">
         <v>151</v>
       </c>
@@ -7457,7 +7461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="21">
       <c r="A132" s="24" t="s">
         <v>152</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="21">
       <c r="A133" s="24" t="s">
         <v>153</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="21">
       <c r="A134" s="24" t="s">
         <v>154</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="21">
       <c r="A135" s="24" t="s">
         <v>155</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="21">
       <c r="A136" s="24" t="s">
         <v>156</v>
       </c>
@@ -7667,7 +7671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="21">
       <c r="A137" s="24" t="s">
         <v>157</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="21">
       <c r="A138" s="24" t="s">
         <v>158</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="21">
       <c r="A139" s="24" t="s">
         <v>159</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="21">
       <c r="A140" s="24" t="s">
         <v>160</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="21">
       <c r="A141" s="24" t="s">
         <v>161</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="21">
       <c r="A142" s="24" t="s">
         <v>162</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="21">
       <c r="A143" s="24" t="s">
         <v>163</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="21">
       <c r="A144" s="24" t="s">
         <v>164</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="21">
       <c r="A145" s="24" t="s">
         <v>165</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="21">
       <c r="A146" s="24" t="s">
         <v>166</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="21">
       <c r="A147" s="24" t="s">
         <v>167</v>
       </c>
@@ -8129,7 +8133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="21">
       <c r="A148" s="24" t="s">
         <v>168</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="21">
       <c r="A149" s="24" t="s">
         <v>169</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="21">
       <c r="A150" s="24" t="s">
         <v>170</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="21">
       <c r="A151" s="24" t="s">
         <v>171</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="21">
       <c r="A152" s="24" t="s">
         <v>172</v>
       </c>
@@ -8339,7 +8343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="21">
       <c r="A153" s="24" t="s">
         <v>173</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="21">
       <c r="A154" s="24" t="s">
         <v>174</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="21">
       <c r="A155" s="24" t="s">
         <v>175</v>
       </c>
@@ -8465,7 +8469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="21">
       <c r="A156" s="24" t="s">
         <v>176</v>
       </c>
@@ -8507,7 +8511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="21">
       <c r="A157" s="24" t="s">
         <v>177</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="21">
       <c r="A158" s="24" t="s">
         <v>178</v>
       </c>
@@ -8591,7 +8595,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="21">
       <c r="A159" s="24" t="s">
         <v>179</v>
       </c>
@@ -8633,7 +8637,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="21">
       <c r="A160" s="24" t="s">
         <v>180</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="21">
       <c r="A161" s="24" t="s">
         <v>181</v>
       </c>
@@ -8717,7 +8721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="21">
       <c r="A162" s="24" t="s">
         <v>182</v>
       </c>
@@ -8759,7 +8763,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="21">
       <c r="A163" s="24" t="s">
         <v>183</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="21">
       <c r="A164" s="24" t="s">
         <v>184</v>
       </c>
@@ -8843,7 +8847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="21">
       <c r="A165" s="24" t="s">
         <v>185</v>
       </c>
@@ -8885,7 +8889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="21">
       <c r="A166" s="24" t="s">
         <v>186</v>
       </c>
@@ -8927,7 +8931,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="21">
       <c r="A167" s="24" t="s">
         <v>187</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="21">
       <c r="A168" s="24" t="s">
         <v>188</v>
       </c>
@@ -9011,7 +9015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="21">
       <c r="A169" s="24" t="s">
         <v>189</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="21">
       <c r="A170" s="24" t="s">
         <v>190</v>
       </c>
@@ -9095,7 +9099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="21">
       <c r="A171" s="24" t="s">
         <v>191</v>
       </c>
@@ -9137,7 +9141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="21">
       <c r="A172" s="24" t="s">
         <v>192</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="21">
       <c r="A173" s="24" t="s">
         <v>193</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>0.8126022913256955</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="21">
       <c r="A174" s="24" t="s">
         <v>194</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>0.77679290894439978</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="21">
       <c r="A175" s="24" t="s">
         <v>195</v>
       </c>
@@ -9305,7 +9309,7 @@
         <v>0.7548076923076924</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="21">
       <c r="A176" s="24" t="s">
         <v>196</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>0.73396674584323041</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="21">
       <c r="A177" s="24" t="s">
         <v>197</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>0.73017107309486784</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="21">
       <c r="A178" s="24" t="s">
         <v>198</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>0.72671285604311009</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="21">
       <c r="A179" s="24" t="s">
         <v>199</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>0.71849056603773587</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="21">
       <c r="A180" s="24" t="s">
         <v>200</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>0.67287630402384502</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="21">
       <c r="A181" s="24" t="s">
         <v>201</v>
       </c>
@@ -9557,7 +9561,7 @@
         <v>0.67062314540059342</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="21">
       <c r="A182" s="24" t="s">
         <v>202</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>0.65294117647058825</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="21">
       <c r="A183" s="24" t="s">
         <v>203</v>
       </c>
@@ -9641,7 +9645,7 @@
         <v>0.63795620437956213</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="21">
       <c r="A184" s="24" t="s">
         <v>204</v>
       </c>
@@ -9683,7 +9687,7 @@
         <v>0.62662807525325614</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="21">
       <c r="A185" s="24" t="s">
         <v>205</v>
       </c>
@@ -9725,7 +9729,7 @@
         <v>0.61897915168943207</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="21">
       <c r="A186" s="24" t="s">
         <v>206</v>
       </c>
@@ -9767,7 +9771,7 @@
         <v>0.59743040685224846</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="21">
       <c r="A187" s="24" t="s">
         <v>207</v>
       </c>
@@ -9809,7 +9813,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="21">
       <c r="A188" s="24" t="s">
         <v>208</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>0.57132817990161622</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="21">
       <c r="A189" s="24" t="s">
         <v>209</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>0.56454989532449407</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="21">
       <c r="A190" s="24" t="s">
         <v>210</v>
       </c>
@@ -9935,7 +9939,7 @@
         <v>0.55301455301455293</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="21">
       <c r="A191" s="24" t="s">
         <v>211</v>
       </c>
@@ -9977,7 +9981,7 @@
         <v>0.53448275862068961</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="21">
       <c r="A192" s="24" t="s">
         <v>212</v>
       </c>
@@ -10019,7 +10023,7 @@
         <v>0.51332877648667119</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="21">
       <c r="A193" s="24" t="s">
         <v>213</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>0.50033990482664847</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="21">
       <c r="A194" s="24" t="s">
         <v>214</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>0.49290060851926981</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="21">
       <c r="A195" s="24" t="s">
         <v>215</v>
       </c>
@@ -10145,7 +10149,7 @@
         <v>0.4688546550569323</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="21">
       <c r="A196" s="24" t="s">
         <v>216</v>
       </c>
@@ -10187,7 +10191,7 @@
         <v>0.45502998001332445</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="21">
       <c r="A197" s="24" t="s">
         <v>217</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>0.42460317460317465</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="21">
       <c r="A198" s="24" t="s">
         <v>218</v>
       </c>
@@ -10271,7 +10275,7 @@
         <v>0.42388451443569547</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="21">
       <c r="A199" s="24" t="s">
         <v>219</v>
       </c>
@@ -10313,7 +10317,7 @@
         <v>0.41476159372958854</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="21">
       <c r="A200" s="24" t="s">
         <v>220</v>
       </c>
@@ -10355,7 +10359,7 @@
         <v>0.39636127355425599</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="21">
       <c r="A201" s="24" t="s">
         <v>221</v>
       </c>
@@ -10397,7 +10401,7 @@
         <v>0.38842443729903536</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="21">
       <c r="A202" s="24" t="s">
         <v>222</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>0.37141033822590941</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="21">
       <c r="A203" s="24" t="s">
         <v>223</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>0.35066582117945466</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="21">
       <c r="A204" s="24" t="s">
         <v>224</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>0.33878064110622252</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="21">
       <c r="A205" s="24" t="s">
         <v>225</v>
       </c>
@@ -10565,7 +10569,7 @@
         <v>0.32790988735919896</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="21">
       <c r="A206" s="24" t="s">
         <v>226</v>
       </c>
@@ -10607,7 +10611,7 @@
         <v>0.31148564294631714</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="21">
       <c r="A207" s="24" t="s">
         <v>227</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>0.30086848635235736</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="21">
       <c r="A208" s="24" t="s">
         <v>228</v>
       </c>
@@ -10691,7 +10695,7 @@
         <v>0.29295426452410378</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="21">
       <c r="A209" s="24" t="s">
         <v>229</v>
       </c>
@@ -10733,7 +10737,7 @@
         <v>0.26790123456790121</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="21">
       <c r="A210" s="24" t="s">
         <v>230</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>0.24938574938574937</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="21">
       <c r="A211" s="24" t="s">
         <v>231</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>0.22446483180428137</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="21">
       <c r="A212" s="24" t="s">
         <v>232</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>0.21167883211678828</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="21">
       <c r="A213" s="24" t="s">
         <v>233</v>
       </c>
@@ -10901,7 +10905,7 @@
         <v>0.19660194174757278</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="21">
       <c r="A214" s="24" t="s">
         <v>234</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>0.17951807228915664</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="21">
       <c r="A215" s="24" t="s">
         <v>235</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>0.17461263408820024</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="21">
       <c r="A216" s="24" t="s">
         <v>236</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>0.16706161137440756</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="21">
       <c r="A217" s="24" t="s">
         <v>237</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>0.1590643274853801</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="21">
       <c r="A218" s="24" t="s">
         <v>238</v>
       </c>
@@ -11111,7 +11115,7 @@
         <v>0.15098722415795587</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="21">
       <c r="A219" s="24" t="s">
         <v>239</v>
       </c>
@@ -11153,7 +11157,7 @@
         <v>0.14400921658986177</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="21">
       <c r="A220" s="24" t="s">
         <v>240</v>
       </c>
@@ -11195,7 +11199,7 @@
         <v>0.13631156930126004</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="21">
       <c r="A221" s="24" t="s">
         <v>241</v>
       </c>
@@ -11237,7 +11241,7 @@
         <v>0.12776831345826237</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="21">
       <c r="A222" s="24" t="s">
         <v>242</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>0.12042768711311198</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="21">
       <c r="A223" s="24" t="s">
         <v>243</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>0.11398090960134756</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="21">
       <c r="A224" s="24" t="s">
         <v>244</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>0.11161217587373168</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="21">
       <c r="A225" s="24" t="s">
         <v>245</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>0.10532212885154062</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="21">
       <c r="A226" s="24" t="s">
         <v>246</v>
       </c>
@@ -11447,7 +11451,7 @@
         <v>0.10244988864142539</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="21">
       <c r="A227" s="24" t="s">
         <v>247</v>
       </c>
@@ -11489,7 +11493,7 @@
         <v>9.8451327433628319E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="21">
       <c r="A228" s="24" t="s">
         <v>248</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>9.4609460946094598E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="21">
       <c r="A229" s="24" t="s">
         <v>249</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>9.1353996737357265E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="21">
       <c r="A230" s="24" t="s">
         <v>250</v>
       </c>
@@ -11615,7 +11619,7 @@
         <v>8.8476242490442378E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="21">
       <c r="A231" s="24" t="s">
         <v>251</v>
       </c>
@@ -11657,7 +11661,7 @@
         <v>8.4278768233387355E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="21">
       <c r="A232" s="24" t="s">
         <v>252</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>8.2479784366576825E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="21">
       <c r="A233" s="24" t="s">
         <v>253</v>
       </c>
@@ -11741,7 +11745,7 @@
         <v>8.1239978621058251E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="21">
       <c r="A234" s="24" t="s">
         <v>254</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>7.8877713075701433E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="21">
       <c r="A235" s="24" t="s">
         <v>255</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>7.7449947312961009E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="21">
       <c r="A236" s="24" t="s">
         <v>256</v>
       </c>
@@ -11867,7 +11871,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="21">
       <c r="A237" s="24" t="s">
         <v>257</v>
       </c>
@@ -11909,7 +11913,7 @@
         <v>7.2501294665976185E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="21">
       <c r="A238" s="24" t="s">
         <v>258</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>7.0211667527103769E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="21">
       <c r="A239" s="24" t="s">
         <v>259</v>
       </c>
@@ -11993,7 +11997,7 @@
         <v>6.6901408450704219E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="21">
       <c r="A240" s="24" t="s">
         <v>260</v>
       </c>
@@ -12035,7 +12039,7 @@
         <v>6.6128218071680969E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="21">
       <c r="A241" s="24" t="s">
         <v>261</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>6.5097646469704562E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="21">
       <c r="A242" s="24" t="s">
         <v>262</v>
       </c>
@@ -12119,7 +12123,7 @@
         <v>6.2933597621407322E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="21">
       <c r="A243" s="24" t="s">
         <v>263</v>
       </c>
@@ -12161,7 +12165,7 @@
         <v>6.0650887573964495E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="21">
       <c r="A244" s="24" t="s">
         <v>264</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>5.5145248645987195E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="21">
       <c r="A245" s="24" t="s">
         <v>265</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>5.2901289895171656E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="21">
       <c r="A246" s="24" t="s">
         <v>266</v>
       </c>
@@ -12287,7 +12291,7 @@
         <v>5.1135431444647113E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="21">
       <c r="A247" s="24" t="s">
         <v>267</v>
       </c>
@@ -12329,7 +12333,7 @@
         <v>5.0238075829429338E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="21">
       <c r="A248" s="24" t="s">
         <v>268</v>
       </c>
@@ -12371,7 +12375,7 @@
         <v>4.8310435337794701E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="21">
       <c r="A249" s="24" t="s">
         <v>269</v>
       </c>
@@ -12413,7 +12417,7 @@
         <v>4.8002323750983844E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="21">
       <c r="A250" s="24" t="s">
         <v>270</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>4.6311326524512218E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="21">
       <c r="A251" s="24" t="s">
         <v>271</v>
       </c>
@@ -12497,7 +12501,7 @@
         <v>4.5235451874797258E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="21">
       <c r="A252" s="24" t="s">
         <v>272</v>
       </c>
@@ -12539,7 +12543,7 @@
         <v>4.6859478329974745E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" ht="21">
       <c r="A253" s="24" t="s">
         <v>273</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>4.6457563707381348E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="21">
       <c r="A254" s="24" t="s">
         <v>274</v>
       </c>
@@ -12623,7 +12627,7 @@
         <v>4.530471623446157E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" ht="21">
       <c r="A255" s="24" t="s">
         <v>275</v>
       </c>
@@ -12665,7 +12669,7 @@
         <v>4.3856926448038326E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" ht="21">
       <c r="A256" s="24" t="s">
         <v>276</v>
       </c>
@@ -12707,7 +12711,7 @@
         <v>4.3354635674750515E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" ht="21">
       <c r="A257" s="24" t="s">
         <v>277</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>4.3946943451436141E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" ht="21">
       <c r="A258" s="24" t="s">
         <v>278</v>
       </c>
@@ -12791,7 +12795,7 @@
         <v>4.3379573570780712E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" ht="21">
       <c r="A259" s="24" t="s">
         <v>279</v>
       </c>
@@ -12833,7 +12837,7 @@
         <v>4.278547703584927E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" ht="21">
       <c r="A260" s="24" t="s">
         <v>280</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>4.1873798033310344E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" ht="21">
       <c r="A261" s="24" t="s">
         <v>281</v>
       </c>
@@ -12917,7 +12921,7 @@
         <v>4.1229163490939087E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" ht="21">
       <c r="A262" s="24" t="s">
         <v>282</v>
       </c>
@@ -12959,7 +12963,7 @@
         <v>4.0203553285944327E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" ht="21">
       <c r="A263" s="24" t="s">
         <v>283</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>3.9329735168603296E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" ht="21">
       <c r="A264" s="24" t="s">
         <v>284</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>3.8807691122817671E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" ht="21">
       <c r="A265" s="24" t="s">
         <v>285</v>
       </c>
@@ -13085,7 +13089,7 @@
         <v>3.8731332520421144E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" ht="21">
       <c r="A266" s="24" t="s">
         <v>286</v>
       </c>
@@ -13127,7 +13131,7 @@
         <v>3.8674274912044247E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" ht="21">
       <c r="A267" s="24" t="s">
         <v>287</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>3.7261649676427942E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" ht="21">
       <c r="A268" s="24" t="s">
         <v>288</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>3.6882463098075004E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" ht="21">
       <c r="A269" s="24" t="s">
         <v>289</v>
       </c>
@@ -13253,7 +13257,7 @@
         <v>3.7361331731948909E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" ht="21">
       <c r="A270" s="24" t="s">
         <v>290</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>3.6729582483410364E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" ht="21">
       <c r="A271" s="24" t="s">
         <v>291</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>3.6206512806464863E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" ht="21">
       <c r="A272" s="24" t="s">
         <v>292</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>3.5752780937530614E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" ht="21">
       <c r="A273" s="24" t="s">
         <v>293</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>3.5689767690208409E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" ht="21">
       <c r="A274" s="24" t="s">
         <v>294</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>3.5426044914335375E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" ht="21">
       <c r="A275" s="24" t="s">
         <v>295</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>3.4928374725246965E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" ht="21">
       <c r="A276" s="24" t="s">
         <v>296</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>3.4626941470227268E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" ht="21">
       <c r="A277" s="24" t="s">
         <v>297</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>3.4734669836305923E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" ht="21">
       <c r="A278" s="24" t="s">
         <v>298</v>
       </c>
@@ -13631,7 +13635,7 @@
         <v>3.4062143299398953E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" ht="21">
       <c r="A279" s="24" t="s">
         <v>299</v>
       </c>
@@ -13673,7 +13677,7 @@
         <v>3.3389902596992427E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" ht="21">
       <c r="A280" s="24" t="s">
         <v>300</v>
       </c>
@@ -13715,7 +13719,7 @@
         <v>3.319795161575137E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" ht="21">
       <c r="A281" s="24" t="s">
         <v>301</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>3.3262208183872509E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" ht="21">
       <c r="A282" s="24" t="s">
         <v>302</v>
       </c>
@@ -13799,7 +13803,7 @@
         <v>3.2571442866553814E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" ht="21">
       <c r="A283" s="24" t="s">
         <v>303</v>
       </c>
@@ -13841,7 +13845,7 @@
         <v>3.2131980116677589E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" ht="21">
       <c r="A284" s="24" t="s">
         <v>304</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>3.168177381692687E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" ht="21">
       <c r="A285" s="24" t="s">
         <v>305</v>
       </c>
@@ -13925,7 +13929,7 @@
         <v>3.1449998358987825E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" ht="21">
       <c r="A286" s="24" t="s">
         <v>306</v>
       </c>
@@ -13967,7 +13971,7 @@
         <v>3.1457401862258504E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="18.75">
       <c r="A287" s="22"/>
       <c r="B287" s="22"/>
       <c r="C287" s="22"/>
@@ -13989,7 +13993,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Brianti\Documents\GitHub\Brianti_Gati_2017\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="15518" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1027,7 +1032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1302,7 +1307,7 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1638,31 +1643,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="14.1875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.6875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.6875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.6875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.6875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.6875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.6875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.6875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.6875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.6875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.8125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.8125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="195">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="189" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="60">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="75">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1930,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="135">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1953,22 +1958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="23.3125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="23.33203125" style="13"/>
+    <col min="5" max="5" width="23.3125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="20" t="s">
         <v>330</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="20" t="s">
         <v>333</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20">
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="24" t="s">
         <v>24</v>
       </c>
@@ -2201,7 +2206,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20">
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2248,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="24" t="s">
         <v>26</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20">
+    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="24" t="s">
         <v>27</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20">
+    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="24" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20">
+    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20">
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="24" t="s">
         <v>30</v>
       </c>
@@ -2453,7 +2458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20">
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="24" t="s">
         <v>31</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20">
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="24" t="s">
         <v>32</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20">
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="24" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="24" t="s">
         <v>34</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="20">
+    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="24" t="s">
         <v>35</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20">
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="24" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="20">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="24" t="s">
         <v>37</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="20">
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="24" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="20">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="24" t="s">
         <v>39</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="20">
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="24" t="s">
         <v>40</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="20">
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="24" t="s">
         <v>41</v>
       </c>
@@ -2915,7 +2920,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="20">
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="24" t="s">
         <v>42</v>
       </c>
@@ -2957,7 +2962,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="20">
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="24" t="s">
         <v>43</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="20">
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="24" t="s">
         <v>44</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="20">
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="24" t="s">
         <v>45</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20">
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="24" t="s">
         <v>46</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="20">
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="24" t="s">
         <v>47</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="20">
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A30" s="24" t="s">
         <v>48</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="20">
+    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A31" s="24" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="20">
+    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A32" s="24" t="s">
         <v>50</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="20">
+    <row r="33" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A33" s="24" t="s">
         <v>51</v>
       </c>
@@ -3335,7 +3340,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="20">
+    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A34" s="24" t="s">
         <v>52</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="20">
+    <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A35" s="24" t="s">
         <v>53</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="20">
+    <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A36" s="24" t="s">
         <v>54</v>
       </c>
@@ -3461,7 +3466,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="20">
+    <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A37" s="24" t="s">
         <v>55</v>
       </c>
@@ -3503,7 +3508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="20">
+    <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A38" s="24" t="s">
         <v>56</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="20">
+    <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A39" s="24" t="s">
         <v>57</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="20">
+    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A40" s="24" t="s">
         <v>58</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="20">
+    <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A41" s="24" t="s">
         <v>59</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="20">
+    <row r="42" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A42" s="24" t="s">
         <v>60</v>
       </c>
@@ -3713,7 +3718,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="20">
+    <row r="43" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A43" s="24" t="s">
         <v>61</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="20">
+    <row r="44" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A44" s="24" t="s">
         <v>62</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="20">
+    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A45" s="24" t="s">
         <v>63</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="20">
+    <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A46" s="24" t="s">
         <v>64</v>
       </c>
@@ -3881,7 +3886,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="20">
+    <row r="47" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A47" s="24" t="s">
         <v>65</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="20">
+    <row r="48" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A48" s="24" t="s">
         <v>66</v>
       </c>
@@ -3965,7 +3970,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="20">
+    <row r="49" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A49" s="24" t="s">
         <v>67</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="20">
+    <row r="50" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A50" s="24" t="s">
         <v>68</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="20">
+    <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A51" s="24" t="s">
         <v>69</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="20">
+    <row r="52" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A52" s="24" t="s">
         <v>70</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="20">
+    <row r="53" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A53" s="24" t="s">
         <v>71</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="20">
+    <row r="54" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A54" s="24" t="s">
         <v>72</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="20">
+    <row r="55" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A55" s="24" t="s">
         <v>73</v>
       </c>
@@ -4259,7 +4264,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="20">
+    <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A56" s="24" t="s">
         <v>74</v>
       </c>
@@ -4301,7 +4306,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="20">
+    <row r="57" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A57" s="24" t="s">
         <v>75</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="20">
+    <row r="58" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A58" s="24" t="s">
         <v>76</v>
       </c>
@@ -4385,7 +4390,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="20">
+    <row r="59" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A59" s="24" t="s">
         <v>77</v>
       </c>
@@ -4427,7 +4432,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="20">
+    <row r="60" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A60" s="24" t="s">
         <v>78</v>
       </c>
@@ -4469,7 +4474,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="20">
+    <row r="61" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A61" s="24" t="s">
         <v>79</v>
       </c>
@@ -4511,7 +4516,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="20">
+    <row r="62" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A62" s="24" t="s">
         <v>80</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="20">
+    <row r="63" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A63" s="24" t="s">
         <v>81</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="20">
+    <row r="64" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A64" s="24" t="s">
         <v>82</v>
       </c>
@@ -4637,7 +4642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="20">
+    <row r="65" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A65" s="24" t="s">
         <v>83</v>
       </c>
@@ -4679,7 +4684,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="20">
+    <row r="66" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A66" s="24" t="s">
         <v>84</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="20">
+    <row r="67" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A67" s="24" t="s">
         <v>85</v>
       </c>
@@ -4763,7 +4768,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="20">
+    <row r="68" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A68" s="24" t="s">
         <v>86</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="20">
+    <row r="69" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A69" s="24" t="s">
         <v>87</v>
       </c>
@@ -4847,7 +4852,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="20">
+    <row r="70" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A70" s="24" t="s">
         <v>88</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="20">
+    <row r="71" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A71" s="24" t="s">
         <v>89</v>
       </c>
@@ -4931,7 +4936,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="20">
+    <row r="72" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A72" s="24" t="s">
         <v>90</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="20">
+    <row r="73" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A73" s="24" t="s">
         <v>91</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="20">
+    <row r="74" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A74" s="24" t="s">
         <v>92</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="20">
+    <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A75" s="24" t="s">
         <v>93</v>
       </c>
@@ -5099,7 +5104,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="20">
+    <row r="76" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A76" s="24" t="s">
         <v>94</v>
       </c>
@@ -5141,7 +5146,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="20">
+    <row r="77" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A77" s="24" t="s">
         <v>95</v>
       </c>
@@ -5183,7 +5188,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="20">
+    <row r="78" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A78" s="24" t="s">
         <v>96</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20">
+    <row r="79" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A79" s="24" t="s">
         <v>97</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="20">
+    <row r="80" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A80" s="24" t="s">
         <v>98</v>
       </c>
@@ -5309,7 +5314,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="20">
+    <row r="81" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A81" s="24" t="s">
         <v>99</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="20">
+    <row r="82" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A82" s="24" t="s">
         <v>100</v>
       </c>
@@ -5393,7 +5398,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="20">
+    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A83" s="24" t="s">
         <v>101</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="20">
+    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A84" s="24" t="s">
         <v>102</v>
       </c>
@@ -5477,7 +5482,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="20">
+    <row r="85" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A85" s="24" t="s">
         <v>103</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="20">
+    <row r="86" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A86" s="24" t="s">
         <v>104</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="20">
+    <row r="87" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A87" s="24" t="s">
         <v>105</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="20">
+    <row r="88" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A88" s="24" t="s">
         <v>106</v>
       </c>
@@ -5645,7 +5650,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="20">
+    <row r="89" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A89" s="24" t="s">
         <v>107</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="20">
+    <row r="90" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A90" s="24" t="s">
         <v>108</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="20">
+    <row r="91" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A91" s="24" t="s">
         <v>109</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="20">
+    <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A92" s="24" t="s">
         <v>110</v>
       </c>
@@ -5813,7 +5818,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="20">
+    <row r="93" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A93" s="24" t="s">
         <v>111</v>
       </c>
@@ -5855,7 +5860,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="20">
+    <row r="94" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A94" s="24" t="s">
         <v>113</v>
       </c>
@@ -5897,7 +5902,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="20">
+    <row r="95" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A95" s="24" t="s">
         <v>114</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="20">
+    <row r="96" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A96" s="24" t="s">
         <v>115</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="20">
+    <row r="97" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A97" s="24" t="s">
         <v>116</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="20">
+    <row r="98" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A98" s="24" t="s">
         <v>117</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="20">
+    <row r="99" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A99" s="24" t="s">
         <v>118</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="20">
+    <row r="100" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A100" s="24" t="s">
         <v>119</v>
       </c>
@@ -6149,7 +6154,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="20">
+    <row r="101" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A101" s="24" t="s">
         <v>120</v>
       </c>
@@ -6191,7 +6196,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="20">
+    <row r="102" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A102" s="24" t="s">
         <v>121</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="20">
+    <row r="103" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="24" t="s">
         <v>122</v>
       </c>
@@ -6275,7 +6280,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="20">
+    <row r="104" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A104" s="24" t="s">
         <v>123</v>
       </c>
@@ -6317,7 +6322,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="20">
+    <row r="105" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A105" s="24" t="s">
         <v>124</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="20">
+    <row r="106" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A106" s="24" t="s">
         <v>125</v>
       </c>
@@ -6401,7 +6406,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="20">
+    <row r="107" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A107" s="24" t="s">
         <v>126</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="20">
+    <row r="108" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A108" s="24" t="s">
         <v>127</v>
       </c>
@@ -6485,7 +6490,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="20">
+    <row r="109" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A109" s="24" t="s">
         <v>128</v>
       </c>
@@ -6527,7 +6532,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="20">
+    <row r="110" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A110" s="24" t="s">
         <v>129</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="20">
+    <row r="111" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A111" s="24" t="s">
         <v>130</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="20">
+    <row r="112" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A112" s="24" t="s">
         <v>131</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="20">
+    <row r="113" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A113" s="24" t="s">
         <v>132</v>
       </c>
@@ -6695,7 +6700,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="20">
+    <row r="114" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A114" s="24" t="s">
         <v>133</v>
       </c>
@@ -6737,7 +6742,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="20">
+    <row r="115" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A115" s="24" t="s">
         <v>134</v>
       </c>
@@ -6779,7 +6784,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="20">
+    <row r="116" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A116" s="24" t="s">
         <v>135</v>
       </c>
@@ -6821,7 +6826,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="20">
+    <row r="117" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A117" s="24" t="s">
         <v>136</v>
       </c>
@@ -6863,7 +6868,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="20">
+    <row r="118" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A118" s="24" t="s">
         <v>137</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="20">
+    <row r="119" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A119" s="24" t="s">
         <v>138</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="20">
+    <row r="120" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A120" s="24" t="s">
         <v>139</v>
       </c>
@@ -6989,7 +6994,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="20">
+    <row r="121" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A121" s="24" t="s">
         <v>140</v>
       </c>
@@ -7031,7 +7036,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="20">
+    <row r="122" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A122" s="24" t="s">
         <v>141</v>
       </c>
@@ -7073,7 +7078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="20">
+    <row r="123" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A123" s="24" t="s">
         <v>142</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="20">
+    <row r="124" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A124" s="24" t="s">
         <v>143</v>
       </c>
@@ -7157,7 +7162,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="20">
+    <row r="125" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A125" s="24" t="s">
         <v>144</v>
       </c>
@@ -7199,7 +7204,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="20">
+    <row r="126" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A126" s="24" t="s">
         <v>145</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="20">
+    <row r="127" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A127" s="24" t="s">
         <v>146</v>
       </c>
@@ -7283,7 +7288,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="20">
+    <row r="128" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A128" s="24" t="s">
         <v>147</v>
       </c>
@@ -7325,7 +7330,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="20">
+    <row r="129" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A129" s="24" t="s">
         <v>148</v>
       </c>
@@ -7367,7 +7372,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="20">
+    <row r="130" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A130" s="24" t="s">
         <v>149</v>
       </c>
@@ -7409,7 +7414,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="20">
+    <row r="131" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A131" s="24" t="s">
         <v>150</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="20">
+    <row r="132" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A132" s="24" t="s">
         <v>151</v>
       </c>
@@ -7493,7 +7498,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="20">
+    <row r="133" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A133" s="24" t="s">
         <v>152</v>
       </c>
@@ -7535,7 +7540,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="20">
+    <row r="134" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A134" s="24" t="s">
         <v>153</v>
       </c>
@@ -7577,7 +7582,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="20">
+    <row r="135" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A135" s="24" t="s">
         <v>154</v>
       </c>
@@ -7619,7 +7624,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="20">
+    <row r="136" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A136" s="24" t="s">
         <v>155</v>
       </c>
@@ -7661,7 +7666,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="20">
+    <row r="137" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A137" s="24" t="s">
         <v>156</v>
       </c>
@@ -7703,7 +7708,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="20">
+    <row r="138" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A138" s="24" t="s">
         <v>157</v>
       </c>
@@ -7745,7 +7750,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="20">
+    <row r="139" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A139" s="24" t="s">
         <v>158</v>
       </c>
@@ -7787,7 +7792,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="20">
+    <row r="140" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A140" s="24" t="s">
         <v>159</v>
       </c>
@@ -7829,7 +7834,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="20">
+    <row r="141" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A141" s="24" t="s">
         <v>160</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="20">
+    <row r="142" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A142" s="24" t="s">
         <v>161</v>
       </c>
@@ -7913,7 +7918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="20">
+    <row r="143" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A143" s="24" t="s">
         <v>162</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="20">
+    <row r="144" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A144" s="24" t="s">
         <v>163</v>
       </c>
@@ -7997,7 +8002,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="20">
+    <row r="145" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A145" s="24" t="s">
         <v>164</v>
       </c>
@@ -8039,7 +8044,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="20">
+    <row r="146" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A146" s="24" t="s">
         <v>165</v>
       </c>
@@ -8081,7 +8086,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="20">
+    <row r="147" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A147" s="24" t="s">
         <v>166</v>
       </c>
@@ -8123,7 +8128,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="20">
+    <row r="148" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A148" s="24" t="s">
         <v>167</v>
       </c>
@@ -8165,7 +8170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="20">
+    <row r="149" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A149" s="24" t="s">
         <v>168</v>
       </c>
@@ -8207,7 +8212,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="20">
+    <row r="150" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A150" s="24" t="s">
         <v>169</v>
       </c>
@@ -8249,7 +8254,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="20">
+    <row r="151" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A151" s="24" t="s">
         <v>170</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="20">
+    <row r="152" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A152" s="24" t="s">
         <v>171</v>
       </c>
@@ -8333,7 +8338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="20">
+    <row r="153" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A153" s="24" t="s">
         <v>172</v>
       </c>
@@ -8375,7 +8380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="20">
+    <row r="154" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A154" s="24" t="s">
         <v>173</v>
       </c>
@@ -8417,7 +8422,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="20">
+    <row r="155" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A155" s="24" t="s">
         <v>174</v>
       </c>
@@ -8459,7 +8464,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="20">
+    <row r="156" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A156" s="24" t="s">
         <v>175</v>
       </c>
@@ -8501,7 +8506,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="20">
+    <row r="157" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A157" s="24" t="s">
         <v>176</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="20">
+    <row r="158" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A158" s="24" t="s">
         <v>177</v>
       </c>
@@ -8585,7 +8590,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="20">
+    <row r="159" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A159" s="24" t="s">
         <v>178</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="20">
+    <row r="160" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A160" s="24" t="s">
         <v>179</v>
       </c>
@@ -8669,7 +8674,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="20">
+    <row r="161" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A161" s="24" t="s">
         <v>180</v>
       </c>
@@ -8711,7 +8716,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="20">
+    <row r="162" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A162" s="24" t="s">
         <v>181</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="20">
+    <row r="163" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A163" s="24" t="s">
         <v>182</v>
       </c>
@@ -8795,7 +8800,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="20">
+    <row r="164" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A164" s="24" t="s">
         <v>183</v>
       </c>
@@ -8837,7 +8842,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="20">
+    <row r="165" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A165" s="24" t="s">
         <v>184</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="20">
+    <row r="166" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A166" s="24" t="s">
         <v>185</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="20">
+    <row r="167" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A167" s="24" t="s">
         <v>186</v>
       </c>
@@ -8963,7 +8968,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="20">
+    <row r="168" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A168" s="24" t="s">
         <v>187</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="20">
+    <row r="169" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A169" s="24" t="s">
         <v>188</v>
       </c>
@@ -9047,7 +9052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="20">
+    <row r="170" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A170" s="24" t="s">
         <v>189</v>
       </c>
@@ -9089,7 +9094,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="20">
+    <row r="171" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A171" s="24" t="s">
         <v>190</v>
       </c>
@@ -9131,7 +9136,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="20">
+    <row r="172" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A172" s="24" t="s">
         <v>191</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="20">
+    <row r="173" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A173" s="24" t="s">
         <v>192</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="20">
+    <row r="174" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A174" s="24" t="s">
         <v>193</v>
       </c>
@@ -9257,7 +9262,7 @@
         <v>0.8126022913256955</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="20">
+    <row r="175" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A175" s="24" t="s">
         <v>194</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>0.77679290894439978</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="20">
+    <row r="176" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A176" s="24" t="s">
         <v>195</v>
       </c>
@@ -9341,7 +9346,7 @@
         <v>0.7548076923076924</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="20">
+    <row r="177" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A177" s="24" t="s">
         <v>196</v>
       </c>
@@ -9383,7 +9388,7 @@
         <v>0.73396674584323041</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="20">
+    <row r="178" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A178" s="24" t="s">
         <v>197</v>
       </c>
@@ -9425,7 +9430,7 @@
         <v>0.73017107309486784</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="20">
+    <row r="179" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A179" s="24" t="s">
         <v>198</v>
       </c>
@@ -9467,7 +9472,7 @@
         <v>0.72671285604311009</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="20">
+    <row r="180" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A180" s="24" t="s">
         <v>199</v>
       </c>
@@ -9509,7 +9514,7 @@
         <v>0.71849056603773587</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="20">
+    <row r="181" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A181" s="24" t="s">
         <v>200</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>0.67287630402384502</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="20">
+    <row r="182" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A182" s="24" t="s">
         <v>201</v>
       </c>
@@ -9593,7 +9598,7 @@
         <v>0.67062314540059342</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="20">
+    <row r="183" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A183" s="24" t="s">
         <v>202</v>
       </c>
@@ -9635,7 +9640,7 @@
         <v>0.65294117647058825</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="20">
+    <row r="184" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A184" s="24" t="s">
         <v>203</v>
       </c>
@@ -9677,7 +9682,7 @@
         <v>0.63795620437956213</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="20">
+    <row r="185" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A185" s="24" t="s">
         <v>204</v>
       </c>
@@ -9719,7 +9724,7 @@
         <v>0.62662807525325614</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="20">
+    <row r="186" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A186" s="24" t="s">
         <v>205</v>
       </c>
@@ -9761,7 +9766,7 @@
         <v>0.61897915168943207</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="20">
+    <row r="187" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A187" s="24" t="s">
         <v>206</v>
       </c>
@@ -9803,7 +9808,7 @@
         <v>0.59743040685224846</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="20">
+    <row r="188" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A188" s="24" t="s">
         <v>207</v>
       </c>
@@ -9845,7 +9850,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="20">
+    <row r="189" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A189" s="24" t="s">
         <v>208</v>
       </c>
@@ -9887,7 +9892,7 @@
         <v>0.57132817990161622</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="20">
+    <row r="190" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A190" s="24" t="s">
         <v>209</v>
       </c>
@@ -9929,7 +9934,7 @@
         <v>0.56454989532449407</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="20">
+    <row r="191" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A191" s="24" t="s">
         <v>210</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>0.55301455301455293</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="20">
+    <row r="192" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A192" s="24" t="s">
         <v>211</v>
       </c>
@@ -10013,7 +10018,7 @@
         <v>0.53448275862068961</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="20">
+    <row r="193" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A193" s="24" t="s">
         <v>212</v>
       </c>
@@ -10055,7 +10060,7 @@
         <v>0.51332877648667119</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="20">
+    <row r="194" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A194" s="24" t="s">
         <v>213</v>
       </c>
@@ -10097,7 +10102,7 @@
         <v>0.50033990482664847</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="20">
+    <row r="195" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A195" s="24" t="s">
         <v>214</v>
       </c>
@@ -10139,7 +10144,7 @@
         <v>0.49290060851926981</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="20">
+    <row r="196" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A196" s="24" t="s">
         <v>215</v>
       </c>
@@ -10181,7 +10186,7 @@
         <v>0.4688546550569323</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="20">
+    <row r="197" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A197" s="24" t="s">
         <v>216</v>
       </c>
@@ -10223,7 +10228,7 @@
         <v>0.45502998001332445</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="20">
+    <row r="198" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A198" s="24" t="s">
         <v>217</v>
       </c>
@@ -10265,7 +10270,7 @@
         <v>0.42460317460317465</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="20">
+    <row r="199" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A199" s="24" t="s">
         <v>218</v>
       </c>
@@ -10307,7 +10312,7 @@
         <v>0.42388451443569547</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="20">
+    <row r="200" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A200" s="24" t="s">
         <v>219</v>
       </c>
@@ -10349,7 +10354,7 @@
         <v>0.41476159372958854</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="20">
+    <row r="201" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A201" s="24" t="s">
         <v>220</v>
       </c>
@@ -10391,7 +10396,7 @@
         <v>0.39636127355425599</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="20">
+    <row r="202" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A202" s="24" t="s">
         <v>221</v>
       </c>
@@ -10433,7 +10438,7 @@
         <v>0.38842443729903536</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="20">
+    <row r="203" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A203" s="24" t="s">
         <v>222</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>0.37141033822590941</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="20">
+    <row r="204" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A204" s="24" t="s">
         <v>223</v>
       </c>
@@ -10517,7 +10522,7 @@
         <v>0.35066582117945466</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="20">
+    <row r="205" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A205" s="24" t="s">
         <v>224</v>
       </c>
@@ -10559,7 +10564,7 @@
         <v>0.33878064110622252</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="20">
+    <row r="206" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A206" s="24" t="s">
         <v>225</v>
       </c>
@@ -10601,7 +10606,7 @@
         <v>0.32790988735919896</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="20">
+    <row r="207" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A207" s="24" t="s">
         <v>226</v>
       </c>
@@ -10643,7 +10648,7 @@
         <v>0.31148564294631714</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="20">
+    <row r="208" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A208" s="24" t="s">
         <v>227</v>
       </c>
@@ -10685,7 +10690,7 @@
         <v>0.30086848635235736</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="20">
+    <row r="209" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A209" s="24" t="s">
         <v>228</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>0.29295426452410378</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="20">
+    <row r="210" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A210" s="24" t="s">
         <v>229</v>
       </c>
@@ -10769,7 +10774,7 @@
         <v>0.26790123456790121</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="20">
+    <row r="211" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A211" s="24" t="s">
         <v>230</v>
       </c>
@@ -10811,7 +10816,7 @@
         <v>0.24938574938574937</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="20">
+    <row r="212" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A212" s="24" t="s">
         <v>231</v>
       </c>
@@ -10853,7 +10858,7 @@
         <v>0.22446483180428137</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="20">
+    <row r="213" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A213" s="24" t="s">
         <v>232</v>
       </c>
@@ -10895,7 +10900,7 @@
         <v>0.21167883211678828</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="20">
+    <row r="214" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A214" s="24" t="s">
         <v>233</v>
       </c>
@@ -10937,7 +10942,7 @@
         <v>0.19660194174757278</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="20">
+    <row r="215" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A215" s="24" t="s">
         <v>234</v>
       </c>
@@ -10979,7 +10984,7 @@
         <v>0.17951807228915664</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="20">
+    <row r="216" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A216" s="24" t="s">
         <v>235</v>
       </c>
@@ -11021,7 +11026,7 @@
         <v>0.17461263408820024</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="20">
+    <row r="217" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A217" s="24" t="s">
         <v>236</v>
       </c>
@@ -11063,7 +11068,7 @@
         <v>0.16706161137440756</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="20">
+    <row r="218" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A218" s="24" t="s">
         <v>237</v>
       </c>
@@ -11105,7 +11110,7 @@
         <v>0.1590643274853801</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="20">
+    <row r="219" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A219" s="24" t="s">
         <v>238</v>
       </c>
@@ -11147,7 +11152,7 @@
         <v>0.15098722415795587</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="20">
+    <row r="220" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A220" s="24" t="s">
         <v>239</v>
       </c>
@@ -11189,7 +11194,7 @@
         <v>0.14400921658986177</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="20">
+    <row r="221" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A221" s="24" t="s">
         <v>240</v>
       </c>
@@ -11231,7 +11236,7 @@
         <v>0.13631156930126004</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="20">
+    <row r="222" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A222" s="24" t="s">
         <v>241</v>
       </c>
@@ -11273,7 +11278,7 @@
         <v>0.12776831345826237</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="20">
+    <row r="223" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A223" s="24" t="s">
         <v>242</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v>0.12042768711311198</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="20">
+    <row r="224" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A224" s="24" t="s">
         <v>243</v>
       </c>
@@ -11357,7 +11362,7 @@
         <v>0.11398090960134756</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="20">
+    <row r="225" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A225" s="24" t="s">
         <v>244</v>
       </c>
@@ -11399,7 +11404,7 @@
         <v>0.11161217587373168</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="20">
+    <row r="226" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A226" s="24" t="s">
         <v>245</v>
       </c>
@@ -11441,7 +11446,7 @@
         <v>0.10532212885154062</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="20">
+    <row r="227" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A227" s="24" t="s">
         <v>246</v>
       </c>
@@ -11483,7 +11488,7 @@
         <v>0.10244988864142539</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="20">
+    <row r="228" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A228" s="24" t="s">
         <v>247</v>
       </c>
@@ -11525,7 +11530,7 @@
         <v>9.8451327433628319E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="20">
+    <row r="229" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A229" s="24" t="s">
         <v>248</v>
       </c>
@@ -11567,7 +11572,7 @@
         <v>9.4609460946094598E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="20">
+    <row r="230" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A230" s="24" t="s">
         <v>249</v>
       </c>
@@ -11609,7 +11614,7 @@
         <v>9.1353996737357265E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="20">
+    <row r="231" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A231" s="24" t="s">
         <v>250</v>
       </c>
@@ -11651,7 +11656,7 @@
         <v>8.8476242490442378E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="20">
+    <row r="232" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A232" s="24" t="s">
         <v>251</v>
       </c>
@@ -11693,7 +11698,7 @@
         <v>8.4278768233387355E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="20">
+    <row r="233" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A233" s="24" t="s">
         <v>252</v>
       </c>
@@ -11735,7 +11740,7 @@
         <v>8.2479784366576825E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="20">
+    <row r="234" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A234" s="24" t="s">
         <v>253</v>
       </c>
@@ -11777,7 +11782,7 @@
         <v>8.1239978621058251E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="20">
+    <row r="235" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A235" s="24" t="s">
         <v>254</v>
       </c>
@@ -11819,7 +11824,7 @@
         <v>7.8877713075701433E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="20">
+    <row r="236" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A236" s="24" t="s">
         <v>255</v>
       </c>
@@ -11861,7 +11866,7 @@
         <v>7.7449947312961009E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="20">
+    <row r="237" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A237" s="24" t="s">
         <v>256</v>
       </c>
@@ -11903,7 +11908,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="20">
+    <row r="238" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A238" s="24" t="s">
         <v>257</v>
       </c>
@@ -11945,7 +11950,7 @@
         <v>7.2501294665976185E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="20">
+    <row r="239" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A239" s="24" t="s">
         <v>258</v>
       </c>
@@ -11987,7 +11992,7 @@
         <v>7.0211667527103769E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="20">
+    <row r="240" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A240" s="24" t="s">
         <v>259</v>
       </c>
@@ -12029,7 +12034,7 @@
         <v>6.6901408450704219E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="20">
+    <row r="241" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A241" s="24" t="s">
         <v>260</v>
       </c>
@@ -12071,7 +12076,7 @@
         <v>6.6128218071680969E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="20">
+    <row r="242" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A242" s="24" t="s">
         <v>261</v>
       </c>
@@ -12113,7 +12118,7 @@
         <v>6.5097646469704562E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="20">
+    <row r="243" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A243" s="24" t="s">
         <v>262</v>
       </c>
@@ -12155,7 +12160,7 @@
         <v>6.2933597621407322E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="20">
+    <row r="244" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A244" s="24" t="s">
         <v>263</v>
       </c>
@@ -12197,7 +12202,7 @@
         <v>6.0650887573964495E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="20">
+    <row r="245" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A245" s="24" t="s">
         <v>264</v>
       </c>
@@ -12239,7 +12244,7 @@
         <v>5.5145248645987195E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="20">
+    <row r="246" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A246" s="24" t="s">
         <v>265</v>
       </c>
@@ -12281,7 +12286,7 @@
         <v>5.2901289895171656E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="20">
+    <row r="247" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A247" s="24" t="s">
         <v>266</v>
       </c>
@@ -12323,7 +12328,7 @@
         <v>5.1135431444647113E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="20">
+    <row r="248" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A248" s="24" t="s">
         <v>267</v>
       </c>
@@ -12365,7 +12370,7 @@
         <v>5.0238075829429338E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="20">
+    <row r="249" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A249" s="24" t="s">
         <v>268</v>
       </c>
@@ -12407,7 +12412,7 @@
         <v>4.8310435337794701E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="20">
+    <row r="250" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A250" s="24" t="s">
         <v>269</v>
       </c>
@@ -12449,7 +12454,7 @@
         <v>4.8002323750983844E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="20">
+    <row r="251" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A251" s="24" t="s">
         <v>270</v>
       </c>
@@ -12491,7 +12496,7 @@
         <v>4.6311326524512218E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="20">
+    <row r="252" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A252" s="24" t="s">
         <v>271</v>
       </c>
@@ -12533,7 +12538,7 @@
         <v>4.5235451874797258E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="20">
+    <row r="253" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A253" s="24" t="s">
         <v>272</v>
       </c>
@@ -12575,7 +12580,7 @@
         <v>4.6859478329974745E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="20">
+    <row r="254" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A254" s="24" t="s">
         <v>273</v>
       </c>
@@ -12617,7 +12622,7 @@
         <v>4.6457563707381348E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="20">
+    <row r="255" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A255" s="24" t="s">
         <v>274</v>
       </c>
@@ -12659,7 +12664,7 @@
         <v>4.530471623446157E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="20">
+    <row r="256" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A256" s="24" t="s">
         <v>275</v>
       </c>
@@ -12701,7 +12706,7 @@
         <v>4.3856926448038326E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="20">
+    <row r="257" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A257" s="24" t="s">
         <v>276</v>
       </c>
@@ -12743,7 +12748,7 @@
         <v>4.3354635674750515E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="20">
+    <row r="258" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A258" s="24" t="s">
         <v>277</v>
       </c>
@@ -12785,7 +12790,7 @@
         <v>4.3946943451436141E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="20">
+    <row r="259" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A259" s="24" t="s">
         <v>278</v>
       </c>
@@ -12827,7 +12832,7 @@
         <v>4.3379573570780712E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="20">
+    <row r="260" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A260" s="24" t="s">
         <v>279</v>
       </c>
@@ -12869,7 +12874,7 @@
         <v>4.278547703584927E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="20">
+    <row r="261" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A261" s="24" t="s">
         <v>280</v>
       </c>
@@ -12911,7 +12916,7 @@
         <v>4.1873798033310344E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="20">
+    <row r="262" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A262" s="24" t="s">
         <v>281</v>
       </c>
@@ -12953,7 +12958,7 @@
         <v>4.1229163490939087E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="20">
+    <row r="263" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A263" s="24" t="s">
         <v>282</v>
       </c>
@@ -12995,7 +13000,7 @@
         <v>4.0203553285944327E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="20">
+    <row r="264" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A264" s="24" t="s">
         <v>283</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>3.9329735168603296E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="20">
+    <row r="265" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A265" s="24" t="s">
         <v>284</v>
       </c>
@@ -13079,7 +13084,7 @@
         <v>3.8807691122817671E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="20">
+    <row r="266" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A266" s="24" t="s">
         <v>285</v>
       </c>
@@ -13121,7 +13126,7 @@
         <v>3.8731332520421144E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="20">
+    <row r="267" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A267" s="24" t="s">
         <v>286</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>3.8674274912044247E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="20">
+    <row r="268" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A268" s="24" t="s">
         <v>287</v>
       </c>
@@ -13205,7 +13210,7 @@
         <v>3.7261649676427942E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="20">
+    <row r="269" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A269" s="24" t="s">
         <v>288</v>
       </c>
@@ -13247,7 +13252,7 @@
         <v>3.6882463098075004E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="20">
+    <row r="270" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A270" s="24" t="s">
         <v>289</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>3.7361331731948909E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="20">
+    <row r="271" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A271" s="24" t="s">
         <v>290</v>
       </c>
@@ -13331,7 +13336,7 @@
         <v>3.6729582483410364E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="20">
+    <row r="272" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A272" s="24" t="s">
         <v>291</v>
       </c>
@@ -13373,7 +13378,7 @@
         <v>3.6206512806464863E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="20">
+    <row r="273" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A273" s="24" t="s">
         <v>292</v>
       </c>
@@ -13415,7 +13420,7 @@
         <v>3.5752780937530614E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="20">
+    <row r="274" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A274" s="24" t="s">
         <v>293</v>
       </c>
@@ -13457,7 +13462,7 @@
         <v>3.5689767690208409E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="20">
+    <row r="275" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A275" s="24" t="s">
         <v>294</v>
       </c>
@@ -13499,7 +13504,7 @@
         <v>3.5426044914335375E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="20">
+    <row r="276" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A276" s="24" t="s">
         <v>295</v>
       </c>
@@ -13541,7 +13546,7 @@
         <v>3.4928374725246965E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="20">
+    <row r="277" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A277" s="24" t="s">
         <v>296</v>
       </c>
@@ -13583,7 +13588,7 @@
         <v>3.4626941470227268E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="20">
+    <row r="278" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A278" s="24" t="s">
         <v>297</v>
       </c>
@@ -13625,7 +13630,7 @@
         <v>3.4734669836305923E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="20">
+    <row r="279" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A279" s="24" t="s">
         <v>298</v>
       </c>
@@ -13667,7 +13672,7 @@
         <v>3.4062143299398953E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="20">
+    <row r="280" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A280" s="24" t="s">
         <v>299</v>
       </c>
@@ -13709,7 +13714,7 @@
         <v>3.3389902596992427E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="20">
+    <row r="281" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A281" s="24" t="s">
         <v>300</v>
       </c>
@@ -13751,7 +13756,7 @@
         <v>3.319795161575137E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="20">
+    <row r="282" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A282" s="24" t="s">
         <v>301</v>
       </c>
@@ -13793,7 +13798,7 @@
         <v>3.3262208183872509E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="20">
+    <row r="283" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A283" s="24" t="s">
         <v>302</v>
       </c>
@@ -13835,7 +13840,7 @@
         <v>3.2571442866553814E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="20">
+    <row r="284" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A284" s="24" t="s">
         <v>303</v>
       </c>
@@ -13877,7 +13882,7 @@
         <v>3.2131980116677589E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="20">
+    <row r="285" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A285" s="24" t="s">
         <v>304</v>
       </c>
@@ -13919,7 +13924,7 @@
         <v>3.168177381692687E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="20">
+    <row r="286" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A286" s="24" t="s">
         <v>305</v>
       </c>
@@ -13961,7 +13966,7 @@
         <v>3.1449998358987825E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="20">
+    <row r="287" spans="1:13" ht="21" x14ac:dyDescent="0.65">
       <c r="A287" s="24" t="s">
         <v>306</v>
       </c>
@@ -14003,7 +14008,7 @@
         <v>3.1457401862258504E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="18">
+    <row r="288" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="22"/>
       <c r="B288" s="22"/>
       <c r="C288" s="22"/>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1962,10 +1962,10 @@
   <dimension ref="A1:M288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.3125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2052,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.65">
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="22">
         <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.65">
@@ -2161,7 +2161,9 @@
       <c r="I5" s="22"/>
       <c r="J5" s="21"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="21">
+        <v>6</v>
+      </c>
       <c r="M5" s="22">
         <v>6</v>
       </c>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1038,6 +1038,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1924,7 +1925,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\BG_2017\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="336">
   <si>
     <t>Name</t>
   </si>
@@ -1009,9 +1014,6 @@
     <t>Producer Price Index by Commodity for Final Demand: Private Capital Equipment, Index 1982=100, Quarterly, Seasonally Adjusted</t>
   </si>
   <si>
-    <t>P_capital</t>
-  </si>
-  <si>
     <t>In or Out</t>
   </si>
   <si>
@@ -1022,17 +1024,26 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>RealSP</t>
+  </si>
+  <si>
+    <t>RelPrice</t>
+  </si>
+  <si>
+    <t>PriceCapital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1088,6 +1099,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1133,7 +1149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1158,6 +1174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1243,7 +1260,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1268,6 +1285,7 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normale 2" xfId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1610,24 +1628,24 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1665,10 +1683,10 @@
         <v>327</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="195">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="60">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1842,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="75">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1875,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="135">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1921,7 @@
       <c r="J8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -1919,21 +1937,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="23.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.33203125" style="13"/>
+    <col min="5" max="5" width="23.375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>18</v>
+        <v>333</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>19</v>
@@ -1968,13 +1986,13 @@
         <v>23</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2015,9 +2033,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -2026,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="22">
         <v>1</v>
@@ -2035,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -2056,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -2097,24 +2115,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21">
+        <v>2</v>
+      </c>
       <c r="E5" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="21">
-        <v>3</v>
-      </c>
-      <c r="G5" s="20">
         <v>4</v>
       </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="21">
         <v>5</v>
       </c>
@@ -2128,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2156,7 @@
       <c r="C6" s="24">
         <v>15.5</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -2168,7 +2186,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
@@ -2178,7 +2196,7 @@
       <c r="C7" s="24">
         <v>15.7</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -2210,7 +2228,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2220,7 +2238,7 @@
       <c r="C8" s="24">
         <v>15.9</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -2252,7 +2270,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -2262,7 +2280,7 @@
       <c r="C9" s="24">
         <v>16.3</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="25" t="s">
@@ -2294,7 +2312,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2304,7 +2322,7 @@
       <c r="C10" s="24">
         <v>16.7</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -2336,7 +2354,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
@@ -2346,7 +2364,7 @@
       <c r="C11" s="24">
         <v>17</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -2378,7 +2396,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -2388,7 +2406,7 @@
       <c r="C12" s="24">
         <v>17.2</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="25" t="s">
@@ -2420,7 +2438,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
@@ -2430,7 +2448,7 @@
       <c r="C13" s="24">
         <v>17.100000000000001</v>
       </c>
-      <c r="D13" s="23" t="e">
+      <c r="D13" s="24" t="e">
         <v>#N/A</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -2462,7 +2480,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -2472,7 +2490,7 @@
       <c r="C14" s="24">
         <v>16.7</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -2504,7 +2522,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>33</v>
       </c>
@@ -2514,7 +2532,7 @@
       <c r="C15" s="24">
         <v>16.600000000000001</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="25" t="s">
@@ -2546,7 +2564,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2556,7 +2574,7 @@
       <c r="C16" s="24">
         <v>16.7</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="25" t="s">
@@ -2588,7 +2606,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
@@ -2598,7 +2616,7 @@
       <c r="C17" s="24">
         <v>17.100000000000001</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -2630,7 +2648,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -2640,8 +2658,8 @@
       <c r="C18" s="24">
         <v>17.899999999999999</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>112</v>
+      <c r="D18" s="24">
+        <v>1.2816901408450703</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>112</v>
@@ -2672,7 +2690,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -2682,8 +2700,8 @@
       <c r="C19" s="24">
         <v>18.5</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>112</v>
+      <c r="D19" s="24">
+        <v>1.3066922736002364</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>112</v>
@@ -2714,7 +2732,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
@@ -2724,8 +2742,8 @@
       <c r="C20" s="24">
         <v>18.899999999999999</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>112</v>
+      <c r="D20" s="24">
+        <v>1.4061596298438404</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>112</v>
@@ -2756,7 +2774,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
@@ -2766,8 +2784,8 @@
       <c r="C21" s="24">
         <v>19.100000000000001</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>112</v>
+      <c r="D21" s="24">
+        <v>1.4485450674237048</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>112</v>
@@ -2798,7 +2816,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
@@ -2808,8 +2826,8 @@
       <c r="C22" s="24">
         <v>18.8</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>112</v>
+      <c r="D22" s="24">
+        <v>1.4661551109893121</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>112</v>
@@ -2840,7 +2858,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
@@ -2850,8 +2868,8 @@
       <c r="C23" s="24">
         <v>19</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>112</v>
+      <c r="D23" s="24">
+        <v>1.4266267356384428</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>112</v>
@@ -2882,7 +2900,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
@@ -2892,8 +2910,8 @@
       <c r="C24" s="24">
         <v>19.399999999999999</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>112</v>
+      <c r="D24" s="24">
+        <v>1.5822052921569962</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>112</v>
@@ -2924,7 +2942,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2934,8 +2952,8 @@
       <c r="C25" s="24">
         <v>20.3</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>112</v>
+      <c r="D25" s="24">
+        <v>1.5986280180240768</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>112</v>
@@ -2966,7 +2984,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
@@ -2976,8 +2994,8 @@
       <c r="C26" s="24">
         <v>21.6</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>112</v>
+      <c r="D26" s="24">
+        <v>1.6396420641862344</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>112</v>
@@ -3008,7 +3026,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
@@ -3018,8 +3036,8 @@
       <c r="C27" s="24">
         <v>22.7</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>112</v>
+      <c r="D27" s="24">
+        <v>1.6771939255476416</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>112</v>
@@ -3050,7 +3068,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -3060,8 +3078,8 @@
       <c r="C28" s="24">
         <v>23.9</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>112</v>
+      <c r="D28" s="24">
+        <v>1.6307814992025518</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>112</v>
@@ -3092,7 +3110,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
@@ -3102,8 +3120,8 @@
       <c r="C29" s="24">
         <v>25.2</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>112</v>
+      <c r="D29" s="24">
+        <v>1.7606520442647937</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>112</v>
@@ -3134,7 +3152,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>48</v>
       </c>
@@ -3144,8 +3162,8 @@
       <c r="C30" s="24">
         <v>26.2</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>112</v>
+      <c r="D30" s="24">
+        <v>1.6752782193958664</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>112</v>
@@ -3176,7 +3194,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>49</v>
       </c>
@@ -3186,8 +3204,8 @@
       <c r="C31" s="24">
         <v>27.2</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>112</v>
+      <c r="D31" s="24">
+        <v>1.5960330578512396</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>112</v>
@@ -3218,7 +3236,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>50</v>
       </c>
@@ -3228,8 +3246,8 @@
       <c r="C32" s="24">
         <v>28</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>112</v>
+      <c r="D32" s="24">
+        <v>1.537397945746642</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>112</v>
@@ -3260,7 +3278,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
@@ -3270,8 +3288,8 @@
       <c r="C33" s="24">
         <v>28.8</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>112</v>
+      <c r="D33" s="24">
+        <v>1.6301990932387147</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>112</v>
@@ -3302,7 +3320,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
@@ -3312,8 +3330,8 @@
       <c r="C34" s="24">
         <v>29.6</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>112</v>
+      <c r="D34" s="24">
+        <v>1.7647058823529413</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>112</v>
@@ -3344,7 +3362,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>53</v>
       </c>
@@ -3354,8 +3372,8 @@
       <c r="C35" s="24">
         <v>30.2</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>112</v>
+      <c r="D35" s="24">
+        <v>1.9115241149139455</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>112</v>
@@ -3386,7 +3404,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>54</v>
       </c>
@@ -3396,8 +3414,8 @@
       <c r="C36" s="24">
         <v>30.5</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>112</v>
+      <c r="D36" s="24">
+        <v>2.111764705882353</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>112</v>
@@ -3428,7 +3446,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>55</v>
       </c>
@@ -3438,8 +3456,8 @@
       <c r="C37" s="24">
         <v>30.9</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>112</v>
+      <c r="D37" s="24">
+        <v>2.3450433422407611</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>112</v>
@@ -3470,7 +3488,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
@@ -3480,8 +3498,8 @@
       <c r="C38" s="24">
         <v>31</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>112</v>
+      <c r="D38" s="24">
+        <v>2.3727054550171887</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>112</v>
@@ -3512,7 +3530,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>57</v>
       </c>
@@ -3522,8 +3540,8 @@
       <c r="C39" s="24">
         <v>32.1</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>112</v>
+      <c r="D39" s="24">
+        <v>2.6503455849105357</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>112</v>
@@ -3554,7 +3572,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
@@ -3564,8 +3582,8 @@
       <c r="C40" s="24">
         <v>33.799999999999997</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>112</v>
+      <c r="D40" s="24">
+        <v>2.8011545862732521</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>112</v>
@@ -3596,7 +3614,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>59</v>
       </c>
@@ -3606,8 +3624,8 @@
       <c r="C41" s="24">
         <v>36.4</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>112</v>
+      <c r="D41" s="24">
+        <v>2.8889030045099409</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>112</v>
@@ -3638,7 +3656,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
@@ -3648,8 +3666,8 @@
       <c r="C42" s="24">
         <v>39.6</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>112</v>
+      <c r="D42" s="24">
+        <v>3.0486731228776254</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>112</v>
@@ -3680,7 +3698,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
@@ -3690,8 +3708,8 @@
       <c r="C43" s="24">
         <v>42.4</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>112</v>
+      <c r="D43" s="24">
+        <v>2.9361755329124208</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>112</v>
@@ -3722,7 +3740,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>62</v>
       </c>
@@ -3732,8 +3750,8 @@
       <c r="C44" s="24">
         <v>44.5</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>112</v>
+      <c r="D44" s="24">
+        <v>2.7999012162746189</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>112</v>
@@ -3764,7 +3782,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3792,8 @@
       <c r="C45" s="24">
         <v>46.1</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>112</v>
+      <c r="D45" s="24">
+        <v>2.8695277914412203</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>112</v>
@@ -3806,7 +3824,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>64</v>
       </c>
@@ -3816,8 +3834,8 @@
       <c r="C46" s="24">
         <v>46.8</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>112</v>
+      <c r="D46" s="24">
+        <v>2.6757658477403701</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>112</v>
@@ -3848,7 +3866,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>65</v>
       </c>
@@ -3858,8 +3876,8 @@
       <c r="C47" s="24">
         <v>47.7</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>112</v>
+      <c r="D47" s="24">
+        <v>2.8534425637009817</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>112</v>
@@ -3890,7 +3908,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>66</v>
       </c>
@@ -3900,8 +3918,8 @@
       <c r="C48" s="24">
         <v>48.6</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>112</v>
+      <c r="D48" s="24">
+        <v>2.5399676666067901</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>112</v>
@@ -3932,7 +3950,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>67</v>
       </c>
@@ -3942,8 +3960,8 @@
       <c r="C49" s="24">
         <v>49.3</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>112</v>
+      <c r="D49" s="24">
+        <v>2.3930345281551078</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>112</v>
@@ -3974,7 +3992,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>68</v>
       </c>
@@ -3984,8 +4002,8 @@
       <c r="C50" s="24">
         <v>50</v>
       </c>
-      <c r="D50" s="23" t="s">
-        <v>112</v>
+      <c r="D50" s="24">
+        <v>2.4923040492540851</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>112</v>
@@ -4016,7 +4034,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>69</v>
       </c>
@@ -4026,8 +4044,8 @@
       <c r="C51" s="24">
         <v>50.5</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>112</v>
+      <c r="D51" s="24">
+        <v>2.6706021251475796</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>112</v>
@@ -4058,7 +4076,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>70</v>
       </c>
@@ -4068,8 +4086,8 @@
       <c r="C52" s="24">
         <v>51.6</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>112</v>
+      <c r="D52" s="24">
+        <v>2.9372763011206948</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>112</v>
@@ -4100,7 +4118,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>71</v>
       </c>
@@ -4110,8 +4128,8 @@
       <c r="C53" s="24">
         <v>52.7</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>112</v>
+      <c r="D53" s="24">
+        <v>3.2243181685452313</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>112</v>
@@ -4142,7 +4160,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>72</v>
       </c>
@@ -4152,8 +4170,8 @@
       <c r="C54" s="24">
         <v>53.6</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>112</v>
+      <c r="D54" s="24">
+        <v>3.2290756596190806</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>112</v>
@@ -4184,7 +4202,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>73</v>
       </c>
@@ -4194,8 +4212,8 @@
       <c r="C55" s="24">
         <v>54.7</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>112</v>
+      <c r="D55" s="24">
+        <v>3.4006048621612193</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>112</v>
@@ -4226,7 +4244,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>74</v>
       </c>
@@ -4236,8 +4254,8 @@
       <c r="C56" s="24">
         <v>55.4</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>112</v>
+      <c r="D56" s="24">
+        <v>3.2958627882721059</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>112</v>
@@ -4268,7 +4286,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>75</v>
       </c>
@@ -4278,8 +4296,8 @@
       <c r="C57" s="24">
         <v>56.4</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>112</v>
+      <c r="D57" s="24">
+        <v>3.4566547385432296</v>
       </c>
       <c r="E57" s="25" t="s">
         <v>112</v>
@@ -4310,7 +4328,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
@@ -4320,8 +4338,8 @@
       <c r="C58" s="24">
         <v>58.3</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>112</v>
+      <c r="D58" s="24">
+        <v>3.1810082198080134</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>112</v>
@@ -4352,7 +4370,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>77</v>
       </c>
@@ -4362,8 +4380,8 @@
       <c r="C59" s="24">
         <v>60.2</v>
       </c>
-      <c r="D59" s="23" t="s">
-        <v>112</v>
+      <c r="D59" s="24">
+        <v>3.2632001375910105</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>112</v>
@@ -4394,7 +4412,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>78</v>
       </c>
@@ -4404,8 +4422,8 @@
       <c r="C60" s="24">
         <v>61.4</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>112</v>
+      <c r="D60" s="24">
+        <v>3.0572375185650635</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>112</v>
@@ -4436,7 +4454,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>79</v>
       </c>
@@ -4446,8 +4464,8 @@
       <c r="C61" s="24">
         <v>62.4</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>112</v>
+      <c r="D61" s="24">
+        <v>3.309225512528474</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>112</v>
@@ -4478,7 +4496,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>80</v>
       </c>
@@ -4488,8 +4506,8 @@
       <c r="C62" s="24">
         <v>63.7</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>112</v>
+      <c r="D62" s="24">
+        <v>3.6970110239799983</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>112</v>
@@ -4520,7 +4538,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>81</v>
       </c>
@@ -4530,8 +4548,8 @@
       <c r="C63" s="24">
         <v>65.599999999999994</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>112</v>
+      <c r="D63" s="24">
+        <v>3.6641913723711812</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>112</v>
@@ -4562,7 +4580,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>82</v>
       </c>
@@ -4572,8 +4590,8 @@
       <c r="C64" s="24">
         <v>67.3</v>
       </c>
-      <c r="D64" s="23" t="s">
-        <v>112</v>
+      <c r="D64" s="24">
+        <v>3.7728275004240404</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>112</v>
@@ -4604,7 +4622,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -4614,8 +4632,8 @@
       <c r="C65" s="24">
         <v>68.8</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>112</v>
+      <c r="D65" s="24">
+        <v>4.0321217244294161</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>112</v>
@@ -4646,7 +4664,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>84</v>
       </c>
@@ -4656,8 +4674,8 @@
       <c r="C66" s="24">
         <v>70.099999999999994</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>112</v>
+      <c r="D66" s="24">
+        <v>3.899198295677524</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>112</v>
@@ -4688,7 +4706,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>85</v>
       </c>
@@ -4698,8 +4716,8 @@
       <c r="C67" s="24">
         <v>72</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>112</v>
+      <c r="D67" s="24">
+        <v>3.0644800179111162</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>112</v>
@@ -4730,7 +4748,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>86</v>
       </c>
@@ -4740,8 +4758,8 @@
       <c r="C68" s="24">
         <v>74.099999999999994</v>
       </c>
-      <c r="D68" s="23" t="s">
-        <v>112</v>
+      <c r="D68" s="24">
+        <v>3.1430486510640678</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>112</v>
@@ -4772,7 +4790,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>87</v>
       </c>
@@ -4782,8 +4800,8 @@
       <c r="C69" s="24">
         <v>76.599999999999994</v>
       </c>
-      <c r="D69" s="23" t="s">
-        <v>112</v>
+      <c r="D69" s="24">
+        <v>3.5176719812688151</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>112</v>
@@ -4814,7 +4832,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>88</v>
       </c>
@@ -4824,8 +4842,8 @@
       <c r="C70" s="24">
         <v>79.8</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>112</v>
+      <c r="D70" s="24">
+        <v>3.6948437586723646</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>112</v>
@@ -4856,7 +4874,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +4884,8 @@
       <c r="C71" s="24">
         <v>82.7</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>112</v>
+      <c r="D71" s="24">
+        <v>3.8438521637945366</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>112</v>
@@ -4898,7 +4916,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>90</v>
       </c>
@@ -4908,8 +4926,8 @@
       <c r="C72" s="24">
         <v>85.1</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>112</v>
+      <c r="D72" s="24">
+        <v>3.9681221982400801</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>112</v>
@@ -4940,7 +4958,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>91</v>
       </c>
@@ -4950,8 +4968,8 @@
       <c r="C73" s="24">
         <v>87</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>112</v>
+      <c r="D73" s="24">
+        <v>4.1183574879227045</v>
       </c>
       <c r="E73" s="25" t="s">
         <v>112</v>
@@ -4982,7 +5000,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>92</v>
       </c>
@@ -4992,8 +5010,8 @@
       <c r="C74" s="24">
         <v>88.5</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>112</v>
+      <c r="D74" s="24">
+        <v>4.3219875232570866</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>112</v>
@@ -5024,7 +5042,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>93</v>
       </c>
@@ -5034,8 +5052,8 @@
       <c r="C75" s="24">
         <v>90.1</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>112</v>
+      <c r="D75" s="24">
+        <v>4.4595479855879461</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>112</v>
@@ -5066,7 +5084,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>94</v>
       </c>
@@ -5076,8 +5094,8 @@
       <c r="C76" s="24">
         <v>91.7</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>112</v>
+      <c r="D76" s="24">
+        <v>4.5769899956502833</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>112</v>
@@ -5108,7 +5126,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>95</v>
       </c>
@@ -5118,8 +5136,8 @@
       <c r="C77" s="24">
         <v>93.2</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>112</v>
+      <c r="D77" s="24">
+        <v>4.5870318250703619</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>112</v>
@@ -5150,7 +5168,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>96</v>
       </c>
@@ -5160,8 +5178,8 @@
       <c r="C78" s="24">
         <v>95.2</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>112</v>
+      <c r="D78" s="24">
+        <v>4.63999138348861</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>112</v>
@@ -5192,7 +5210,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>97</v>
       </c>
@@ -5202,8 +5220,8 @@
       <c r="C79" s="24">
         <v>97.3</v>
       </c>
-      <c r="D79" s="23" t="s">
-        <v>112</v>
+      <c r="D79" s="24">
+        <v>4.5099721209521766</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>112</v>
@@ -5234,7 +5252,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>98</v>
       </c>
@@ -5244,8 +5262,8 @@
       <c r="C80" s="24">
         <v>99.7</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>112</v>
+      <c r="D80" s="24">
+        <v>4.804015806899498</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>112</v>
@@ -5276,7 +5294,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>99</v>
       </c>
@@ -5286,8 +5304,8 @@
       <c r="C81" s="24">
         <v>102.6</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>112</v>
+      <c r="D81" s="24">
+        <v>4.9026680103962237</v>
       </c>
       <c r="E81" s="25" t="s">
         <v>112</v>
@@ -5318,7 +5336,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>100</v>
       </c>
@@ -5328,8 +5346,8 @@
       <c r="C82" s="24">
         <v>105.6</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>112</v>
+      <c r="D82" s="24">
+        <v>4.7025032938076414</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>112</v>
@@ -5360,7 +5378,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>101</v>
       </c>
@@ -5370,8 +5388,8 @@
       <c r="C83" s="24">
         <v>108.3</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>112</v>
+      <c r="D83" s="24">
+        <v>4.4294600386806753</v>
       </c>
       <c r="E83" s="25" t="s">
         <v>112</v>
@@ -5402,7 +5420,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>102</v>
       </c>
@@ -5412,8 +5430,8 @@
       <c r="C84" s="24">
         <v>110.8</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>112</v>
+      <c r="D84" s="24">
+        <v>3.9633483460164625</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>112</v>
@@ -5444,7 +5462,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>103</v>
       </c>
@@ -5454,8 +5472,8 @@
       <c r="C85" s="24">
         <v>112.7</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>112</v>
+      <c r="D85" s="24">
+        <v>4.1235049535444785</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>112</v>
@@ -5486,7 +5504,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>104</v>
       </c>
@@ -5496,8 +5514,8 @@
       <c r="C86" s="24">
         <v>114.3</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>112</v>
+      <c r="D86" s="24">
+        <v>4.6109804723443411</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>112</v>
@@ -5528,7 +5546,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>105</v>
       </c>
@@ -5538,8 +5556,8 @@
       <c r="C87" s="24">
         <v>115.6</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>112</v>
+      <c r="D87" s="24">
+        <v>4.6101419052947454</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>112</v>
@@ -5570,7 +5588,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>106</v>
       </c>
@@ -5580,8 +5598,8 @@
       <c r="C88" s="24">
         <v>116.9</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>112</v>
+      <c r="D88" s="24">
+        <v>4.87228575746889</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>112</v>
@@ -5612,7 +5630,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>107</v>
       </c>
@@ -5622,8 +5640,8 @@
       <c r="C89" s="24">
         <v>118.3</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>112</v>
+      <c r="D89" s="24">
+        <v>4.8073952259929236</v>
       </c>
       <c r="E89" s="25" t="s">
         <v>112</v>
@@ -5654,7 +5672,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>108</v>
       </c>
@@ -5664,8 +5682,8 @@
       <c r="C90" s="24">
         <v>119.7</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>112</v>
+      <c r="D90" s="24">
+        <v>4.4455396747166098</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>112</v>
@@ -5696,7 +5714,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>109</v>
       </c>
@@ -5706,8 +5724,8 @@
       <c r="C91" s="24">
         <v>121</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>112</v>
+      <c r="D91" s="24">
+        <v>4.8566133437378065</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>112</v>
@@ -5738,7 +5756,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>110</v>
       </c>
@@ -5748,8 +5766,8 @@
       <c r="C92" s="24">
         <v>122</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>112</v>
+      <c r="D92" s="24">
+        <v>4.9584661450787211</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>112</v>
@@ -5780,7 +5798,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>111</v>
       </c>
@@ -5790,8 +5808,8 @@
       <c r="C93" s="24">
         <v>123.1</v>
       </c>
-      <c r="D93" s="23" t="s">
-        <v>112</v>
+      <c r="D93" s="24">
+        <v>4.9459498071336734</v>
       </c>
       <c r="E93" s="25" t="s">
         <v>112</v>
@@ -5822,7 +5840,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>113</v>
       </c>
@@ -5832,8 +5850,8 @@
       <c r="C94" s="24">
         <v>123.8</v>
       </c>
-      <c r="D94" s="23" t="s">
-        <v>112</v>
+      <c r="D94" s="24">
+        <v>4.7843710232360852</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>112</v>
@@ -5864,7 +5882,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>114</v>
       </c>
@@ -5874,8 +5892,8 @@
       <c r="C95" s="24">
         <v>124.1</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>112</v>
+      <c r="D95" s="24">
+        <v>4.5471891288160835</v>
       </c>
       <c r="E95" s="25" t="s">
         <v>112</v>
@@ -5906,7 +5924,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>115</v>
       </c>
@@ -5916,8 +5934,8 @@
       <c r="C96" s="24">
         <v>123.9</v>
       </c>
-      <c r="D96" s="23" t="s">
-        <v>112</v>
+      <c r="D96" s="24">
+        <v>4.2735199632859118</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>112</v>
@@ -5948,7 +5966,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>116</v>
       </c>
@@ -5958,8 +5976,8 @@
       <c r="C97" s="24">
         <v>122.9</v>
       </c>
-      <c r="D97" s="23" t="s">
-        <v>112</v>
+      <c r="D97" s="24">
+        <v>4.171084228172715</v>
       </c>
       <c r="E97" s="25" t="s">
         <v>112</v>
@@ -5990,7 +6008,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>117</v>
       </c>
@@ -6000,8 +6018,8 @@
       <c r="C98" s="24">
         <v>120.9</v>
       </c>
-      <c r="D98" s="23" t="s">
-        <v>112</v>
+      <c r="D98" s="24">
+        <v>4.0045572334911981</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>112</v>
@@ -6032,7 +6050,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>118</v>
       </c>
@@ -6042,8 +6060,8 @@
       <c r="C99" s="24">
         <v>118.9</v>
       </c>
-      <c r="D99" s="23" t="s">
-        <v>112</v>
+      <c r="D99" s="24">
+        <v>3.2043711994359745</v>
       </c>
       <c r="E99" s="25" t="s">
         <v>112</v>
@@ -6074,7 +6092,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>119</v>
       </c>
@@ -6084,8 +6102,8 @@
       <c r="C100" s="24">
         <v>117.6</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>112</v>
+      <c r="D100" s="24">
+        <v>3.6844405594405596</v>
       </c>
       <c r="E100" s="25" t="s">
         <v>112</v>
@@ -6116,7 +6134,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>120</v>
       </c>
@@ -6126,8 +6144,8 @@
       <c r="C101" s="24">
         <v>116.2</v>
       </c>
-      <c r="D101" s="23" t="s">
-        <v>112</v>
+      <c r="D101" s="24">
+        <v>3.9750668622206891</v>
       </c>
       <c r="E101" s="25" t="s">
         <v>112</v>
@@ -6158,7 +6176,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>121</v>
       </c>
@@ -6168,8 +6186,8 @@
       <c r="C102" s="24">
         <v>116</v>
       </c>
-      <c r="D102" s="23" t="s">
-        <v>112</v>
+      <c r="D102" s="24">
+        <v>4.2619816451393611</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>112</v>
@@ -6200,7 +6218,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>122</v>
       </c>
@@ -6210,8 +6228,8 @@
       <c r="C103" s="24">
         <v>116</v>
       </c>
-      <c r="D103" s="23" t="s">
-        <v>112</v>
+      <c r="D103" s="24">
+        <v>4.1390589616707203</v>
       </c>
       <c r="E103" s="25" t="s">
         <v>112</v>
@@ -6242,7 +6260,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>123</v>
       </c>
@@ -6252,8 +6270,8 @@
       <c r="C104" s="24">
         <v>116.2</v>
       </c>
-      <c r="D104" s="23" t="s">
-        <v>112</v>
+      <c r="D104" s="24">
+        <v>4.0825307206908006</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>112</v>
@@ -6284,7 +6302,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>124</v>
       </c>
@@ -6294,8 +6312,8 @@
       <c r="C105" s="24">
         <v>117.1</v>
       </c>
-      <c r="D105" s="23" t="s">
-        <v>112</v>
+      <c r="D105" s="24">
+        <v>4.2033102766798418</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>112</v>
@@ -6326,7 +6344,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>125</v>
       </c>
@@ -6336,8 +6354,8 @@
       <c r="C106" s="24">
         <v>119</v>
       </c>
-      <c r="D106" s="23" t="s">
-        <v>112</v>
+      <c r="D106" s="24">
+        <v>4.3464158287382419</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>112</v>
@@ -6368,7 +6386,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>126</v>
       </c>
@@ -6378,8 +6396,8 @@
       <c r="C107" s="24">
         <v>120.2</v>
       </c>
-      <c r="D107" s="23" t="s">
-        <v>112</v>
+      <c r="D107" s="24">
+        <v>4.3175498690308283</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>112</v>
@@ -6410,7 +6428,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>127</v>
       </c>
@@ -6420,8 +6438,8 @@
       <c r="C108" s="24">
         <v>120.9</v>
       </c>
-      <c r="D108" s="23" t="s">
-        <v>112</v>
+      <c r="D108" s="24">
+        <v>4.4135260300223571</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>112</v>
@@ -6452,7 +6470,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>128</v>
       </c>
@@ -6462,8 +6480,8 @@
       <c r="C109" s="24">
         <v>122.2</v>
       </c>
-      <c r="D109" s="23" t="s">
-        <v>112</v>
+      <c r="D109" s="24">
+        <v>4.6538673815343374</v>
       </c>
       <c r="E109" s="25" t="s">
         <v>112</v>
@@ -6494,7 +6512,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>129</v>
       </c>
@@ -6504,8 +6522,8 @@
       <c r="C110" s="24">
         <v>123.2</v>
       </c>
-      <c r="D110" s="23" t="s">
-        <v>112</v>
+      <c r="D110" s="24">
+        <v>4.3458945481469931</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>112</v>
@@ -6536,7 +6554,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>130</v>
       </c>
@@ -6546,8 +6564,8 @@
       <c r="C111" s="24">
         <v>123.4</v>
       </c>
-      <c r="D111" s="23" t="s">
-        <v>112</v>
+      <c r="D111" s="24">
+        <v>4.0019960079840322</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>112</v>
@@ -6578,7 +6596,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>131</v>
       </c>
@@ -6588,8 +6606,8 @@
       <c r="C112" s="24">
         <v>123.1</v>
       </c>
-      <c r="D112" s="23" t="s">
-        <v>112</v>
+      <c r="D112" s="24">
+        <v>4.0841462955290222</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>112</v>
@@ -6620,7 +6638,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>132</v>
       </c>
@@ -6630,8 +6648,8 @@
       <c r="C113" s="24">
         <v>122.4</v>
       </c>
-      <c r="D113" s="23" t="s">
-        <v>112</v>
+      <c r="D113" s="24">
+        <v>3.6026886287254865</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>112</v>
@@ -6662,7 +6680,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>133</v>
       </c>
@@ -6672,8 +6690,8 @@
       <c r="C114" s="24">
         <v>120.8</v>
       </c>
-      <c r="D114" s="23" t="s">
-        <v>112</v>
+      <c r="D114" s="24">
+        <v>3.4060597274572344</v>
       </c>
       <c r="E114" s="25" t="s">
         <v>112</v>
@@ -6704,7 +6722,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>134</v>
       </c>
@@ -6714,8 +6732,8 @@
       <c r="C115" s="24">
         <v>120.1</v>
       </c>
-      <c r="D115" s="23" t="s">
-        <v>112</v>
+      <c r="D115" s="24">
+        <v>3.0444633248371566</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>112</v>
@@ -6746,7 +6764,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>135</v>
       </c>
@@ -6756,8 +6774,8 @@
       <c r="C116" s="24">
         <v>119.6</v>
       </c>
-      <c r="D116" s="23" t="s">
-        <v>112</v>
+      <c r="D116" s="24">
+        <v>2.1859841056868614</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>112</v>
@@ -6788,7 +6806,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>136</v>
       </c>
@@ -6798,8 +6816,8 @@
       <c r="C117" s="24">
         <v>118.6</v>
       </c>
-      <c r="D117" s="23" t="s">
-        <v>112</v>
+      <c r="D117" s="24">
+        <v>2.2912141162316613</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>112</v>
@@ -6830,7 +6848,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>137</v>
       </c>
@@ -6840,8 +6858,8 @@
       <c r="C118" s="24">
         <v>117.3</v>
       </c>
-      <c r="D118" s="23" t="s">
-        <v>112</v>
+      <c r="D118" s="24">
+        <v>2.7240939838567368</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>112</v>
@@ -6872,7 +6890,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>138</v>
       </c>
@@ -6882,8 +6900,8 @@
       <c r="C119" s="24">
         <v>117.2</v>
       </c>
-      <c r="D119" s="23" t="s">
-        <v>112</v>
+      <c r="D119" s="24">
+        <v>3.0648121317492514</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>112</v>
@@ -6914,7 +6932,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>139</v>
       </c>
@@ -6924,8 +6942,8 @@
       <c r="C120" s="24">
         <v>118.6</v>
       </c>
-      <c r="D120" s="23" t="s">
-        <v>112</v>
+      <c r="D120" s="24">
+        <v>2.6531064152853348</v>
       </c>
       <c r="E120" s="25" t="s">
         <v>112</v>
@@ -6956,7 +6974,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>140</v>
       </c>
@@ -6966,8 +6984,8 @@
       <c r="C121" s="24">
         <v>120.6</v>
       </c>
-      <c r="D121" s="23" t="s">
-        <v>112</v>
+      <c r="D121" s="24">
+        <v>2.8062478608544135</v>
       </c>
       <c r="E121" s="25" t="s">
         <v>112</v>
@@ -6998,7 +7016,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>141</v>
       </c>
@@ -7008,8 +7026,8 @@
       <c r="C122" s="24">
         <v>123.2</v>
       </c>
-      <c r="D122" s="23" t="s">
-        <v>112</v>
+      <c r="D122" s="24">
+        <v>3.16478305053429</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>112</v>
@@ -7040,7 +7058,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>142</v>
       </c>
@@ -7050,8 +7068,8 @@
       <c r="C123" s="24">
         <v>124.2</v>
       </c>
-      <c r="D123" s="23" t="s">
-        <v>112</v>
+      <c r="D123" s="24">
+        <v>3.1789775325427554</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>112</v>
@@ -7082,7 +7100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>143</v>
       </c>
@@ -7092,8 +7110,8 @@
       <c r="C124" s="24">
         <v>125.4</v>
       </c>
-      <c r="D124" s="23" t="s">
-        <v>112</v>
+      <c r="D124" s="24">
+        <v>3.1673990248600492</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>112</v>
@@ -7124,7 +7142,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>144</v>
       </c>
@@ -7134,8 +7152,8 @@
       <c r="C125" s="24">
         <v>126.4</v>
       </c>
-      <c r="D125" s="23" t="s">
-        <v>112</v>
+      <c r="D125" s="24">
+        <v>3.177879639213367</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>112</v>
@@ -7166,7 +7184,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>145</v>
       </c>
@@ -7176,8 +7194,8 @@
       <c r="C126" s="24">
         <v>127.9</v>
       </c>
-      <c r="D126" s="23" t="s">
-        <v>112</v>
+      <c r="D126" s="24">
+        <v>2.8644605489100381</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>112</v>
@@ -7208,7 +7226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>146</v>
       </c>
@@ -7218,8 +7236,8 @@
       <c r="C127" s="24">
         <v>129.80000000000001</v>
       </c>
-      <c r="D127" s="23" t="s">
-        <v>112</v>
+      <c r="D127" s="24">
+        <v>2.8839585545765045</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>112</v>
@@ -7250,7 +7268,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>147</v>
       </c>
@@ -7260,8 +7278,8 @@
       <c r="C128" s="24">
         <v>131.30000000000001</v>
       </c>
-      <c r="D128" s="23" t="s">
-        <v>112</v>
+      <c r="D128" s="24">
+        <v>2.7368868726963425</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>112</v>
@@ -7292,7 +7310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>148</v>
       </c>
@@ -7302,8 +7320,8 @@
       <c r="C129" s="24">
         <v>132.9</v>
       </c>
-      <c r="D129" s="23" t="s">
-        <v>112</v>
+      <c r="D129" s="24">
+        <v>2.6390276390276388</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>112</v>
@@ -7334,7 +7352,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>149</v>
       </c>
@@ -7344,8 +7362,8 @@
       <c r="C130" s="24">
         <v>134.6</v>
       </c>
-      <c r="D130" s="23" t="s">
-        <v>112</v>
+      <c r="D130" s="24">
+        <v>2.4392311267875209</v>
       </c>
       <c r="E130" s="22">
         <v>83</v>
@@ -7376,7 +7394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>150</v>
       </c>
@@ -7386,8 +7404,8 @@
       <c r="C131" s="24">
         <v>137.5</v>
       </c>
-      <c r="D131" s="23" t="s">
-        <v>112</v>
+      <c r="D131" s="24">
+        <v>2.5651146554964828</v>
       </c>
       <c r="E131" s="22">
         <v>75</v>
@@ -7418,7 +7436,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>151</v>
       </c>
@@ -7428,8 +7446,8 @@
       <c r="C132" s="24">
         <v>139.30000000000001</v>
       </c>
-      <c r="D132" s="23" t="s">
-        <v>112</v>
+      <c r="D132" s="24">
+        <v>2.7080417271886965</v>
       </c>
       <c r="E132" s="22">
         <v>70</v>
@@ -7460,7 +7478,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>152</v>
       </c>
@@ -7470,8 +7488,8 @@
       <c r="C133" s="24">
         <v>141.19999999999999</v>
       </c>
-      <c r="D133" s="23" t="s">
-        <v>112</v>
+      <c r="D133" s="24">
+        <v>2.4859677711388737</v>
       </c>
       <c r="E133" s="22">
         <v>66</v>
@@ -7502,7 +7520,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>153</v>
       </c>
@@ -7512,8 +7530,8 @@
       <c r="C134" s="24">
         <v>143.1</v>
       </c>
-      <c r="D134" s="23" t="s">
-        <v>112</v>
+      <c r="D134" s="24">
+        <v>2.5815714576133364</v>
       </c>
       <c r="E134" s="22">
         <v>63</v>
@@ -7544,7 +7562,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>154</v>
       </c>
@@ -7554,8 +7572,8 @@
       <c r="C135" s="24">
         <v>144.69999999999999</v>
       </c>
-      <c r="D135" s="23" t="s">
-        <v>112</v>
+      <c r="D135" s="24">
+        <v>2.5533445811830089</v>
       </c>
       <c r="E135" s="22">
         <v>58</v>
@@ -7586,7 +7604,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>155</v>
       </c>
@@ -7596,8 +7614,8 @@
       <c r="C136" s="24">
         <v>146.6</v>
       </c>
-      <c r="D136" s="23" t="s">
-        <v>112</v>
+      <c r="D136" s="24">
+        <v>2.6556540750637678</v>
       </c>
       <c r="E136" s="22">
         <v>46</v>
@@ -7628,7 +7646,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>156</v>
       </c>
@@ -7638,8 +7656,8 @@
       <c r="C137" s="24">
         <v>148.80000000000001</v>
       </c>
-      <c r="D137" s="23" t="s">
-        <v>112</v>
+      <c r="D137" s="24">
+        <v>2.5708569523174392</v>
       </c>
       <c r="E137" s="22">
         <v>51</v>
@@ -7670,7 +7688,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>157</v>
       </c>
@@ -7680,8 +7698,8 @@
       <c r="C138" s="24">
         <v>150.1</v>
       </c>
-      <c r="D138" s="23" t="s">
-        <v>112</v>
+      <c r="D138" s="24">
+        <v>2.3819967801395272</v>
       </c>
       <c r="E138" s="22">
         <v>50</v>
@@ -7712,7 +7730,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>158</v>
       </c>
@@ -7722,8 +7740,8 @@
       <c r="C139" s="24">
         <v>150.9</v>
       </c>
-      <c r="D139" s="23" t="s">
-        <v>112</v>
+      <c r="D139" s="24">
+        <v>2.6082191780821917</v>
       </c>
       <c r="E139" s="22">
         <v>51</v>
@@ -7754,7 +7772,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>159</v>
       </c>
@@ -7764,8 +7782,8 @@
       <c r="C140" s="24">
         <v>152.4</v>
       </c>
-      <c r="D140" s="23" t="s">
-        <v>112</v>
+      <c r="D140" s="24">
+        <v>2.7999464381360468</v>
       </c>
       <c r="E140" s="22">
         <v>63</v>
@@ -7796,7 +7814,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>160</v>
       </c>
@@ -7806,8 +7824,8 @@
       <c r="C141" s="24">
         <v>155.19999999999999</v>
       </c>
-      <c r="D141" s="23" t="s">
-        <v>112</v>
+      <c r="D141" s="24">
+        <v>2.9483559918342523</v>
       </c>
       <c r="E141" s="22">
         <v>83</v>
@@ -7838,7 +7856,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>161</v>
       </c>
@@ -7848,8 +7866,8 @@
       <c r="C142" s="24">
         <v>157.4</v>
       </c>
-      <c r="D142" s="23" t="s">
-        <v>112</v>
+      <c r="D142" s="24">
+        <v>2.8816001356047125</v>
       </c>
       <c r="E142" s="22">
         <v>76</v>
@@ -7880,7 +7898,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>162</v>
       </c>
@@ -7890,8 +7908,8 @@
       <c r="C143" s="24">
         <v>158.5</v>
       </c>
-      <c r="D143" s="23" t="s">
-        <v>112</v>
+      <c r="D143" s="24">
+        <v>2.7289365861774924</v>
       </c>
       <c r="E143" s="22">
         <v>79</v>
@@ -7922,7 +7940,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>163</v>
       </c>
@@ -7932,8 +7950,8 @@
       <c r="C144" s="24">
         <v>160.9</v>
       </c>
-      <c r="D144" s="23" t="s">
-        <v>112</v>
+      <c r="D144" s="24">
+        <v>2.3736362521962984</v>
       </c>
       <c r="E144" s="22">
         <v>74</v>
@@ -7964,7 +7982,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>164</v>
       </c>
@@ -7974,8 +7992,8 @@
       <c r="C145" s="24">
         <v>161.5</v>
       </c>
-      <c r="D145" s="23" t="s">
-        <v>112</v>
+      <c r="D145" s="24">
+        <v>2.4577341916852173</v>
       </c>
       <c r="E145" s="22">
         <v>62</v>
@@ -8006,7 +8024,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>165</v>
       </c>
@@ -8016,8 +8034,8 @@
       <c r="C146" s="24">
         <v>163.30000000000001</v>
       </c>
-      <c r="D146" s="23" t="s">
-        <v>112</v>
+      <c r="D146" s="24">
+        <v>2.2143549376001266</v>
       </c>
       <c r="E146" s="22">
         <v>65</v>
@@ -8048,7 +8066,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>166</v>
       </c>
@@ -8058,8 +8076,8 @@
       <c r="C147" s="24">
         <v>164.9</v>
       </c>
-      <c r="D147" s="23" t="s">
-        <v>112</v>
+      <c r="D147" s="24">
+        <v>2.1420754348250926</v>
       </c>
       <c r="E147" s="22">
         <v>69</v>
@@ -8090,7 +8108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>167</v>
       </c>
@@ -8100,8 +8118,8 @@
       <c r="C148" s="24">
         <v>166.9</v>
       </c>
-      <c r="D148" s="23" t="s">
-        <v>112</v>
+      <c r="D148" s="24">
+        <v>2.3199183154487835</v>
       </c>
       <c r="E148" s="22">
         <v>69</v>
@@ -8132,7 +8150,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>168</v>
       </c>
@@ -8142,8 +8160,8 @@
       <c r="C149" s="24">
         <v>167.8</v>
       </c>
-      <c r="D149" s="23" t="s">
-        <v>112</v>
+      <c r="D149" s="24">
+        <v>2.6797248632890649</v>
       </c>
       <c r="E149" s="22">
         <v>83</v>
@@ -8174,7 +8192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>169</v>
       </c>
@@ -8184,8 +8202,8 @@
       <c r="C150" s="24">
         <v>170</v>
       </c>
-      <c r="D150" s="23" t="s">
-        <v>112</v>
+      <c r="D150" s="24">
+        <v>2.8911108170941469</v>
       </c>
       <c r="E150" s="22">
         <v>78</v>
@@ -8216,7 +8234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>170</v>
       </c>
@@ -8226,8 +8244,8 @@
       <c r="C151" s="24">
         <v>173.5</v>
       </c>
-      <c r="D151" s="23" t="s">
-        <v>112</v>
+      <c r="D151" s="24">
+        <v>3.1472824556462964</v>
       </c>
       <c r="E151" s="22">
         <v>98</v>
@@ -8258,7 +8276,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>171</v>
       </c>
@@ -8268,8 +8286,8 @@
       <c r="C152" s="24">
         <v>176.3</v>
       </c>
-      <c r="D152" s="23" t="s">
-        <v>112</v>
+      <c r="D152" s="24">
+        <v>3.0854839009345447</v>
       </c>
       <c r="E152" s="22">
         <v>99</v>
@@ -8300,7 +8318,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>172</v>
       </c>
@@ -8310,8 +8328,8 @@
       <c r="C153" s="24">
         <v>180.3</v>
       </c>
-      <c r="D153" s="23" t="s">
-        <v>112</v>
+      <c r="D153" s="24">
+        <v>3.0419225732676738</v>
       </c>
       <c r="E153" s="22">
         <v>99</v>
@@ -8342,7 +8360,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>173</v>
       </c>
@@ -8352,8 +8370,8 @@
       <c r="C154" s="24">
         <v>183</v>
       </c>
-      <c r="D154" s="23" t="s">
-        <v>112</v>
+      <c r="D154" s="24">
+        <v>2.9049565661727135</v>
       </c>
       <c r="E154" s="22">
         <v>109</v>
@@ -8384,7 +8402,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>174</v>
       </c>
@@ -8394,8 +8412,8 @@
       <c r="C155" s="24">
         <v>187.8</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>112</v>
+      <c r="D155" s="24">
+        <v>2.7721374667462948</v>
       </c>
       <c r="E155" s="22">
         <v>106</v>
@@ -8426,7 +8444,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>175</v>
       </c>
@@ -8436,8 +8454,8 @@
       <c r="C156" s="24">
         <v>192.1</v>
       </c>
-      <c r="D156" s="23" t="s">
-        <v>112</v>
+      <c r="D156" s="24">
+        <v>2.9817790144511265</v>
       </c>
       <c r="E156" s="22">
         <v>113</v>
@@ -8468,7 +8486,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>176</v>
       </c>
@@ -8478,8 +8496,8 @@
       <c r="C157" s="24">
         <v>197.8</v>
       </c>
-      <c r="D157" s="23" t="s">
-        <v>112</v>
+      <c r="D157" s="24">
+        <v>2.9822215089427417</v>
       </c>
       <c r="E157" s="22">
         <v>104</v>
@@ -8510,7 +8528,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>177</v>
       </c>
@@ -8520,8 +8538,8 @@
       <c r="C158" s="24">
         <v>203.1</v>
       </c>
-      <c r="D158" s="23" t="s">
-        <v>112</v>
+      <c r="D158" s="24">
+        <v>3.1848952824201398</v>
       </c>
       <c r="E158" s="22">
         <v>99</v>
@@ -8552,7 +8570,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>178</v>
       </c>
@@ -8562,8 +8580,8 @@
       <c r="C159" s="24">
         <v>207.5</v>
       </c>
-      <c r="D159" s="23" t="s">
-        <v>112</v>
+      <c r="D159" s="24">
+        <v>3.3613666228646517</v>
       </c>
       <c r="E159" s="22">
         <v>99</v>
@@ -8594,7 +8612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>179</v>
       </c>
@@ -8604,8 +8622,8 @@
       <c r="C160" s="24">
         <v>210.7</v>
       </c>
-      <c r="D160" s="23" t="s">
-        <v>112</v>
+      <c r="D160" s="24">
+        <v>3.1717938891405084</v>
       </c>
       <c r="E160" s="22">
         <v>98</v>
@@ -8636,7 +8654,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>180</v>
       </c>
@@ -8646,8 +8664,8 @@
       <c r="C161" s="24">
         <v>213.9</v>
       </c>
-      <c r="D161" s="23" t="s">
-        <v>112</v>
+      <c r="D161" s="24">
+        <v>3.6592885101666148</v>
       </c>
       <c r="E161" s="22">
         <v>96</v>
@@ -8678,7 +8696,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>181</v>
       </c>
@@ -8688,8 +8706,8 @@
       <c r="C162" s="24">
         <v>215</v>
       </c>
-      <c r="D162" s="23" t="s">
-        <v>112</v>
+      <c r="D162" s="24">
+        <v>4.1175456739055498</v>
       </c>
       <c r="E162" s="22">
         <v>96</v>
@@ -8720,7 +8738,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>182</v>
       </c>
@@ -8730,8 +8748,8 @@
       <c r="C163" s="24">
         <v>215.7</v>
       </c>
-      <c r="D163" s="23" t="s">
-        <v>112</v>
+      <c r="D163" s="24">
+        <v>4.3061182448671289</v>
       </c>
       <c r="E163" s="22">
         <v>95</v>
@@ -8762,7 +8780,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>183</v>
       </c>
@@ -8772,8 +8790,8 @@
       <c r="C164" s="24">
         <v>217.7</v>
       </c>
-      <c r="D164" s="23" t="s">
-        <v>112</v>
+      <c r="D164" s="24">
+        <v>3.95506693795202</v>
       </c>
       <c r="E164" s="22">
         <v>91</v>
@@ -8804,7 +8822,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>184</v>
       </c>
@@ -8814,8 +8832,8 @@
       <c r="C165" s="24">
         <v>220.7</v>
       </c>
-      <c r="D165" s="23" t="s">
-        <v>112</v>
+      <c r="D165" s="24">
+        <v>4.1176270552428882</v>
       </c>
       <c r="E165" s="22">
         <v>90</v>
@@ -8846,7 +8864,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>185</v>
       </c>
@@ -8856,8 +8874,8 @@
       <c r="C166" s="24">
         <v>223.7</v>
       </c>
-      <c r="D166" s="23" t="s">
-        <v>112</v>
+      <c r="D166" s="24">
+        <v>4.9240378122889936</v>
       </c>
       <c r="E166" s="22">
         <v>84</v>
@@ -8888,7 +8906,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>186</v>
       </c>
@@ -8898,8 +8916,8 @@
       <c r="C167" s="24">
         <v>225.7</v>
       </c>
-      <c r="D167" s="23" t="s">
-        <v>112</v>
+      <c r="D167" s="24">
+        <v>5.097506581484649</v>
       </c>
       <c r="E167" s="22">
         <v>92</v>
@@ -8930,7 +8948,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>187</v>
       </c>
@@ -8940,8 +8958,8 @@
       <c r="C168" s="24">
         <v>227.5</v>
       </c>
-      <c r="D168" s="23" t="s">
-        <v>112</v>
+      <c r="D168" s="24">
+        <v>5.3575828200432829</v>
       </c>
       <c r="E168" s="22">
         <v>93</v>
@@ -8972,7 +8990,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>188</v>
       </c>
@@ -8982,8 +9000,8 @@
       <c r="C169" s="24">
         <v>228.5</v>
       </c>
-      <c r="D169" s="23" t="s">
-        <v>112</v>
+      <c r="D169" s="24">
+        <v>4.0794492050126312</v>
       </c>
       <c r="E169" s="22">
         <v>86</v>
@@ -9014,7 +9032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>189</v>
       </c>
@@ -9024,8 +9042,8 @@
       <c r="C170" s="24">
         <v>227.2</v>
       </c>
-      <c r="D170" s="23" t="s">
-        <v>112</v>
+      <c r="D170" s="24">
+        <v>4.2411087266353222</v>
       </c>
       <c r="E170" s="22">
         <v>90</v>
@@ -9056,7 +9074,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>190</v>
       </c>
@@ -9066,8 +9084,8 @@
       <c r="C171" s="24">
         <v>228.1</v>
       </c>
-      <c r="D171" s="23" t="s">
-        <v>112</v>
+      <c r="D171" s="24">
+        <v>4.4375578018269435</v>
       </c>
       <c r="E171" s="22">
         <v>94</v>
@@ -9098,7 +9116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>191</v>
       </c>
@@ -9108,8 +9126,8 @@
       <c r="C172" s="24">
         <v>229.5</v>
       </c>
-      <c r="D172" s="23" t="s">
-        <v>112</v>
+      <c r="D172" s="24">
+        <v>4.3603970557577902</v>
       </c>
       <c r="E172" s="22">
         <v>101</v>
@@ -9140,7 +9158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>192</v>
       </c>
@@ -9150,8 +9168,8 @@
       <c r="C173" s="24">
         <v>231</v>
       </c>
-      <c r="D173" s="23" t="s">
-        <v>112</v>
+      <c r="D173" s="24">
+        <v>4.4181421912534402</v>
       </c>
       <c r="E173" s="22">
         <v>97</v>
@@ -9182,7 +9200,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>193</v>
       </c>
@@ -9192,8 +9210,8 @@
       <c r="C174" s="24">
         <v>231.8</v>
       </c>
-      <c r="D174" s="23" t="s">
-        <v>112</v>
+      <c r="D174" s="24">
+        <v>4.6399685287175458</v>
       </c>
       <c r="E174" s="22">
         <v>100</v>
@@ -9224,7 +9242,7 @@
         <v>0.8126022913256955</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>194</v>
       </c>
@@ -9234,8 +9252,8 @@
       <c r="C175" s="24">
         <v>232.2</v>
       </c>
-      <c r="D175" s="23" t="s">
-        <v>112</v>
+      <c r="D175" s="24">
+        <v>4.9524195181210775</v>
       </c>
       <c r="E175" s="22">
         <v>90</v>
@@ -9266,7 +9284,7 @@
         <v>0.77679290894439978</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>195</v>
       </c>
@@ -9276,8 +9294,8 @@
       <c r="C176" s="24">
         <v>233.5</v>
       </c>
-      <c r="D176" s="23" t="s">
-        <v>112</v>
+      <c r="D176" s="24">
+        <v>5.3987815437902027</v>
       </c>
       <c r="E176" s="22">
         <v>95</v>
@@ -9308,7 +9326,7 @@
         <v>0.7548076923076924</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>196</v>
       </c>
@@ -9318,8 +9336,8 @@
       <c r="C177" s="24">
         <v>235.6</v>
       </c>
-      <c r="D177" s="23" t="s">
-        <v>112</v>
+      <c r="D177" s="24">
+        <v>5.426737508061791</v>
       </c>
       <c r="E177" s="22">
         <v>95</v>
@@ -9350,7 +9368,7 @@
         <v>0.73396674584323041</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>197</v>
       </c>
@@ -9360,8 +9378,8 @@
       <c r="C178" s="24">
         <v>238.2</v>
       </c>
-      <c r="D178" s="23" t="s">
-        <v>112</v>
+      <c r="D178" s="24">
+        <v>5.1630443037013416</v>
       </c>
       <c r="E178" s="22">
         <v>92</v>
@@ -9392,7 +9410,7 @@
         <v>0.73017107309486784</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>198</v>
       </c>
@@ -9402,8 +9420,8 @@
       <c r="C179" s="24">
         <v>240.1</v>
       </c>
-      <c r="D179" s="23" t="s">
-        <v>112</v>
+      <c r="D179" s="24">
+        <v>5.3821407095610345</v>
       </c>
       <c r="E179" s="22">
         <v>86</v>
@@ -9434,7 +9452,7 @@
         <v>0.72671285604311009</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>199</v>
       </c>
@@ -9444,8 +9462,8 @@
       <c r="C180" s="24">
         <v>240.6</v>
       </c>
-      <c r="D180" s="23" t="s">
-        <v>112</v>
+      <c r="D180" s="24">
+        <v>4.5601513842119381</v>
       </c>
       <c r="E180" s="22">
         <v>74</v>
@@ -9476,7 +9494,7 @@
         <v>0.71849056603773587</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>200</v>
       </c>
@@ -9486,8 +9504,8 @@
       <c r="C181" s="24">
         <v>240.3</v>
       </c>
-      <c r="D181" s="23" t="s">
-        <v>112</v>
+      <c r="D181" s="24">
+        <v>4.8833219958001841</v>
       </c>
       <c r="E181" s="22">
         <v>58</v>
@@ -9518,7 +9536,7 @@
         <v>0.67287630402384502</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>201</v>
       </c>
@@ -9528,8 +9546,8 @@
       <c r="C182" s="24">
         <v>240.4</v>
       </c>
-      <c r="D182" s="23" t="s">
-        <v>112</v>
+      <c r="D182" s="24">
+        <v>5.4940260044512126</v>
       </c>
       <c r="E182" s="22">
         <v>75</v>
@@ -9560,7 +9578,7 @@
         <v>0.67062314540059342</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>202</v>
       </c>
@@ -9570,8 +9588,8 @@
       <c r="C183" s="24">
         <v>242.1</v>
       </c>
-      <c r="D183" s="23" t="s">
-        <v>112</v>
+      <c r="D183" s="24">
+        <v>5.3975917631318717</v>
       </c>
       <c r="E183" s="22">
         <v>79</v>
@@ -9602,7 +9620,7 @@
         <v>0.65294117647058825</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>203</v>
       </c>
@@ -9612,8 +9630,8 @@
       <c r="C184" s="24">
         <v>239.3</v>
       </c>
-      <c r="D184" s="23" t="s">
-        <v>112</v>
+      <c r="D184" s="24">
+        <v>5.5993301476851114</v>
       </c>
       <c r="E184" s="22">
         <v>83</v>
@@ -9644,7 +9662,7 @@
         <v>0.63795620437956213</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>204</v>
       </c>
@@ -9654,8 +9672,8 @@
       <c r="C185" s="24">
         <v>241.7</v>
       </c>
-      <c r="D185" s="23" t="s">
-        <v>112</v>
+      <c r="D185" s="24">
+        <v>5.9889723303131683</v>
       </c>
       <c r="E185" s="22">
         <v>65</v>
@@ -9686,7 +9704,7 @@
         <v>0.62662807525325614</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>205</v>
       </c>
@@ -9696,8 +9714,8 @@
       <c r="C186" s="24">
         <v>240.7</v>
       </c>
-      <c r="D186" s="23">
-        <v>1.5</v>
+      <c r="D186" s="24">
+        <v>5.7717823339338317</v>
       </c>
       <c r="E186" s="22">
         <v>68</v>
@@ -9728,7 +9746,7 @@
         <v>0.61897915168943207</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>206</v>
       </c>
@@ -9738,8 +9756,8 @@
       <c r="C187" s="24">
         <v>239.1</v>
       </c>
-      <c r="D187" s="23" t="s">
-        <v>112</v>
+      <c r="D187" s="24">
+        <v>5.7984315508325279</v>
       </c>
       <c r="E187" s="22">
         <v>69</v>
@@ -9770,7 +9788,7 @@
         <v>0.59743040685224846</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>207</v>
       </c>
@@ -9780,8 +9798,8 @@
       <c r="C188" s="24">
         <v>236.7</v>
       </c>
-      <c r="D188" s="23" t="s">
-        <v>112</v>
+      <c r="D188" s="24">
+        <v>5.9075548265769271</v>
       </c>
       <c r="E188" s="22">
         <v>70</v>
@@ -9812,7 +9830,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>208</v>
       </c>
@@ -9822,8 +9840,8 @@
       <c r="C189" s="24">
         <v>235.6</v>
       </c>
-      <c r="D189" s="23" t="s">
-        <v>112</v>
+      <c r="D189" s="24">
+        <v>6.1194365247679112</v>
       </c>
       <c r="E189" s="22">
         <v>87</v>
@@ -9854,7 +9872,7 @@
         <v>0.57132817990161622</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
         <v>209</v>
       </c>
@@ -9864,8 +9882,8 @@
       <c r="C190" s="24">
         <v>236</v>
       </c>
-      <c r="D190" s="23">
-        <v>1.5</v>
+      <c r="D190" s="24">
+        <v>6.3077116442756198</v>
       </c>
       <c r="E190" s="22">
         <v>94</v>
@@ -9896,7 +9914,7 @@
         <v>0.56454989532449407</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
         <v>210</v>
       </c>
@@ -9906,8 +9924,8 @@
       <c r="C191" s="24">
         <v>235.7</v>
       </c>
-      <c r="D191" s="23" t="s">
-        <v>112</v>
+      <c r="D191" s="24">
+        <v>6.25379991949029</v>
       </c>
       <c r="E191" s="22">
         <v>81</v>
@@ -9938,7 +9956,7 @@
         <v>0.55301455301455293</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>211</v>
       </c>
@@ -9948,8 +9966,8 @@
       <c r="C192" s="24">
         <v>234.6</v>
       </c>
-      <c r="D192" s="23" t="s">
-        <v>112</v>
+      <c r="D192" s="24">
+        <v>6.3322525008623671</v>
       </c>
       <c r="E192" s="22">
         <v>72</v>
@@ -9980,7 +9998,7 @@
         <v>0.53448275862068961</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>212</v>
       </c>
@@ -9990,8 +10008,8 @@
       <c r="C193" s="24">
         <v>231.5</v>
       </c>
-      <c r="D193" s="23" t="s">
-        <v>112</v>
+      <c r="D193" s="24">
+        <v>6.4026189724513749</v>
       </c>
       <c r="E193" s="22">
         <v>80</v>
@@ -10022,7 +10040,7 @@
         <v>0.51332877648667119</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>213</v>
       </c>
@@ -10032,8 +10050,8 @@
       <c r="C194" s="24">
         <v>231.8</v>
       </c>
-      <c r="D194" s="23">
-        <v>1.5</v>
+      <c r="D194" s="24">
+        <v>6.0892549791000734</v>
       </c>
       <c r="E194" s="22">
         <v>94</v>
@@ -10064,7 +10082,7 @@
         <v>0.50033990482664847</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>214</v>
       </c>
@@ -10074,8 +10092,8 @@
       <c r="C195" s="24">
         <v>232.5</v>
       </c>
-      <c r="D195" s="23" t="s">
-        <v>112</v>
+      <c r="D195" s="24">
+        <v>6.038656535863316</v>
       </c>
       <c r="E195" s="22">
         <v>93</v>
@@ -10106,7 +10124,7 @@
         <v>0.49290060851926981</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>215</v>
       </c>
@@ -10116,8 +10134,8 @@
       <c r="C196" s="24">
         <v>234.1</v>
       </c>
-      <c r="D196" s="23" t="s">
-        <v>112</v>
+      <c r="D196" s="24">
+        <v>6.2554583676945752</v>
       </c>
       <c r="E196" s="22">
         <v>89</v>
@@ -10148,7 +10166,7 @@
         <v>0.4688546550569323</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>216</v>
       </c>
@@ -10158,8 +10176,8 @@
       <c r="C197" s="24">
         <v>234.8</v>
       </c>
-      <c r="D197" s="23" t="s">
-        <v>112</v>
+      <c r="D197" s="24">
+        <v>6.1749757986447236</v>
       </c>
       <c r="E197" s="22">
         <v>99</v>
@@ -10190,7 +10208,7 @@
         <v>0.45502998001332445</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>217</v>
       </c>
@@ -10200,8 +10218,8 @@
       <c r="C198" s="24">
         <v>234.9</v>
       </c>
-      <c r="D198" s="23">
-        <v>1.5</v>
+      <c r="D198" s="24">
+        <v>6.6937154926941433</v>
       </c>
       <c r="E198" s="22">
         <v>98</v>
@@ -10232,7 +10250,7 @@
         <v>0.42460317460317465</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>218</v>
       </c>
@@ -10242,8 +10260,8 @@
       <c r="C199" s="24">
         <v>237.6</v>
       </c>
-      <c r="D199" s="23" t="s">
-        <v>112</v>
+      <c r="D199" s="24">
+        <v>7.250572326039503</v>
       </c>
       <c r="E199" s="22">
         <v>92</v>
@@ -10274,7 +10292,7 @@
         <v>0.42388451443569547</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>219</v>
       </c>
@@ -10284,8 +10302,8 @@
       <c r="C200" s="24">
         <v>239</v>
       </c>
-      <c r="D200" s="23" t="s">
-        <v>112</v>
+      <c r="D200" s="24">
+        <v>7.7416577249665508</v>
       </c>
       <c r="E200" s="22">
         <v>95</v>
@@ -10316,7 +10334,7 @@
         <v>0.41476159372958854</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>220</v>
       </c>
@@ -10326,8 +10344,8 @@
       <c r="C201" s="24">
         <v>243.3</v>
       </c>
-      <c r="D201" s="23" t="s">
-        <v>112</v>
+      <c r="D201" s="24">
+        <v>8.119191679519119</v>
       </c>
       <c r="E201" s="22">
         <v>90</v>
@@ -10358,7 +10376,7 @@
         <v>0.39636127355425599</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>221</v>
       </c>
@@ -10368,8 +10386,8 @@
       <c r="C202" s="24">
         <v>246.1</v>
       </c>
-      <c r="D202" s="23">
-        <v>1.5</v>
+      <c r="D202" s="24">
+        <v>8.4631319488147678</v>
       </c>
       <c r="E202" s="22">
         <v>84</v>
@@ -10400,7 +10418,7 @@
         <v>0.38842443729903536</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
         <v>222</v>
       </c>
@@ -10410,8 +10428,8 @@
       <c r="C203" s="24">
         <v>249.1</v>
       </c>
-      <c r="D203" s="23" t="s">
-        <v>112</v>
+      <c r="D203" s="24">
+        <v>8.7593061832240533</v>
       </c>
       <c r="E203" s="22">
         <v>89</v>
@@ -10442,7 +10460,7 @@
         <v>0.37141033822590941</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>223</v>
       </c>
@@ -10452,8 +10470,8 @@
       <c r="C204" s="24">
         <v>252.8</v>
       </c>
-      <c r="D204" s="23" t="s">
-        <v>112</v>
+      <c r="D204" s="24">
+        <v>8.9521737997863973</v>
       </c>
       <c r="E204" s="22">
         <v>101</v>
@@ -10484,7 +10502,7 @@
         <v>0.35066582117945466</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>224</v>
       </c>
@@ -10494,8 +10512,8 @@
       <c r="C205" s="24">
         <v>256.7</v>
       </c>
-      <c r="D205" s="23" t="s">
-        <v>112</v>
+      <c r="D205" s="24">
+        <v>9.5990566037735849</v>
       </c>
       <c r="E205" s="22">
         <v>106</v>
@@ -10526,7 +10544,7 @@
         <v>0.33878064110622252</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>225</v>
       </c>
@@ -10536,8 +10554,8 @@
       <c r="C206" s="24">
         <v>259.5</v>
       </c>
-      <c r="D206" s="23">
-        <v>1.2749999999999999</v>
+      <c r="D206" s="24">
+        <v>9.7507952657539878</v>
       </c>
       <c r="E206" s="22">
         <v>107</v>
@@ -10568,7 +10586,7 @@
         <v>0.32790988735919896</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
         <v>226</v>
       </c>
@@ -10578,8 +10596,8 @@
       <c r="C207" s="24">
         <v>259</v>
       </c>
-      <c r="D207" s="23" t="s">
-        <v>112</v>
+      <c r="D207" s="24">
+        <v>11.36879150236973</v>
       </c>
       <c r="E207" s="22">
         <v>114</v>
@@ -10610,7 +10628,7 @@
         <v>0.31148564294631714</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
         <v>227</v>
       </c>
@@ -10620,8 +10638,8 @@
       <c r="C208" s="24">
         <v>259.8</v>
       </c>
-      <c r="D208" s="23" t="s">
-        <v>112</v>
+      <c r="D208" s="24">
+        <v>12.123632175081589</v>
       </c>
       <c r="E208" s="22">
         <v>122</v>
@@ -10652,7 +10670,7 @@
         <v>0.30086848635235736</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
         <v>228</v>
       </c>
@@ -10662,8 +10680,8 @@
       <c r="C209" s="24">
         <v>260.39999999999998</v>
       </c>
-      <c r="D209" s="23" t="s">
-        <v>112</v>
+      <c r="D209" s="24">
+        <v>12.37872313285286</v>
       </c>
       <c r="E209" s="22">
         <v>119</v>
@@ -10694,7 +10712,7 @@
         <v>0.29295426452410378</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
         <v>229</v>
       </c>
@@ -10704,8 +10722,8 @@
       <c r="C210" s="24">
         <v>265.2</v>
       </c>
-      <c r="D210" s="23">
-        <v>1.5</v>
+      <c r="D210" s="24">
+        <v>14.031557632795487</v>
       </c>
       <c r="E210" s="22">
         <v>121</v>
@@ -10736,7 +10754,7 @@
         <v>0.26790123456790121</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
         <v>230</v>
       </c>
@@ -10746,8 +10764,8 @@
       <c r="C211" s="24">
         <v>267.5</v>
       </c>
-      <c r="D211" s="23" t="s">
-        <v>112</v>
+      <c r="D211" s="24">
+        <v>14.408987507466291</v>
       </c>
       <c r="E211" s="22">
         <v>118</v>
@@ -10778,7 +10796,7 @@
         <v>0.24938574938574937</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
         <v>231</v>
       </c>
@@ -10788,8 +10806,8 @@
       <c r="C212" s="24">
         <v>271.10000000000002</v>
       </c>
-      <c r="D212" s="23" t="s">
-        <v>112</v>
+      <c r="D212" s="24">
+        <v>12.876514604778365</v>
       </c>
       <c r="E212" s="22">
         <v>116</v>
@@ -10820,7 +10838,7 @@
         <v>0.22446483180428137</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>232</v>
       </c>
@@ -10830,8 +10848,8 @@
       <c r="C213" s="24">
         <v>270.7</v>
       </c>
-      <c r="D213" s="23" t="s">
-        <v>112</v>
+      <c r="D213" s="24">
+        <v>15.514717019235626</v>
       </c>
       <c r="E213" s="22">
         <v>107</v>
@@ -10862,7 +10880,7 @@
         <v>0.21167883211678828</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>233</v>
       </c>
@@ -10872,8 +10890,8 @@
       <c r="C214" s="24">
         <v>274.3</v>
       </c>
-      <c r="D214" s="23">
-        <v>1.55</v>
+      <c r="D214" s="24">
+        <v>16.155932884557423</v>
       </c>
       <c r="E214" s="22">
         <v>120</v>
@@ -10904,7 +10922,7 @@
         <v>0.19660194174757278</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
         <v>234</v>
       </c>
@@ -10914,8 +10932,8 @@
       <c r="C215" s="24">
         <v>278.10000000000002</v>
       </c>
-      <c r="D215" s="23" t="s">
-        <v>112</v>
+      <c r="D215" s="24">
+        <v>17.182160693945502</v>
       </c>
       <c r="E215" s="22">
         <v>117</v>
@@ -10946,7 +10964,7 @@
         <v>0.17951807228915664</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>235</v>
       </c>
@@ -10956,8 +10974,8 @@
       <c r="C216" s="24">
         <v>284</v>
       </c>
-      <c r="D216" s="23" t="s">
-        <v>112</v>
+      <c r="D216" s="24">
+        <v>15.997755051134945</v>
       </c>
       <c r="E216" s="22">
         <v>120</v>
@@ -10988,7 +11006,7 @@
         <v>0.17461263408820024</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
         <v>236</v>
       </c>
@@ -10998,8 +11016,8 @@
       <c r="C217" s="24">
         <v>285.10000000000002</v>
       </c>
-      <c r="D217" s="23" t="s">
-        <v>112</v>
+      <c r="D217" s="24">
+        <v>18.240282071337234</v>
       </c>
       <c r="E217" s="22">
         <v>122</v>
@@ -11030,7 +11048,7 @@
         <v>0.16706161137440756</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
         <v>237</v>
       </c>
@@ -11040,8 +11058,8 @@
       <c r="C218" s="24">
         <v>290.3</v>
       </c>
-      <c r="D218" s="23">
-        <v>2.4</v>
+      <c r="D218" s="24">
+        <v>18.464078459396521</v>
       </c>
       <c r="E218" s="22">
         <v>132</v>
@@ -11072,7 +11090,7 @@
         <v>0.1590643274853801</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>238</v>
       </c>
@@ -11082,8 +11100,8 @@
       <c r="C219" s="24">
         <v>290.60000000000002</v>
       </c>
-      <c r="D219" s="23" t="s">
-        <v>112</v>
+      <c r="D219" s="24">
+        <v>17.820957328204059</v>
       </c>
       <c r="E219" s="22">
         <v>129</v>
@@ -11114,7 +11132,7 @@
         <v>0.15098722415795587</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>239</v>
       </c>
@@ -11124,8 +11142,8 @@
       <c r="C220" s="24">
         <v>293.60000000000002</v>
       </c>
-      <c r="D220" s="23" t="s">
-        <v>112</v>
+      <c r="D220" s="24">
+        <v>17.485879832505599</v>
       </c>
       <c r="E220" s="22">
         <v>134</v>
@@ -11156,7 +11174,7 @@
         <v>0.14400921658986177</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>240</v>
       </c>
@@ -11166,8 +11184,8 @@
       <c r="C221" s="24">
         <v>293.60000000000002</v>
       </c>
-      <c r="D221" s="23" t="s">
-        <v>112</v>
+      <c r="D221" s="24">
+        <v>15.985616214449164</v>
       </c>
       <c r="E221" s="22">
         <v>125</v>
@@ -11198,7 +11216,7 @@
         <v>0.13631156930126004</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
         <v>241</v>
       </c>
@@ -11208,8 +11226,8 @@
       <c r="C222" s="24">
         <v>298.2</v>
       </c>
-      <c r="D222" s="23">
-        <v>2.5</v>
+      <c r="D222" s="24">
+        <v>13.96067956492444</v>
       </c>
       <c r="E222" s="22">
         <v>109</v>
@@ -11240,7 +11258,7 @@
         <v>0.12776831345826237</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>242</v>
       </c>
@@ -11250,8 +11268,8 @@
       <c r="C223" s="24">
         <v>300.5</v>
       </c>
-      <c r="D223" s="23" t="s">
-        <v>112</v>
+      <c r="D223" s="24">
+        <v>14.628609660808374</v>
       </c>
       <c r="E223" s="22">
         <v>109</v>
@@ -11282,7 +11300,7 @@
         <v>0.12042768711311198</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
         <v>243</v>
       </c>
@@ -11292,8 +11310,8 @@
       <c r="C224" s="24">
         <v>301</v>
       </c>
-      <c r="D224" s="23" t="s">
-        <v>112</v>
+      <c r="D224" s="24">
+        <v>12.395650983054079</v>
       </c>
       <c r="E224" s="22">
         <v>105</v>
@@ -11324,7 +11342,7 @@
         <v>0.11398090960134756</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
         <v>244</v>
       </c>
@@ -11334,8 +11352,8 @@
       <c r="C225" s="24">
         <v>301.89999999999998</v>
       </c>
-      <c r="D225" s="23" t="s">
-        <v>112</v>
+      <c r="D225" s="24">
+        <v>13.631020931530268</v>
       </c>
       <c r="E225" s="22">
         <v>100</v>
@@ -11366,7 +11384,7 @@
         <v>0.11161217587373168</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
         <v>245</v>
       </c>
@@ -11376,8 +11394,8 @@
       <c r="C226" s="24">
         <v>300.10000000000002</v>
       </c>
-      <c r="D226" s="23">
-        <v>2.1</v>
+      <c r="D226" s="24">
+        <v>13.579180325928732</v>
       </c>
       <c r="E226" s="22">
         <v>113</v>
@@ -11408,7 +11426,7 @@
         <v>0.10532212885154062</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>246</v>
       </c>
@@ -11418,8 +11436,8 @@
       <c r="C227" s="24">
         <v>303.2</v>
       </c>
-      <c r="D227" s="23" t="s">
-        <v>112</v>
+      <c r="D227" s="24">
+        <v>11.670754138565298</v>
       </c>
       <c r="E227" s="22">
         <v>109</v>
@@ -11450,7 +11468,7 @@
         <v>0.10244988864142539</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>247</v>
       </c>
@@ -11460,8 +11478,8 @@
       <c r="C228" s="24">
         <v>304.2</v>
       </c>
-      <c r="D228" s="23" t="s">
-        <v>112</v>
+      <c r="D228" s="24">
+        <v>9.570137340063388</v>
       </c>
       <c r="E228" s="22">
         <v>96</v>
@@ -11492,7 +11510,7 @@
         <v>9.8451327433628319E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
         <v>248</v>
       </c>
@@ -11502,8 +11520,8 @@
       <c r="C229" s="24">
         <v>309.3</v>
       </c>
-      <c r="D229" s="23" t="s">
-        <v>112</v>
+      <c r="D229" s="24">
+        <v>10.272150938109306</v>
       </c>
       <c r="E229" s="22">
         <v>92</v>
@@ -11534,7 +11552,7 @@
         <v>9.4609460946094598E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
         <v>249</v>
       </c>
@@ -11544,8 +11562,8 @@
       <c r="C230" s="24">
         <v>311.2</v>
       </c>
-      <c r="D230" s="23">
-        <v>2.2999999999999998</v>
+      <c r="D230" s="24">
+        <v>9.8420728947887532</v>
       </c>
       <c r="E230" s="22">
         <v>86</v>
@@ -11576,7 +11594,7 @@
         <v>9.1353996737357265E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
         <v>250</v>
       </c>
@@ -11586,8 +11604,8 @@
       <c r="C231" s="24">
         <v>312.89999999999998</v>
       </c>
-      <c r="D231" s="23" t="s">
-        <v>112</v>
+      <c r="D231" s="24">
+        <v>11.271759875079521</v>
       </c>
       <c r="E231" s="22">
         <v>103</v>
@@ -11618,7 +11636,7 @@
         <v>8.8476242490442378E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
         <v>251</v>
       </c>
@@ -11628,8 +11646,8 @@
       <c r="C232" s="24">
         <v>312.8</v>
       </c>
-      <c r="D232" s="23" t="s">
-        <v>112</v>
+      <c r="D232" s="24">
+        <v>11.456622265166679</v>
       </c>
       <c r="E232" s="22">
         <v>95</v>
@@ -11660,7 +11678,7 @@
         <v>8.4278768233387355E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
         <v>252</v>
       </c>
@@ -11670,8 +11688,8 @@
       <c r="C233" s="24">
         <v>313.39999999999998</v>
       </c>
-      <c r="D233" s="23" t="s">
-        <v>112</v>
+      <c r="D233" s="24">
+        <v>12.729833077645228</v>
       </c>
       <c r="E233" s="22">
         <v>105</v>
@@ -11702,7 +11720,7 @@
         <v>8.2479784366576825E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
         <v>253</v>
       </c>
@@ -11712,8 +11730,8 @@
       <c r="C234" s="24">
         <v>314.89999999999998</v>
       </c>
-      <c r="D234" s="23">
-        <v>2.5</v>
+      <c r="D234" s="24">
+        <v>12.782040223362237</v>
       </c>
       <c r="E234" s="22">
         <v>114</v>
@@ -11744,7 +11762,7 @@
         <v>8.1239978621058251E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
         <v>254</v>
       </c>
@@ -11754,8 +11772,8 @@
       <c r="C235" s="24">
         <v>318.5</v>
       </c>
-      <c r="D235" s="23" t="s">
-        <v>112</v>
+      <c r="D235" s="24">
+        <v>12.836005625879043</v>
       </c>
       <c r="E235" s="22">
         <v>103</v>
@@ -11786,7 +11804,7 @@
         <v>7.8877713075701433E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
         <v>255</v>
       </c>
@@ -11796,8 +11814,8 @@
       <c r="C236" s="24">
         <v>323.39999999999998</v>
       </c>
-      <c r="D236" s="23" t="s">
-        <v>112</v>
+      <c r="D236" s="24">
+        <v>12.464494196059135</v>
       </c>
       <c r="E236" s="22">
         <v>109</v>
@@ -11828,7 +11846,7 @@
         <v>7.7449947312961009E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
         <v>256</v>
       </c>
@@ -11838,8 +11856,8 @@
       <c r="C237" s="24">
         <v>326.10000000000002</v>
       </c>
-      <c r="D237" s="23" t="s">
-        <v>112</v>
+      <c r="D237" s="24">
+        <v>13.458228297926684</v>
       </c>
       <c r="E237" s="22">
         <v>105</v>
@@ -11870,7 +11888,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
         <v>257</v>
       </c>
@@ -11880,8 +11898,8 @@
       <c r="C238" s="24">
         <v>333.7</v>
       </c>
-      <c r="D238" s="23">
-        <v>2.5</v>
+      <c r="D238" s="24">
+        <v>12.990328224200345</v>
       </c>
       <c r="E238" s="22">
         <v>97</v>
@@ -11912,7 +11930,7 @@
         <v>7.2501294665976185E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
         <v>258</v>
       </c>
@@ -11922,8 +11940,8 @@
       <c r="C239" s="24">
         <v>336</v>
       </c>
-      <c r="D239" s="23" t="s">
-        <v>112</v>
+      <c r="D239" s="24">
+        <v>13.013556470729601</v>
       </c>
       <c r="E239" s="22">
         <v>93</v>
@@ -11954,7 +11972,7 @@
         <v>7.0211667527103769E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
         <v>259</v>
       </c>
@@ -11964,8 +11982,8 @@
       <c r="C240" s="24">
         <v>339.8</v>
       </c>
-      <c r="D240" s="23" t="s">
-        <v>112</v>
+      <c r="D240" s="24">
+        <v>13.298845225597679</v>
       </c>
       <c r="E240" s="22">
         <v>86</v>
@@ -11996,7 +12014,7 @@
         <v>6.6901408450704219E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
         <v>260</v>
       </c>
@@ -12006,8 +12024,8 @@
       <c r="C241" s="24">
         <v>336.8</v>
       </c>
-      <c r="D241" s="23" t="s">
-        <v>112</v>
+      <c r="D241" s="24">
+        <v>13.408163265306122</v>
       </c>
       <c r="E241" s="22">
         <v>80</v>
@@ -12038,7 +12056,7 @@
         <v>6.6128218071680969E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>261</v>
       </c>
@@ -12048,8 +12066,8 @@
       <c r="C242" s="24">
         <v>341</v>
       </c>
-      <c r="D242" s="23">
-        <v>2.44</v>
+      <c r="D242" s="24">
+        <v>13.800196095148779</v>
       </c>
       <c r="E242" s="22">
         <v>86</v>
@@ -12080,7 +12098,7 @@
         <v>6.5097646469704562E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
         <v>262</v>
       </c>
@@ -12090,8 +12108,8 @@
       <c r="C243" s="24">
         <v>347.6</v>
       </c>
-      <c r="D243" s="23" t="s">
-        <v>112</v>
+      <c r="D243" s="24">
+        <v>13.428906720796727</v>
       </c>
       <c r="E243" s="22">
         <v>81</v>
@@ -12122,7 +12140,7 @@
         <v>6.2933597621407322E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
         <v>263</v>
       </c>
@@ -12132,8 +12150,8 @@
       <c r="C244" s="24">
         <v>357.8</v>
       </c>
-      <c r="D244" s="23" t="s">
-        <v>112</v>
+      <c r="D244" s="24">
+        <v>14.02458870095646</v>
       </c>
       <c r="E244" s="22">
         <v>86</v>
@@ -12164,7 +12182,7 @@
         <v>6.0650887573964495E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
         <v>264</v>
       </c>
@@ -12174,8 +12192,8 @@
       <c r="C245" s="24">
         <v>363.9</v>
       </c>
-      <c r="D245" s="23" t="s">
-        <v>112</v>
+      <c r="D245" s="24">
+        <v>14.838878426449048</v>
       </c>
       <c r="E245" s="22">
         <v>97</v>
@@ -12206,7 +12224,7 @@
         <v>5.5145248645987195E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
         <v>265</v>
       </c>
@@ -12216,8 +12234,8 @@
       <c r="C246" s="24">
         <v>364.6</v>
       </c>
-      <c r="D246" s="23">
-        <v>2.2000000000000002</v>
+      <c r="D246" s="24">
+        <v>14.700891840999857</v>
       </c>
       <c r="E246" s="22">
         <v>100</v>
@@ -12248,7 +12266,7 @@
         <v>5.2901289895171656E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
         <v>266</v>
       </c>
@@ -12258,8 +12276,8 @@
       <c r="C247" s="24">
         <v>366.8</v>
       </c>
-      <c r="D247" s="23" t="s">
-        <v>112</v>
+      <c r="D247" s="24">
+        <v>15.467004136057781</v>
       </c>
       <c r="E247" s="22">
         <v>89</v>
@@ -12290,7 +12308,7 @@
         <v>5.1135431444647113E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>267</v>
       </c>
@@ -12300,8 +12318,8 @@
       <c r="C248" s="24">
         <v>367</v>
       </c>
-      <c r="D248" s="23" t="s">
-        <v>112</v>
+      <c r="D248" s="24">
+        <v>15.654509848150843</v>
       </c>
       <c r="E248" s="22">
         <v>93</v>
@@ -12332,7 +12350,7 @@
         <v>5.0238075829429338E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
         <v>268</v>
       </c>
@@ -12342,8 +12360,8 @@
       <c r="C249" s="24">
         <v>376.8</v>
       </c>
-      <c r="D249" s="23" t="s">
-        <v>112</v>
+      <c r="D249" s="24">
+        <v>14.990403854791948</v>
       </c>
       <c r="E249" s="22">
         <v>80</v>
@@ -12374,7 +12392,7 @@
         <v>4.8310435337794701E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
         <v>269</v>
       </c>
@@ -12384,8 +12402,8 @@
       <c r="C250" s="24">
         <v>378.9</v>
       </c>
-      <c r="D250" s="23">
-        <v>2</v>
+      <c r="D250" s="24">
+        <v>13.426245482967234</v>
       </c>
       <c r="E250" s="22">
         <v>84</v>
@@ -12416,7 +12434,7 @@
         <v>4.8002323750983844E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
         <v>270</v>
       </c>
@@ -12426,8 +12444,8 @@
       <c r="C251" s="24">
         <v>381.3</v>
       </c>
-      <c r="D251" s="23" t="s">
-        <v>112</v>
+      <c r="D251" s="24">
+        <v>12.929945956866508</v>
       </c>
       <c r="E251" s="22">
         <v>66</v>
@@ -12458,7 +12476,7 @@
         <v>4.6311326524512218E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
         <v>271</v>
       </c>
@@ -12468,8 +12486,8 @@
       <c r="C252" s="24">
         <v>377.1</v>
       </c>
-      <c r="D252" s="23" t="s">
-        <v>112</v>
+      <c r="D252" s="24">
+        <v>11.702266411164508</v>
       </c>
       <c r="E252" s="22">
         <v>74</v>
@@ -12500,7 +12518,7 @@
         <v>4.5235451874797258E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
         <v>272</v>
       </c>
@@ -12510,8 +12528,8 @@
       <c r="C253" s="24">
         <v>376.4</v>
       </c>
-      <c r="D253" s="23" t="s">
-        <v>112</v>
+      <c r="D253" s="24">
+        <v>9.0492410960276519</v>
       </c>
       <c r="E253" s="22">
         <v>67</v>
@@ -12542,7 +12560,7 @@
         <v>4.6859478329974745E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
         <v>273</v>
       </c>
@@ -12552,8 +12570,8 @@
       <c r="C254" s="24">
         <v>371</v>
       </c>
-      <c r="D254" s="23">
-        <v>1.9</v>
+      <c r="D254" s="24">
+        <v>7.9737562711119105</v>
       </c>
       <c r="E254" s="22">
         <v>66</v>
@@ -12584,7 +12602,7 @@
         <v>4.6457563707381348E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
         <v>274</v>
       </c>
@@ -12594,8 +12612,8 @@
       <c r="C255" s="24">
         <v>374.8</v>
       </c>
-      <c r="D255" s="23" t="s">
-        <v>112</v>
+      <c r="D255" s="24">
+        <v>9.2028630061564645</v>
       </c>
       <c r="E255" s="22">
         <v>85</v>
@@ -12626,7 +12644,7 @@
         <v>4.530471623446157E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>275</v>
       </c>
@@ -12636,8 +12654,8 @@
       <c r="C256" s="24">
         <v>374.9</v>
       </c>
-      <c r="D256" s="23" t="s">
-        <v>112</v>
+      <c r="D256" s="24">
+        <v>10.58444224164689</v>
       </c>
       <c r="E256" s="22">
         <v>81</v>
@@ -12668,7 +12686,7 @@
         <v>4.3856926448038326E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
         <v>276</v>
       </c>
@@ -12678,8 +12696,8 @@
       <c r="C257" s="24">
         <v>378.5</v>
       </c>
-      <c r="D257" s="23" t="s">
-        <v>112</v>
+      <c r="D257" s="24">
+        <v>11.132186604638161</v>
       </c>
       <c r="E257" s="22">
         <v>80</v>
@@ -12710,7 +12728,7 @@
         <v>4.3354635674750515E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
         <v>277</v>
       </c>
@@ -12720,8 +12738,8 @@
       <c r="C258" s="24">
         <v>379.6</v>
       </c>
-      <c r="D258" s="23">
-        <v>2</v>
+      <c r="D258" s="24">
+        <v>11.633274308111657</v>
       </c>
       <c r="E258" s="22">
         <v>84</v>
@@ -12752,7 +12770,7 @@
         <v>4.3946943451436141E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
         <v>278</v>
       </c>
@@ -12762,8 +12780,8 @@
       <c r="C259" s="24">
         <v>378.6</v>
       </c>
-      <c r="D259" s="23" t="s">
-        <v>112</v>
+      <c r="D259" s="24">
+        <v>10.208184771412725</v>
       </c>
       <c r="E259" s="22">
         <v>81</v>
@@ -12794,7 +12812,7 @@
         <v>4.3379573570780712E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
         <v>279</v>
       </c>
@@ -12804,8 +12822,8 @@
       <c r="C260" s="24">
         <v>383.8</v>
       </c>
-      <c r="D260" s="23" t="s">
-        <v>112</v>
+      <c r="D260" s="24">
+        <v>11.251220065267329</v>
       </c>
       <c r="E260" s="22">
         <v>74</v>
@@ -12836,7 +12854,7 @@
         <v>4.278547703584927E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
         <v>280</v>
       </c>
@@ -12846,8 +12864,8 @@
       <c r="C261" s="24">
         <v>385.9</v>
       </c>
-      <c r="D261" s="23" t="s">
-        <v>112</v>
+      <c r="D261" s="24">
+        <v>12.335579554483123</v>
       </c>
       <c r="E261" s="22">
         <v>75</v>
@@ -12878,7 +12896,7 @@
         <v>4.1873798033310344E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
         <v>281</v>
       </c>
@@ -12888,8 +12906,8 @@
       <c r="C262" s="24">
         <v>383.1</v>
       </c>
-      <c r="D262" s="23">
-        <v>2</v>
+      <c r="D262" s="24">
+        <v>12.947392064375627</v>
       </c>
       <c r="E262" s="22">
         <v>78</v>
@@ -12920,7 +12938,7 @@
         <v>4.1229163490939087E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
         <v>282</v>
       </c>
@@ -12930,8 +12948,8 @@
       <c r="C263" s="24">
         <v>381.5</v>
       </c>
-      <c r="D263" s="23" t="s">
-        <v>112</v>
+      <c r="D263" s="24">
+        <v>12.803335110766396</v>
       </c>
       <c r="E263" s="22">
         <v>78</v>
@@ -12962,7 +12980,7 @@
         <v>4.0203553285944327E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
         <v>283</v>
       </c>
@@ -12972,8 +12990,8 @@
       <c r="C264" s="24">
         <v>381.4</v>
       </c>
-      <c r="D264" s="23" t="s">
-        <v>112</v>
+      <c r="D264" s="24">
+        <v>10.903168606892299</v>
       </c>
       <c r="E264" s="22">
         <v>55</v>
@@ -13004,7 +13022,7 @@
         <v>3.9329735168603296E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
         <v>284</v>
       </c>
@@ -13014,8 +13032,8 @@
       <c r="C265" s="24">
         <v>384.4</v>
       </c>
-      <c r="D265" s="23" t="s">
-        <v>112</v>
+      <c r="D265" s="24">
+        <v>12.101965992089839</v>
       </c>
       <c r="E265" s="22">
         <v>64</v>
@@ -13046,7 +13064,7 @@
         <v>3.8807691122817671E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
         <v>285</v>
       </c>
@@ -13056,8 +13074,8 @@
       <c r="C266" s="24">
         <v>382.1</v>
       </c>
-      <c r="D266" s="23">
-        <v>1.85</v>
+      <c r="D266" s="24">
+        <v>13.482855665958303</v>
       </c>
       <c r="E266" s="22">
         <v>87</v>
@@ -13088,7 +13106,7 @@
         <v>3.8731332520421144E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
         <v>286</v>
       </c>
@@ -13098,8 +13116,8 @@
       <c r="C267" s="24">
         <v>382</v>
       </c>
-      <c r="D267" s="23" t="s">
-        <v>112</v>
+      <c r="D267" s="24">
+        <v>12.980379825238463</v>
       </c>
       <c r="E267" s="22">
         <v>89</v>
@@ -13130,7 +13148,7 @@
         <v>3.8674274912044247E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
         <v>287</v>
       </c>
@@ -13140,8 +13158,8 @@
       <c r="C268" s="24">
         <v>382.8</v>
       </c>
-      <c r="D268" s="23" t="s">
-        <v>112</v>
+      <c r="D268" s="24">
+        <v>13.654888728816774</v>
       </c>
       <c r="E268" s="22">
         <v>84</v>
@@ -13172,7 +13190,7 @@
         <v>3.7261649676427942E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
         <v>288</v>
       </c>
@@ -13182,8 +13200,8 @@
       <c r="C269" s="24">
         <v>387.2</v>
       </c>
-      <c r="D269" s="23" t="s">
-        <v>112</v>
+      <c r="D269" s="24">
+        <v>13.462972577523953</v>
       </c>
       <c r="E269" s="22">
         <v>93</v>
@@ -13214,7 +13232,7 @@
         <v>3.6882463098075004E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
         <v>289</v>
       </c>
@@ -13224,8 +13242,8 @@
       <c r="C270" s="24">
         <v>393.7</v>
       </c>
-      <c r="D270" s="23">
-        <v>1.8</v>
+      <c r="D270" s="24">
+        <v>14.755192808583061</v>
       </c>
       <c r="E270" s="22">
         <v>83</v>
@@ -13256,7 +13274,7 @@
         <v>3.7361331731948909E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
         <v>290</v>
       </c>
@@ -13266,8 +13284,8 @@
       <c r="C271" s="24">
         <v>393</v>
       </c>
-      <c r="D271" s="23" t="s">
-        <v>112</v>
+      <c r="D271" s="24">
+        <v>15.072722154452473</v>
       </c>
       <c r="E271" s="22">
         <v>87</v>
@@ -13298,7 +13316,7 @@
         <v>3.6729582483410364E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
         <v>291</v>
       </c>
@@ -13308,8 +13326,8 @@
       <c r="C272" s="24">
         <v>392</v>
       </c>
-      <c r="D272" s="23" t="s">
-        <v>112</v>
+      <c r="D272" s="24">
+        <v>15.703559822195658</v>
       </c>
       <c r="E272" s="22">
         <v>82</v>
@@ -13340,7 +13358,7 @@
         <v>3.6206512806464863E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
         <v>292</v>
       </c>
@@ -13350,8 +13368,8 @@
       <c r="C273" s="24">
         <v>388.3</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>112</v>
+      <c r="D273" s="24">
+        <v>17.172693150990376</v>
       </c>
       <c r="E273" s="22">
         <v>81</v>
@@ -13382,7 +13400,7 @@
         <v>3.5752780937530614E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
         <v>293</v>
       </c>
@@ -13392,8 +13410,8 @@
       <c r="C274" s="24">
         <v>390.8</v>
       </c>
-      <c r="D274" s="23">
-        <v>1.8</v>
+      <c r="D274" s="24">
+        <v>17.322798219886568</v>
       </c>
       <c r="E274" s="22">
         <v>78</v>
@@ -13424,7 +13442,7 @@
         <v>3.5689767690208409E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
         <v>294</v>
       </c>
@@ -13434,8 +13452,8 @@
       <c r="C275" s="24">
         <v>389.9</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>112</v>
+      <c r="D275" s="24">
+        <v>18.034445957384168</v>
       </c>
       <c r="E275" s="22">
         <v>85</v>
@@ -13466,7 +13484,7 @@
         <v>3.5426044914335375E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
         <v>295</v>
       </c>
@@ -13476,8 +13494,8 @@
       <c r="C276" s="24">
         <v>393.4</v>
       </c>
-      <c r="D276" s="23" t="s">
-        <v>112</v>
+      <c r="D276" s="24">
+        <v>18.063505728703966</v>
       </c>
       <c r="E276" s="22">
         <v>84</v>
@@ -13508,7 +13526,7 @@
         <v>3.4928374725246965E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
         <v>296</v>
       </c>
@@ -13518,8 +13536,8 @@
       <c r="C277" s="24">
         <v>402.8</v>
       </c>
-      <c r="D277" s="23" t="s">
-        <v>112</v>
+      <c r="D277" s="24">
+        <v>18.829393204993369</v>
       </c>
       <c r="E277" s="22">
         <v>99</v>
@@ -13550,7 +13568,7 @@
         <v>3.4626941470227268E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
         <v>297</v>
       </c>
@@ -13560,8 +13578,8 @@
       <c r="C278" s="24">
         <v>393.2</v>
       </c>
-      <c r="D278" s="23">
-        <v>1.7</v>
+      <c r="D278" s="24">
+        <v>18.91498820042808</v>
       </c>
       <c r="E278" s="22">
         <v>109</v>
@@ -13592,7 +13610,7 @@
         <v>3.4734669836305923E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
         <v>298</v>
       </c>
@@ -13602,8 +13620,8 @@
       <c r="C279" s="24">
         <v>397.1</v>
       </c>
-      <c r="D279" s="23" t="s">
-        <v>112</v>
+      <c r="D279" s="24">
+        <v>18.769787837985369</v>
       </c>
       <c r="E279" s="22">
         <v>105</v>
@@ -13634,7 +13652,7 @@
         <v>3.4062143299398953E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
         <v>299</v>
       </c>
@@ -13644,8 +13662,8 @@
       <c r="C280" s="24">
         <v>398.9</v>
       </c>
-      <c r="D280" s="23" t="s">
-        <v>112</v>
+      <c r="D280" s="24">
+        <v>17.409281323105379</v>
       </c>
       <c r="E280" s="22">
         <v>98</v>
@@ -13676,7 +13694,7 @@
         <v>3.3389902596992427E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
         <v>300</v>
       </c>
@@ -13686,8 +13704,8 @@
       <c r="C281" s="24">
         <v>406</v>
       </c>
-      <c r="D281" s="23" t="s">
-        <v>112</v>
+      <c r="D281" s="24">
+        <v>18.494656737216435</v>
       </c>
       <c r="E281" s="22">
         <v>104</v>
@@ -13718,7 +13736,7 @@
         <v>3.319795161575137E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
         <v>301</v>
       </c>
@@ -13728,8 +13746,8 @@
       <c r="C282" s="24">
         <v>409.4</v>
       </c>
-      <c r="D282" s="23">
-        <v>1.4</v>
+      <c r="D282" s="24">
+        <v>18.625996997703062</v>
       </c>
       <c r="E282" s="22">
         <v>102</v>
@@ -13760,7 +13778,7 @@
         <v>3.3262208183872509E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
         <v>302</v>
       </c>
@@ -13770,8 +13788,8 @@
       <c r="C283" s="24">
         <v>420.3</v>
       </c>
-      <c r="D283" s="23" t="s">
-        <v>112</v>
+      <c r="D283" s="24">
+        <v>18.866686442125324</v>
       </c>
       <c r="E283" s="22">
         <v>101</v>
@@ -13802,7 +13820,7 @@
         <v>3.2571442866553814E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
         <v>303</v>
       </c>
@@ -13812,8 +13830,8 @@
       <c r="C284" s="24">
         <v>422.6</v>
       </c>
-      <c r="D284" s="23" t="s">
-        <v>112</v>
+      <c r="D284" s="24">
+        <v>19.424337979718352</v>
       </c>
       <c r="E284" s="22">
         <v>98</v>
@@ -13844,7 +13862,7 @@
         <v>3.2131980116677589E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
         <v>304</v>
       </c>
@@ -13854,8 +13872,8 @@
       <c r="C285" s="24">
         <v>421.5</v>
       </c>
-      <c r="D285" s="23" t="s">
-        <v>112</v>
+      <c r="D285" s="24">
+        <v>19.955432748016758</v>
       </c>
       <c r="E285" s="22">
         <v>103</v>
@@ -13886,7 +13904,7 @@
         <v>3.168177381692687E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
         <v>305</v>
       </c>
@@ -13896,8 +13914,8 @@
       <c r="C286" s="24">
         <v>428.8</v>
       </c>
-      <c r="D286" s="23">
-        <v>1.6</v>
+      <c r="D286" s="24">
+        <v>20.955954091497702</v>
       </c>
       <c r="E286" s="22">
         <v>109</v>
@@ -13928,7 +13946,7 @@
         <v>3.1449998358987825E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
         <v>306</v>
       </c>
@@ -13938,8 +13956,8 @@
       <c r="C287" s="24">
         <v>431.9</v>
       </c>
-      <c r="D287" s="23" t="s">
-        <v>112</v>
+      <c r="D287" s="24">
+        <v>21.440515265993685</v>
       </c>
       <c r="E287" s="22">
         <v>102</v>
@@ -13970,11 +13988,13 @@
         <v>3.1457401862258504E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
-      <c r="D288" s="20"/>
+      <c r="D288" s="24">
+        <v>22.171961629851275</v>
+      </c>
       <c r="E288" s="22"/>
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
@@ -13990,9 +14010,1920 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318"/>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331"/>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334"/>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341"/>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342"/>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343"/>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344"/>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345"/>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346"/>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348"/>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349"/>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350"/>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351"/>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352"/>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353"/>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354"/>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355"/>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356"/>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357"/>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358"/>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359"/>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360"/>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362"/>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363"/>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364"/>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365"/>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366"/>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367"/>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E503"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E507"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E511"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E515"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E519"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E523"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E527"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E531"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E535"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E536"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E538"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E539"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E540"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E542"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E543"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E593"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E597"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E599"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E600"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E601"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E602"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E603"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E604"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E605"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E606"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E607"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E608"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E609"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E610"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E611"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E612"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E613"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E614"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E615"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E616"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E617"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E618"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E619"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E620"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E621"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E622"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E623"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E624"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E625"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E626"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E627"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E628"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E629"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E630"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E631"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E632"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E633"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E634"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E635"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E636"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E637"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E638"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E639"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E640"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E641"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E642"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E643"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E644"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E645"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E646"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E647"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E648"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E649"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E650"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E651"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E652"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E653"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E654"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E655"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E656"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E657"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E658"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E659"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E660"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E661"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E662"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E663"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E664"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E665"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E666"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E667"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E668"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E669"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E670"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E671"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E672"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E673"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E674"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E675"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E676"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E677"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E678"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E679"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E680"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E681"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E682"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E683"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E684"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E685"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E686"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E687"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E688"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E689"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E690"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E691"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E692"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E693"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E694"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E695"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E696"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E697"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E698"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E699"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E700"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E701"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E702"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E703"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E704"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E705"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E706"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E707"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E708"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E709"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E710"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E711"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E712"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E713"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E714"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E715"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E716"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E717"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E718"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E719"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E720"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E721"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E722"/>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E723"/>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E724"/>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E725"/>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E726"/>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E727"/>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E728"/>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E729"/>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E730"/>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E731"/>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E732"/>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E733"/>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E734"/>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E735"/>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E736"/>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E737"/>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E738"/>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E739"/>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E740"/>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E741"/>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E742"/>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E743"/>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E744"/>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E745"/>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E746"/>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E747"/>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E748"/>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E749"/>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E750"/>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E751"/>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E752"/>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E753"/>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E754"/>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E755"/>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E756"/>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E757"/>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E758"/>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E759"/>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E760"/>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E761"/>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E762"/>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E763"/>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E764"/>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E765"/>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E766"/>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E767"/>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E768"/>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E769"/>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E770"/>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E771"/>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E772"/>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E773"/>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E774"/>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E775"/>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E776"/>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E777"/>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E778"/>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E779"/>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E780"/>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E781"/>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E782"/>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E783"/>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E784"/>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E785"/>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E786"/>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E787"/>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E788"/>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E789"/>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E790"/>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E791"/>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E792"/>
+    </row>
+    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E793"/>
+    </row>
+    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E794"/>
+    </row>
+    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E795"/>
+    </row>
+    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E796"/>
+    </row>
+    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E797"/>
+    </row>
+    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E798"/>
+    </row>
+    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E799"/>
+    </row>
+    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E800"/>
+    </row>
+    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E801"/>
+    </row>
+    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E802"/>
+    </row>
+    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E803"/>
+    </row>
+    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E804"/>
+    </row>
+    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E805"/>
+    </row>
+    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E806"/>
+    </row>
+    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E807"/>
+    </row>
+    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E808"/>
+    </row>
+    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E809"/>
+    </row>
+    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E810"/>
+    </row>
+    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E811"/>
+    </row>
+    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E812"/>
+    </row>
+    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E813"/>
+    </row>
+    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E814"/>
+    </row>
+    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E815"/>
+    </row>
+    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E816"/>
+    </row>
+    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E817"/>
+    </row>
+    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E818"/>
+    </row>
+    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E819"/>
+    </row>
+    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E820"/>
+    </row>
+    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E821"/>
+    </row>
+    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E822"/>
+    </row>
+    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E823"/>
+    </row>
+    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E824"/>
+    </row>
+    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E825"/>
+    </row>
+    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E826"/>
+    </row>
+    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E827"/>
+    </row>
+    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E828"/>
+    </row>
+    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E829"/>
+    </row>
+    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E830"/>
+    </row>
+    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E831"/>
+    </row>
+    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E832"/>
+    </row>
+    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E833"/>
+    </row>
+    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E834"/>
+    </row>
+    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E835"/>
+    </row>
+    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E836"/>
+    </row>
+    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E837"/>
+    </row>
+    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E838"/>
+    </row>
+    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E839"/>
+    </row>
+    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E840"/>
+    </row>
+    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E841"/>
+    </row>
+    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E842"/>
+    </row>
+    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E843"/>
+    </row>
+    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E844"/>
+    </row>
+    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E845"/>
+    </row>
+    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E846"/>
+    </row>
+    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E847"/>
+    </row>
+    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E848"/>
+    </row>
+    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E849"/>
+    </row>
+    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E850"/>
+    </row>
+    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E851"/>
+    </row>
+    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E852"/>
+    </row>
+    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E853"/>
+    </row>
+    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E854"/>
+    </row>
+    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E855"/>
+    </row>
+    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E856"/>
+    </row>
+    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E857"/>
+    </row>
+    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E858"/>
+    </row>
+    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E859"/>
+    </row>
+    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E860"/>
+    </row>
+    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E861"/>
+    </row>
+    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E862"/>
+    </row>
+    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E863"/>
+    </row>
+    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E864"/>
+    </row>
+    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E865"/>
+    </row>
+    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E866"/>
+    </row>
+    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E867"/>
+    </row>
+    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E868"/>
+    </row>
+    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E869"/>
+    </row>
+    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E870"/>
+    </row>
+    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E871"/>
+    </row>
+    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E872"/>
+    </row>
+    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E873"/>
+    </row>
+    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E874"/>
+    </row>
+    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E875"/>
+    </row>
+    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E876"/>
+    </row>
+    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E877"/>
+    </row>
+    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E878"/>
+    </row>
+    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E879"/>
+    </row>
+    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E880"/>
+    </row>
+    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E881"/>
+    </row>
+    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E882"/>
+    </row>
+    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E883"/>
+    </row>
+    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E884"/>
+    </row>
+    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E885"/>
+    </row>
+    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E886"/>
+    </row>
+    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E887"/>
+    </row>
+    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E888"/>
+    </row>
+    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E889"/>
+    </row>
+    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E890"/>
+    </row>
+    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E891"/>
+    </row>
+    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E892"/>
+    </row>
+    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E893"/>
+    </row>
+    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E894"/>
+    </row>
+    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E895"/>
+    </row>
+    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E896"/>
+    </row>
+    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E897"/>
+    </row>
+    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E898"/>
+    </row>
+    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E899"/>
+    </row>
+    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E900"/>
+    </row>
+    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E901"/>
+    </row>
+    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E902"/>
+    </row>
+    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E903"/>
+    </row>
+    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E904"/>
+    </row>
+    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E905"/>
+    </row>
+    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E906"/>
+    </row>
+    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E907"/>
+    </row>
+    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E908"/>
+    </row>
+    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E909"/>
+    </row>
+    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E910"/>
+    </row>
+    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E911"/>
+    </row>
+    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E912"/>
+    </row>
+    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E913"/>
+    </row>
+    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E914"/>
+    </row>
+    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E915"/>
+    </row>
+    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E916"/>
+    </row>
+    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E917"/>
+    </row>
+    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E918"/>
+    </row>
+    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E919"/>
+    </row>
+    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E920"/>
+    </row>
+    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E921"/>
+    </row>
+    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E922"/>
+    </row>
+    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E923"/>
+    </row>
+    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E924"/>
+    </row>
+    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E925"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1940,10 +1940,10 @@
   <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\BG_2017\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1038,7 +1033,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1049,7 +1044,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1628,24 +1622,24 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="9"/>
+    <col min="1" max="1" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="195">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1774,7 +1768,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="60">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1836,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="75">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1875,7 +1869,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1902,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="135">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1940,18 +1934,18 @@
   <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A287" sqref="A287"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="23.375" style="13"/>
+    <col min="5" max="5" width="23.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1986,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="20" t="s">
         <v>329</v>
       </c>
@@ -2044,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="22">
         <v>1</v>
@@ -2053,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
       </c>
       <c r="I3" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="21">
         <v>0</v>
@@ -2074,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="20" t="s">
         <v>332</v>
       </c>
@@ -2127,16 +2121,20 @@
         <v>2</v>
       </c>
       <c r="E5" s="22">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="20">
         <v>4</v>
       </c>
-      <c r="G5" s="20"/>
       <c r="H5" s="21">
         <v>5</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="20">
+        <v>7</v>
+      </c>
       <c r="J5" s="21"/>
       <c r="K5" s="20"/>
       <c r="L5" s="21">
@@ -2146,7 +2144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
@@ -2186,7 +2184,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>33</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2606,7 +2604,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -2732,7 +2730,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
@@ -2900,7 +2898,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
@@ -2942,7 +2940,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2984,7 +2982,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
@@ -3026,7 +3024,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
@@ -3068,7 +3066,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
@@ -3152,7 +3150,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>48</v>
       </c>
@@ -3194,7 +3192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
         <v>49</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
         <v>53</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>54</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="14" t="s">
         <v>55</v>
       </c>
@@ -3488,7 +3486,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="14" t="s">
         <v>57</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
@@ -3614,7 +3612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="14" t="s">
         <v>59</v>
       </c>
@@ -3656,7 +3654,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="14" t="s">
         <v>62</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="14" t="s">
         <v>63</v>
       </c>
@@ -3824,7 +3822,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>64</v>
       </c>
@@ -3866,7 +3864,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="14" t="s">
         <v>65</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>66</v>
       </c>
@@ -3950,7 +3948,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="14" t="s">
         <v>67</v>
       </c>
@@ -3992,7 +3990,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>68</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="14" t="s">
         <v>69</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="14" t="s">
         <v>70</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>71</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="14" t="s">
         <v>72</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="14" t="s">
         <v>73</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="14" t="s">
         <v>74</v>
       </c>
@@ -4286,7 +4284,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="14" t="s">
         <v>75</v>
       </c>
@@ -4328,7 +4326,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="14" t="s">
         <v>77</v>
       </c>
@@ -4412,7 +4410,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
         <v>78</v>
       </c>
@@ -4454,7 +4452,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="14" t="s">
         <v>79</v>
       </c>
@@ -4496,7 +4494,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="14" t="s">
         <v>80</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="14" t="s">
         <v>81</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="14" t="s">
         <v>82</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="14" t="s">
         <v>84</v>
       </c>
@@ -4706,7 +4704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="14" t="s">
         <v>85</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="14" t="s">
         <v>86</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="14" t="s">
         <v>87</v>
       </c>
@@ -4832,7 +4830,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="14" t="s">
         <v>88</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="14" t="s">
         <v>89</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="14" t="s">
         <v>90</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="14" t="s">
         <v>91</v>
       </c>
@@ -5000,7 +4998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="14" t="s">
         <v>92</v>
       </c>
@@ -5042,7 +5040,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="14" t="s">
         <v>93</v>
       </c>
@@ -5084,7 +5082,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="14" t="s">
         <v>94</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="14" t="s">
         <v>95</v>
       </c>
@@ -5168,7 +5166,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="14" t="s">
         <v>96</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="14" t="s">
         <v>97</v>
       </c>
@@ -5252,7 +5250,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="14" t="s">
         <v>98</v>
       </c>
@@ -5294,7 +5292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="14" t="s">
         <v>99</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="14" t="s">
         <v>100</v>
       </c>
@@ -5378,7 +5376,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="14" t="s">
         <v>101</v>
       </c>
@@ -5420,7 +5418,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="14" t="s">
         <v>102</v>
       </c>
@@ -5462,7 +5460,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="14" t="s">
         <v>103</v>
       </c>
@@ -5504,7 +5502,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="14" t="s">
         <v>104</v>
       </c>
@@ -5546,7 +5544,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="14" t="s">
         <v>105</v>
       </c>
@@ -5588,7 +5586,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="14" t="s">
         <v>106</v>
       </c>
@@ -5630,7 +5628,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="14" t="s">
         <v>107</v>
       </c>
@@ -5672,7 +5670,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="14" t="s">
         <v>108</v>
       </c>
@@ -5714,7 +5712,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="14" t="s">
         <v>109</v>
       </c>
@@ -5756,7 +5754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="14" t="s">
         <v>110</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="14" t="s">
         <v>111</v>
       </c>
@@ -5840,7 +5838,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="14" t="s">
         <v>113</v>
       </c>
@@ -5882,7 +5880,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="14" t="s">
         <v>114</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="14" t="s">
         <v>115</v>
       </c>
@@ -5966,7 +5964,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="14" t="s">
         <v>116</v>
       </c>
@@ -6008,7 +6006,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="14" t="s">
         <v>117</v>
       </c>
@@ -6050,7 +6048,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="14" t="s">
         <v>118</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="14" t="s">
         <v>119</v>
       </c>
@@ -6134,7 +6132,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" s="14" t="s">
         <v>120</v>
       </c>
@@ -6176,7 +6174,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" s="14" t="s">
         <v>121</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="14" t="s">
         <v>122</v>
       </c>
@@ -6260,7 +6258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="14" t="s">
         <v>123</v>
       </c>
@@ -6302,7 +6300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" s="14" t="s">
         <v>124</v>
       </c>
@@ -6344,7 +6342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="14" t="s">
         <v>125</v>
       </c>
@@ -6386,7 +6384,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" s="14" t="s">
         <v>126</v>
       </c>
@@ -6428,7 +6426,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" s="14" t="s">
         <v>127</v>
       </c>
@@ -6470,7 +6468,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="14" t="s">
         <v>128</v>
       </c>
@@ -6512,7 +6510,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="14" t="s">
         <v>129</v>
       </c>
@@ -6554,7 +6552,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" s="14" t="s">
         <v>130</v>
       </c>
@@ -6596,7 +6594,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="14" t="s">
         <v>131</v>
       </c>
@@ -6638,7 +6636,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" s="14" t="s">
         <v>132</v>
       </c>
@@ -6680,7 +6678,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" s="14" t="s">
         <v>133</v>
       </c>
@@ -6722,7 +6720,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" s="14" t="s">
         <v>134</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" s="14" t="s">
         <v>135</v>
       </c>
@@ -6806,7 +6804,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" s="14" t="s">
         <v>136</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" s="14" t="s">
         <v>137</v>
       </c>
@@ -6890,7 +6888,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" s="14" t="s">
         <v>138</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" s="14" t="s">
         <v>139</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" s="14" t="s">
         <v>140</v>
       </c>
@@ -7016,7 +7014,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" s="14" t="s">
         <v>141</v>
       </c>
@@ -7058,7 +7056,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" s="14" t="s">
         <v>142</v>
       </c>
@@ -7100,7 +7098,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" s="14" t="s">
         <v>143</v>
       </c>
@@ -7142,7 +7140,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" s="14" t="s">
         <v>144</v>
       </c>
@@ -7184,7 +7182,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" s="14" t="s">
         <v>145</v>
       </c>
@@ -7226,7 +7224,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" s="14" t="s">
         <v>146</v>
       </c>
@@ -7268,7 +7266,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" s="14" t="s">
         <v>147</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" s="14" t="s">
         <v>148</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" s="14" t="s">
         <v>149</v>
       </c>
@@ -7394,7 +7392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" s="14" t="s">
         <v>150</v>
       </c>
@@ -7436,7 +7434,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" s="14" t="s">
         <v>151</v>
       </c>
@@ -7478,7 +7476,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" s="14" t="s">
         <v>152</v>
       </c>
@@ -7520,7 +7518,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" s="14" t="s">
         <v>153</v>
       </c>
@@ -7562,7 +7560,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" s="14" t="s">
         <v>154</v>
       </c>
@@ -7604,7 +7602,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" s="14" t="s">
         <v>155</v>
       </c>
@@ -7646,7 +7644,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" s="14" t="s">
         <v>156</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" s="14" t="s">
         <v>157</v>
       </c>
@@ -7730,7 +7728,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" s="14" t="s">
         <v>158</v>
       </c>
@@ -7772,7 +7770,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" s="14" t="s">
         <v>159</v>
       </c>
@@ -7814,7 +7812,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" s="14" t="s">
         <v>160</v>
       </c>
@@ -7856,7 +7854,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" s="14" t="s">
         <v>161</v>
       </c>
@@ -7898,7 +7896,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" s="14" t="s">
         <v>162</v>
       </c>
@@ -7940,7 +7938,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" s="14" t="s">
         <v>163</v>
       </c>
@@ -7982,7 +7980,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" s="14" t="s">
         <v>164</v>
       </c>
@@ -8024,7 +8022,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" s="14" t="s">
         <v>165</v>
       </c>
@@ -8066,7 +8064,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" s="14" t="s">
         <v>166</v>
       </c>
@@ -8108,7 +8106,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" s="14" t="s">
         <v>167</v>
       </c>
@@ -8150,7 +8148,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" s="14" t="s">
         <v>168</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" s="14" t="s">
         <v>169</v>
       </c>
@@ -8234,7 +8232,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" s="14" t="s">
         <v>170</v>
       </c>
@@ -8276,7 +8274,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" s="14" t="s">
         <v>171</v>
       </c>
@@ -8318,7 +8316,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" s="14" t="s">
         <v>172</v>
       </c>
@@ -8360,7 +8358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" s="14" t="s">
         <v>173</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" s="14" t="s">
         <v>174</v>
       </c>
@@ -8444,7 +8442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" s="14" t="s">
         <v>175</v>
       </c>
@@ -8486,7 +8484,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" s="14" t="s">
         <v>176</v>
       </c>
@@ -8528,7 +8526,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" s="14" t="s">
         <v>177</v>
       </c>
@@ -8570,7 +8568,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" s="14" t="s">
         <v>178</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" s="14" t="s">
         <v>179</v>
       </c>
@@ -8654,7 +8652,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="14" t="s">
         <v>180</v>
       </c>
@@ -8696,7 +8694,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" s="14" t="s">
         <v>181</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" s="14" t="s">
         <v>182</v>
       </c>
@@ -8780,7 +8778,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" s="14" t="s">
         <v>183</v>
       </c>
@@ -8822,7 +8820,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" s="14" t="s">
         <v>184</v>
       </c>
@@ -8864,7 +8862,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" s="14" t="s">
         <v>185</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" s="14" t="s">
         <v>186</v>
       </c>
@@ -8948,7 +8946,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" s="14" t="s">
         <v>187</v>
       </c>
@@ -8990,7 +8988,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" s="14" t="s">
         <v>188</v>
       </c>
@@ -9032,7 +9030,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" s="14" t="s">
         <v>189</v>
       </c>
@@ -9074,7 +9072,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" s="14" t="s">
         <v>190</v>
       </c>
@@ -9116,7 +9114,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" s="14" t="s">
         <v>191</v>
       </c>
@@ -9158,7 +9156,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" s="14" t="s">
         <v>192</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" s="14" t="s">
         <v>193</v>
       </c>
@@ -9242,7 +9240,7 @@
         <v>0.8126022913256955</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" s="14" t="s">
         <v>194</v>
       </c>
@@ -9284,7 +9282,7 @@
         <v>0.77679290894439978</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" s="14" t="s">
         <v>195</v>
       </c>
@@ -9326,7 +9324,7 @@
         <v>0.7548076923076924</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" s="14" t="s">
         <v>196</v>
       </c>
@@ -9368,7 +9366,7 @@
         <v>0.73396674584323041</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" s="14" t="s">
         <v>197</v>
       </c>
@@ -9410,7 +9408,7 @@
         <v>0.73017107309486784</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" s="14" t="s">
         <v>198</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>0.72671285604311009</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" s="14" t="s">
         <v>199</v>
       </c>
@@ -9494,7 +9492,7 @@
         <v>0.71849056603773587</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" s="14" t="s">
         <v>200</v>
       </c>
@@ -9536,7 +9534,7 @@
         <v>0.67287630402384502</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" s="14" t="s">
         <v>201</v>
       </c>
@@ -9578,7 +9576,7 @@
         <v>0.67062314540059342</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" s="14" t="s">
         <v>202</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>0.65294117647058825</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" s="14" t="s">
         <v>203</v>
       </c>
@@ -9662,7 +9660,7 @@
         <v>0.63795620437956213</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" s="14" t="s">
         <v>204</v>
       </c>
@@ -9704,7 +9702,7 @@
         <v>0.62662807525325614</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" s="14" t="s">
         <v>205</v>
       </c>
@@ -9746,7 +9744,7 @@
         <v>0.61897915168943207</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" s="14" t="s">
         <v>206</v>
       </c>
@@ -9788,7 +9786,7 @@
         <v>0.59743040685224846</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" s="14" t="s">
         <v>207</v>
       </c>
@@ -9830,7 +9828,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" s="14" t="s">
         <v>208</v>
       </c>
@@ -9872,7 +9870,7 @@
         <v>0.57132817990161622</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" s="14" t="s">
         <v>209</v>
       </c>
@@ -9914,7 +9912,7 @@
         <v>0.56454989532449407</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" s="14" t="s">
         <v>210</v>
       </c>
@@ -9956,7 +9954,7 @@
         <v>0.55301455301455293</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" s="14" t="s">
         <v>211</v>
       </c>
@@ -9998,7 +9996,7 @@
         <v>0.53448275862068961</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" s="14" t="s">
         <v>212</v>
       </c>
@@ -10040,7 +10038,7 @@
         <v>0.51332877648667119</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" s="14" t="s">
         <v>213</v>
       </c>
@@ -10082,7 +10080,7 @@
         <v>0.50033990482664847</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" s="14" t="s">
         <v>214</v>
       </c>
@@ -10124,7 +10122,7 @@
         <v>0.49290060851926981</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" s="14" t="s">
         <v>215</v>
       </c>
@@ -10166,7 +10164,7 @@
         <v>0.4688546550569323</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" s="14" t="s">
         <v>216</v>
       </c>
@@ -10208,7 +10206,7 @@
         <v>0.45502998001332445</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" s="14" t="s">
         <v>217</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>0.42460317460317465</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" s="14" t="s">
         <v>218</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>0.42388451443569547</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" s="14" t="s">
         <v>219</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>0.41476159372958854</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" s="14" t="s">
         <v>220</v>
       </c>
@@ -10376,7 +10374,7 @@
         <v>0.39636127355425599</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" s="14" t="s">
         <v>221</v>
       </c>
@@ -10418,7 +10416,7 @@
         <v>0.38842443729903536</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" s="14" t="s">
         <v>222</v>
       </c>
@@ -10460,7 +10458,7 @@
         <v>0.37141033822590941</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" s="14" t="s">
         <v>223</v>
       </c>
@@ -10502,7 +10500,7 @@
         <v>0.35066582117945466</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" s="14" t="s">
         <v>224</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>0.33878064110622252</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" s="14" t="s">
         <v>225</v>
       </c>
@@ -10586,7 +10584,7 @@
         <v>0.32790988735919896</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" s="14" t="s">
         <v>226</v>
       </c>
@@ -10628,7 +10626,7 @@
         <v>0.31148564294631714</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" s="14" t="s">
         <v>227</v>
       </c>
@@ -10670,7 +10668,7 @@
         <v>0.30086848635235736</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" s="14" t="s">
         <v>228</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>0.29295426452410378</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" s="14" t="s">
         <v>229</v>
       </c>
@@ -10754,7 +10752,7 @@
         <v>0.26790123456790121</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" s="14" t="s">
         <v>230</v>
       </c>
@@ -10796,7 +10794,7 @@
         <v>0.24938574938574937</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" s="14" t="s">
         <v>231</v>
       </c>
@@ -10838,7 +10836,7 @@
         <v>0.22446483180428137</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" s="14" t="s">
         <v>232</v>
       </c>
@@ -10880,7 +10878,7 @@
         <v>0.21167883211678828</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" s="14" t="s">
         <v>233</v>
       </c>
@@ -10922,7 +10920,7 @@
         <v>0.19660194174757278</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" s="14" t="s">
         <v>234</v>
       </c>
@@ -10964,7 +10962,7 @@
         <v>0.17951807228915664</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" s="14" t="s">
         <v>235</v>
       </c>
@@ -11006,7 +11004,7 @@
         <v>0.17461263408820024</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" s="14" t="s">
         <v>236</v>
       </c>
@@ -11048,7 +11046,7 @@
         <v>0.16706161137440756</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" s="14" t="s">
         <v>237</v>
       </c>
@@ -11090,7 +11088,7 @@
         <v>0.1590643274853801</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" s="14" t="s">
         <v>238</v>
       </c>
@@ -11132,7 +11130,7 @@
         <v>0.15098722415795587</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" s="14" t="s">
         <v>239</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>0.14400921658986177</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" s="14" t="s">
         <v>240</v>
       </c>
@@ -11216,7 +11214,7 @@
         <v>0.13631156930126004</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" s="14" t="s">
         <v>241</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>0.12776831345826237</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" s="14" t="s">
         <v>242</v>
       </c>
@@ -11300,7 +11298,7 @@
         <v>0.12042768711311198</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" s="14" t="s">
         <v>243</v>
       </c>
@@ -11342,7 +11340,7 @@
         <v>0.11398090960134756</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" s="14" t="s">
         <v>244</v>
       </c>
@@ -11384,7 +11382,7 @@
         <v>0.11161217587373168</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" s="14" t="s">
         <v>245</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>0.10532212885154062</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" s="14" t="s">
         <v>246</v>
       </c>
@@ -11468,7 +11466,7 @@
         <v>0.10244988864142539</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" s="14" t="s">
         <v>247</v>
       </c>
@@ -11510,7 +11508,7 @@
         <v>9.8451327433628319E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13">
       <c r="A229" s="14" t="s">
         <v>248</v>
       </c>
@@ -11552,7 +11550,7 @@
         <v>9.4609460946094598E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13">
       <c r="A230" s="14" t="s">
         <v>249</v>
       </c>
@@ -11594,7 +11592,7 @@
         <v>9.1353996737357265E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13">
       <c r="A231" s="14" t="s">
         <v>250</v>
       </c>
@@ -11636,7 +11634,7 @@
         <v>8.8476242490442378E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13">
       <c r="A232" s="14" t="s">
         <v>251</v>
       </c>
@@ -11678,7 +11676,7 @@
         <v>8.4278768233387355E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13">
       <c r="A233" s="14" t="s">
         <v>252</v>
       </c>
@@ -11720,7 +11718,7 @@
         <v>8.2479784366576825E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13">
       <c r="A234" s="14" t="s">
         <v>253</v>
       </c>
@@ -11762,7 +11760,7 @@
         <v>8.1239978621058251E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13">
       <c r="A235" s="14" t="s">
         <v>254</v>
       </c>
@@ -11804,7 +11802,7 @@
         <v>7.8877713075701433E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13">
       <c r="A236" s="14" t="s">
         <v>255</v>
       </c>
@@ -11846,7 +11844,7 @@
         <v>7.7449947312961009E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13">
       <c r="A237" s="14" t="s">
         <v>256</v>
       </c>
@@ -11888,7 +11886,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13">
       <c r="A238" s="14" t="s">
         <v>257</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>7.2501294665976185E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13">
       <c r="A239" s="14" t="s">
         <v>258</v>
       </c>
@@ -11972,7 +11970,7 @@
         <v>7.0211667527103769E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13">
       <c r="A240" s="14" t="s">
         <v>259</v>
       </c>
@@ -12014,7 +12012,7 @@
         <v>6.6901408450704219E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" s="14" t="s">
         <v>260</v>
       </c>
@@ -12056,7 +12054,7 @@
         <v>6.6128218071680969E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" s="14" t="s">
         <v>261</v>
       </c>
@@ -12098,7 +12096,7 @@
         <v>6.5097646469704562E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" s="14" t="s">
         <v>262</v>
       </c>
@@ -12140,7 +12138,7 @@
         <v>6.2933597621407322E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" s="14" t="s">
         <v>263</v>
       </c>
@@ -12182,7 +12180,7 @@
         <v>6.0650887573964495E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" s="14" t="s">
         <v>264</v>
       </c>
@@ -12224,7 +12222,7 @@
         <v>5.5145248645987195E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" s="14" t="s">
         <v>265</v>
       </c>
@@ -12266,7 +12264,7 @@
         <v>5.2901289895171656E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" s="14" t="s">
         <v>266</v>
       </c>
@@ -12308,7 +12306,7 @@
         <v>5.1135431444647113E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" s="14" t="s">
         <v>267</v>
       </c>
@@ -12350,7 +12348,7 @@
         <v>5.0238075829429338E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" s="14" t="s">
         <v>268</v>
       </c>
@@ -12392,7 +12390,7 @@
         <v>4.8310435337794701E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" s="14" t="s">
         <v>269</v>
       </c>
@@ -12434,7 +12432,7 @@
         <v>4.8002323750983844E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" s="14" t="s">
         <v>270</v>
       </c>
@@ -12476,7 +12474,7 @@
         <v>4.6311326524512218E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" s="14" t="s">
         <v>271</v>
       </c>
@@ -12518,7 +12516,7 @@
         <v>4.5235451874797258E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" s="14" t="s">
         <v>272</v>
       </c>
@@ -12560,7 +12558,7 @@
         <v>4.6859478329974745E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" s="14" t="s">
         <v>273</v>
       </c>
@@ -12602,7 +12600,7 @@
         <v>4.6457563707381348E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" s="14" t="s">
         <v>274</v>
       </c>
@@ -12644,7 +12642,7 @@
         <v>4.530471623446157E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" s="14" t="s">
         <v>275</v>
       </c>
@@ -12686,7 +12684,7 @@
         <v>4.3856926448038326E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" s="14" t="s">
         <v>276</v>
       </c>
@@ -12728,7 +12726,7 @@
         <v>4.3354635674750515E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" s="14" t="s">
         <v>277</v>
       </c>
@@ -12770,7 +12768,7 @@
         <v>4.3946943451436141E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" s="14" t="s">
         <v>278</v>
       </c>
@@ -12812,7 +12810,7 @@
         <v>4.3379573570780712E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" s="14" t="s">
         <v>279</v>
       </c>
@@ -12854,7 +12852,7 @@
         <v>4.278547703584927E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" s="14" t="s">
         <v>280</v>
       </c>
@@ -12896,7 +12894,7 @@
         <v>4.1873798033310344E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13">
       <c r="A262" s="14" t="s">
         <v>281</v>
       </c>
@@ -12938,7 +12936,7 @@
         <v>4.1229163490939087E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13">
       <c r="A263" s="14" t="s">
         <v>282</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>4.0203553285944327E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" s="14" t="s">
         <v>283</v>
       </c>
@@ -13022,7 +13020,7 @@
         <v>3.9329735168603296E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" s="14" t="s">
         <v>284</v>
       </c>
@@ -13064,7 +13062,7 @@
         <v>3.8807691122817671E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" s="14" t="s">
         <v>285</v>
       </c>
@@ -13106,7 +13104,7 @@
         <v>3.8731332520421144E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" s="14" t="s">
         <v>286</v>
       </c>
@@ -13148,7 +13146,7 @@
         <v>3.8674274912044247E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13">
       <c r="A268" s="14" t="s">
         <v>287</v>
       </c>
@@ -13190,7 +13188,7 @@
         <v>3.7261649676427942E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" s="14" t="s">
         <v>288</v>
       </c>
@@ -13232,7 +13230,7 @@
         <v>3.6882463098075004E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" s="14" t="s">
         <v>289</v>
       </c>
@@ -13274,7 +13272,7 @@
         <v>3.7361331731948909E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" s="14" t="s">
         <v>290</v>
       </c>
@@ -13316,7 +13314,7 @@
         <v>3.6729582483410364E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" s="14" t="s">
         <v>291</v>
       </c>
@@ -13358,7 +13356,7 @@
         <v>3.6206512806464863E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13">
       <c r="A273" s="14" t="s">
         <v>292</v>
       </c>
@@ -13400,7 +13398,7 @@
         <v>3.5752780937530614E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13">
       <c r="A274" s="14" t="s">
         <v>293</v>
       </c>
@@ -13442,7 +13440,7 @@
         <v>3.5689767690208409E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13">
       <c r="A275" s="14" t="s">
         <v>294</v>
       </c>
@@ -13484,7 +13482,7 @@
         <v>3.5426044914335375E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13">
       <c r="A276" s="14" t="s">
         <v>295</v>
       </c>
@@ -13526,7 +13524,7 @@
         <v>3.4928374725246965E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13">
       <c r="A277" s="14" t="s">
         <v>296</v>
       </c>
@@ -13568,7 +13566,7 @@
         <v>3.4626941470227268E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13">
       <c r="A278" s="14" t="s">
         <v>297</v>
       </c>
@@ -13610,7 +13608,7 @@
         <v>3.4734669836305923E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13">
       <c r="A279" s="14" t="s">
         <v>298</v>
       </c>
@@ -13652,7 +13650,7 @@
         <v>3.4062143299398953E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13">
       <c r="A280" s="14" t="s">
         <v>299</v>
       </c>
@@ -13694,7 +13692,7 @@
         <v>3.3389902596992427E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13">
       <c r="A281" s="14" t="s">
         <v>300</v>
       </c>
@@ -13736,7 +13734,7 @@
         <v>3.319795161575137E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13">
       <c r="A282" s="14" t="s">
         <v>301</v>
       </c>
@@ -13778,7 +13776,7 @@
         <v>3.3262208183872509E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13">
       <c r="A283" s="14" t="s">
         <v>302</v>
       </c>
@@ -13820,7 +13818,7 @@
         <v>3.2571442866553814E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13">
       <c r="A284" s="14" t="s">
         <v>303</v>
       </c>
@@ -13862,7 +13860,7 @@
         <v>3.2131980116677589E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13">
       <c r="A285" s="14" t="s">
         <v>304</v>
       </c>
@@ -13904,7 +13902,7 @@
         <v>3.168177381692687E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13">
       <c r="A286" s="14" t="s">
         <v>305</v>
       </c>
@@ -13946,7 +13944,7 @@
         <v>3.1449998358987825E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13">
       <c r="A287" s="14" t="s">
         <v>306</v>
       </c>
@@ -13988,7 +13986,7 @@
         <v>3.1457401862258504E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
@@ -14010,1920 +14008,1920 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5">
       <c r="E289"/>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5">
       <c r="E290"/>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5">
       <c r="E291"/>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5">
       <c r="E292"/>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5">
       <c r="E293"/>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5">
       <c r="E294"/>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5">
       <c r="E295"/>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5">
       <c r="E296"/>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5">
       <c r="E297"/>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5">
       <c r="E298"/>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5">
       <c r="E299"/>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5">
       <c r="E300"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5">
       <c r="E301"/>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5">
       <c r="E302"/>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5">
       <c r="E303"/>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5">
       <c r="E304"/>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5">
       <c r="E305"/>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5">
       <c r="E306"/>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5">
       <c r="E307"/>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5">
       <c r="E308"/>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5">
       <c r="E309"/>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5">
       <c r="E310"/>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5">
       <c r="E311"/>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5">
       <c r="E312"/>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5">
       <c r="E313"/>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5">
       <c r="E314"/>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5">
       <c r="E315"/>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5">
       <c r="E316"/>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5">
       <c r="E317"/>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5">
       <c r="E318"/>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5">
       <c r="E319"/>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5">
       <c r="E320"/>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5">
       <c r="E321"/>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5">
       <c r="E322"/>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5">
       <c r="E323"/>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5">
       <c r="E324"/>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5">
       <c r="E325"/>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5">
       <c r="E326"/>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5">
       <c r="E327"/>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5">
       <c r="E328"/>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5">
       <c r="E329"/>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5">
       <c r="E330"/>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5">
       <c r="E331"/>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5">
       <c r="E332"/>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5">
       <c r="E333"/>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5">
       <c r="E334"/>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5">
       <c r="E335"/>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5">
       <c r="E336"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5">
       <c r="E337"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5">
       <c r="E338"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5">
       <c r="E339"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5">
       <c r="E340"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5">
       <c r="E341"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5">
       <c r="E342"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5">
       <c r="E343"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5">
       <c r="E344"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5">
       <c r="E345"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5">
       <c r="E346"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5">
       <c r="E347"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5">
       <c r="E348"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5">
       <c r="E349"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5">
       <c r="E350"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5">
       <c r="E351"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5">
       <c r="E352"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5">
       <c r="E353"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5">
       <c r="E354"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5">
       <c r="E355"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5">
       <c r="E356"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5">
       <c r="E357"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5">
       <c r="E358"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5">
       <c r="E359"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5">
       <c r="E360"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5">
       <c r="E361"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5">
       <c r="E362"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5">
       <c r="E363"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5">
       <c r="E364"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5">
       <c r="E365"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5">
       <c r="E366"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5">
       <c r="E367"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5">
       <c r="E368"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5">
       <c r="E369"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5">
       <c r="E370"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5">
       <c r="E371"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5">
       <c r="E372"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5">
       <c r="E373"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5">
       <c r="E374"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5">
       <c r="E375"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5">
       <c r="E376"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5">
       <c r="E377"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5">
       <c r="E378"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5">
       <c r="E379"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5">
       <c r="E380"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5">
       <c r="E381"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5">
       <c r="E382"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5">
       <c r="E383"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5">
       <c r="E384"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5">
       <c r="E385"/>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5">
       <c r="E386"/>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5">
       <c r="E387"/>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5">
       <c r="E388"/>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5">
       <c r="E389"/>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5">
       <c r="E390"/>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5">
       <c r="E391"/>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5">
       <c r="E392"/>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5">
       <c r="E393"/>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5">
       <c r="E394"/>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5">
       <c r="E395"/>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5">
       <c r="E396"/>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5">
       <c r="E397"/>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5">
       <c r="E398"/>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5">
       <c r="E399"/>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5">
       <c r="E400"/>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5">
       <c r="E401"/>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5">
       <c r="E402"/>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5">
       <c r="E403"/>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5">
       <c r="E404"/>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5">
       <c r="E405"/>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5">
       <c r="E406"/>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5">
       <c r="E407"/>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5">
       <c r="E408"/>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5">
       <c r="E409"/>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5">
       <c r="E410"/>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5">
       <c r="E411"/>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5">
       <c r="E412"/>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5">
       <c r="E413"/>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5">
       <c r="E414"/>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5">
       <c r="E415"/>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5">
       <c r="E435"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5">
       <c r="E436"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5">
       <c r="E437"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5">
       <c r="E438"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5">
       <c r="E439"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5">
       <c r="E440"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5">
       <c r="E441"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5">
       <c r="E442"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5">
       <c r="E443"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5">
       <c r="E444"/>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5">
       <c r="E445"/>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5">
       <c r="E446"/>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5">
       <c r="E447"/>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5">
       <c r="E448"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5">
       <c r="E449"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5">
       <c r="E450"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5">
       <c r="E451"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5">
       <c r="E452"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5">
       <c r="E453"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5">
       <c r="E454"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5">
       <c r="E455"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5">
       <c r="E456"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5">
       <c r="E457"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5">
       <c r="E458"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5">
       <c r="E459"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5">
       <c r="E460"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5">
       <c r="E461"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5">
       <c r="E462"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5">
       <c r="E463"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5">
       <c r="E464"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5">
       <c r="E465"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5">
       <c r="E466"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5">
       <c r="E467"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5">
       <c r="E468"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5">
       <c r="E469"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5">
       <c r="E470"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5">
       <c r="E471"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5">
       <c r="E472"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5">
       <c r="E473"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5">
       <c r="E474"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5">
       <c r="E475"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5">
       <c r="E476"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5">
       <c r="E477"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5">
       <c r="E478"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5">
       <c r="E479"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5">
       <c r="E480"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5">
       <c r="E481"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5">
       <c r="E482"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5">
       <c r="E483"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5">
       <c r="E484"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5">
       <c r="E485"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5">
       <c r="E486"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5">
       <c r="E487"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5">
       <c r="E488"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5">
       <c r="E489"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5">
       <c r="E490"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5">
       <c r="E491"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5">
       <c r="E492"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5">
       <c r="E493"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5">
       <c r="E494"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5">
       <c r="E495"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5">
       <c r="E496"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5">
       <c r="E497"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5">
       <c r="E498"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5">
       <c r="E499"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5">
       <c r="E500"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5">
       <c r="E501"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5">
       <c r="E502"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5">
       <c r="E503"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5">
       <c r="E504"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5">
       <c r="E505"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5">
       <c r="E506"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5">
       <c r="E507"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5">
       <c r="E508"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5">
       <c r="E509"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5">
       <c r="E510"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5">
       <c r="E511"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5">
       <c r="E512"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5">
       <c r="E513"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5">
       <c r="E514"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5">
       <c r="E515"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5">
       <c r="E516"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5">
       <c r="E517"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5">
       <c r="E518"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5">
       <c r="E519"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5">
       <c r="E520"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5">
       <c r="E521"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5">
       <c r="E522"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5">
       <c r="E523"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5">
       <c r="E524"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5">
       <c r="E525"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5">
       <c r="E526"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5">
       <c r="E527"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5">
       <c r="E528"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5">
       <c r="E529"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5">
       <c r="E530"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5">
       <c r="E531"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5">
       <c r="E532"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5">
       <c r="E533"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5">
       <c r="E534"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5">
       <c r="E535"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5">
       <c r="E536"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5">
       <c r="E537"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5">
       <c r="E538"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5">
       <c r="E539"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5">
       <c r="E540"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5">
       <c r="E541"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5">
       <c r="E542"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5">
       <c r="E543"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5">
       <c r="E544"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5">
       <c r="E545"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5">
       <c r="E546"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5">
       <c r="E547"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5">
       <c r="E548"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5">
       <c r="E549"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5">
       <c r="E550"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5">
       <c r="E551"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5">
       <c r="E552"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5">
       <c r="E553"/>
     </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5">
       <c r="E554"/>
     </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5">
       <c r="E555"/>
     </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5">
       <c r="E556"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5">
       <c r="E557"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5">
       <c r="E558"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5">
       <c r="E559"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5">
       <c r="E560"/>
     </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5">
       <c r="E561"/>
     </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5">
       <c r="E562"/>
     </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5">
       <c r="E563"/>
     </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5">
       <c r="E564"/>
     </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5">
       <c r="E565"/>
     </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5">
       <c r="E566"/>
     </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5">
       <c r="E567"/>
     </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5">
       <c r="E568"/>
     </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5">
       <c r="E569"/>
     </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5">
       <c r="E570"/>
     </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5">
       <c r="E571"/>
     </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5">
       <c r="E572"/>
     </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5">
       <c r="E573"/>
     </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5">
       <c r="E574"/>
     </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5">
       <c r="E575"/>
     </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5">
       <c r="E576"/>
     </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5">
       <c r="E577"/>
     </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5">
       <c r="E578"/>
     </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5">
       <c r="E579"/>
     </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5">
       <c r="E580"/>
     </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5">
       <c r="E581"/>
     </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5">
       <c r="E582"/>
     </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5">
       <c r="E583"/>
     </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5">
       <c r="E584"/>
     </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5">
       <c r="E585"/>
     </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5">
       <c r="E586"/>
     </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5">
       <c r="E587"/>
     </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5">
       <c r="E588"/>
     </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5">
       <c r="E589"/>
     </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5">
       <c r="E590"/>
     </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5">
       <c r="E591"/>
     </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5">
       <c r="E592"/>
     </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5">
       <c r="E593"/>
     </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5">
       <c r="E594"/>
     </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5">
       <c r="E595"/>
     </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5">
       <c r="E596"/>
     </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5">
       <c r="E597"/>
     </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5">
       <c r="E598"/>
     </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5">
       <c r="E599"/>
     </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5">
       <c r="E600"/>
     </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5">
       <c r="E601"/>
     </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5">
       <c r="E602"/>
     </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5">
       <c r="E603"/>
     </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5">
       <c r="E604"/>
     </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5">
       <c r="E605"/>
     </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5">
       <c r="E606"/>
     </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5">
       <c r="E607"/>
     </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5">
       <c r="E608"/>
     </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5">
       <c r="E609"/>
     </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5">
       <c r="E610"/>
     </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5">
       <c r="E611"/>
     </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5">
       <c r="E612"/>
     </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5">
       <c r="E613"/>
     </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5">
       <c r="E614"/>
     </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5">
       <c r="E615"/>
     </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5">
       <c r="E616"/>
     </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5">
       <c r="E617"/>
     </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5">
       <c r="E618"/>
     </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5">
       <c r="E619"/>
     </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5">
       <c r="E620"/>
     </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5">
       <c r="E621"/>
     </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5">
       <c r="E622"/>
     </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5">
       <c r="E623"/>
     </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5">
       <c r="E624"/>
     </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5">
       <c r="E625"/>
     </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5">
       <c r="E626"/>
     </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5">
       <c r="E627"/>
     </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5">
       <c r="E628"/>
     </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5">
       <c r="E629"/>
     </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5">
       <c r="E630"/>
     </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5">
       <c r="E631"/>
     </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5">
       <c r="E632"/>
     </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5">
       <c r="E633"/>
     </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5">
       <c r="E634"/>
     </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5">
       <c r="E635"/>
     </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5">
       <c r="E636"/>
     </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5">
       <c r="E637"/>
     </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5">
       <c r="E638"/>
     </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5">
       <c r="E639"/>
     </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5">
       <c r="E640"/>
     </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5">
       <c r="E641"/>
     </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5">
       <c r="E642"/>
     </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5">
       <c r="E643"/>
     </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5">
       <c r="E644"/>
     </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5">
       <c r="E645"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5">
       <c r="E646"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5">
       <c r="E647"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5">
       <c r="E648"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5">
       <c r="E649"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5">
       <c r="E650"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5">
       <c r="E651"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5">
       <c r="E652"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5">
       <c r="E653"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5">
       <c r="E654"/>
     </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5">
       <c r="E655"/>
     </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5">
       <c r="E656"/>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5">
       <c r="E657"/>
     </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5">
       <c r="E658"/>
     </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5">
       <c r="E659"/>
     </row>
-    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5">
       <c r="E660"/>
     </row>
-    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5">
       <c r="E661"/>
     </row>
-    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5">
       <c r="E662"/>
     </row>
-    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5">
       <c r="E663"/>
     </row>
-    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5">
       <c r="E664"/>
     </row>
-    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5">
       <c r="E665"/>
     </row>
-    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5">
       <c r="E666"/>
     </row>
-    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5">
       <c r="E667"/>
     </row>
-    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5">
       <c r="E668"/>
     </row>
-    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5">
       <c r="E669"/>
     </row>
-    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5">
       <c r="E670"/>
     </row>
-    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5">
       <c r="E671"/>
     </row>
-    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5">
       <c r="E672"/>
     </row>
-    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5">
       <c r="E673"/>
     </row>
-    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5">
       <c r="E674"/>
     </row>
-    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5">
       <c r="E675"/>
     </row>
-    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5">
       <c r="E676"/>
     </row>
-    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5">
       <c r="E677"/>
     </row>
-    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5">
       <c r="E678"/>
     </row>
-    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5">
       <c r="E679"/>
     </row>
-    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5">
       <c r="E680"/>
     </row>
-    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5">
       <c r="E681"/>
     </row>
-    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5">
       <c r="E682"/>
     </row>
-    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5">
       <c r="E683"/>
     </row>
-    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5">
       <c r="E684"/>
     </row>
-    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5">
       <c r="E685"/>
     </row>
-    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5">
       <c r="E686"/>
     </row>
-    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5">
       <c r="E687"/>
     </row>
-    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5">
       <c r="E688"/>
     </row>
-    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5">
       <c r="E689"/>
     </row>
-    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5">
       <c r="E690"/>
     </row>
-    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5">
       <c r="E691"/>
     </row>
-    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5">
       <c r="E692"/>
     </row>
-    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5">
       <c r="E693"/>
     </row>
-    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5">
       <c r="E694"/>
     </row>
-    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5">
       <c r="E695"/>
     </row>
-    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5">
       <c r="E696"/>
     </row>
-    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5">
       <c r="E697"/>
     </row>
-    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5">
       <c r="E698"/>
     </row>
-    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5">
       <c r="E699"/>
     </row>
-    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5">
       <c r="E700"/>
     </row>
-    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5">
       <c r="E701"/>
     </row>
-    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5">
       <c r="E702"/>
     </row>
-    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5">
       <c r="E703"/>
     </row>
-    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5">
       <c r="E704"/>
     </row>
-    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5">
       <c r="E705"/>
     </row>
-    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5">
       <c r="E706"/>
     </row>
-    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5">
       <c r="E707"/>
     </row>
-    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5">
       <c r="E708"/>
     </row>
-    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5">
       <c r="E709"/>
     </row>
-    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5">
       <c r="E710"/>
     </row>
-    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5">
       <c r="E711"/>
     </row>
-    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5">
       <c r="E712"/>
     </row>
-    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5">
       <c r="E713"/>
     </row>
-    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5">
       <c r="E714"/>
     </row>
-    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5">
       <c r="E715"/>
     </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5">
       <c r="E716"/>
     </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5">
       <c r="E717"/>
     </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5">
       <c r="E718"/>
     </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5">
       <c r="E719"/>
     </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5">
       <c r="E720"/>
     </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5">
       <c r="E721"/>
     </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5">
       <c r="E722"/>
     </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5">
       <c r="E723"/>
     </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5">
       <c r="E724"/>
     </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5">
       <c r="E725"/>
     </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5">
       <c r="E726"/>
     </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5">
       <c r="E727"/>
     </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5">
       <c r="E728"/>
     </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5">
       <c r="E729"/>
     </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5">
       <c r="E730"/>
     </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5">
       <c r="E731"/>
     </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5">
       <c r="E732"/>
     </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5">
       <c r="E733"/>
     </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5">
       <c r="E734"/>
     </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5">
       <c r="E735"/>
     </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5">
       <c r="E736"/>
     </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5">
       <c r="E737"/>
     </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5">
       <c r="E738"/>
     </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5">
       <c r="E739"/>
     </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5">
       <c r="E740"/>
     </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5">
       <c r="E741"/>
     </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5">
       <c r="E742"/>
     </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5">
       <c r="E743"/>
     </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5">
       <c r="E744"/>
     </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5">
       <c r="E745"/>
     </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5">
       <c r="E746"/>
     </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5">
       <c r="E747"/>
     </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5">
       <c r="E748"/>
     </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5">
       <c r="E749"/>
     </row>
-    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5">
       <c r="E750"/>
     </row>
-    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5">
       <c r="E751"/>
     </row>
-    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5">
       <c r="E752"/>
     </row>
-    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5">
       <c r="E753"/>
     </row>
-    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5">
       <c r="E754"/>
     </row>
-    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5">
       <c r="E755"/>
     </row>
-    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5">
       <c r="E756"/>
     </row>
-    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5">
       <c r="E757"/>
     </row>
-    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5">
       <c r="E758"/>
     </row>
-    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5">
       <c r="E759"/>
     </row>
-    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5">
       <c r="E760"/>
     </row>
-    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5">
       <c r="E761"/>
     </row>
-    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5">
       <c r="E762"/>
     </row>
-    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5">
       <c r="E763"/>
     </row>
-    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5">
       <c r="E764"/>
     </row>
-    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5">
       <c r="E765"/>
     </row>
-    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5">
       <c r="E766"/>
     </row>
-    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5">
       <c r="E767"/>
     </row>
-    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5">
       <c r="E768"/>
     </row>
-    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5">
       <c r="E769"/>
     </row>
-    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5">
       <c r="E770"/>
     </row>
-    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5">
       <c r="E771"/>
     </row>
-    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5">
       <c r="E772"/>
     </row>
-    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5">
       <c r="E773"/>
     </row>
-    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5">
       <c r="E774"/>
     </row>
-    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5">
       <c r="E775"/>
     </row>
-    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5">
       <c r="E776"/>
     </row>
-    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5">
       <c r="E777"/>
     </row>
-    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5">
       <c r="E778"/>
     </row>
-    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5">
       <c r="E779"/>
     </row>
-    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5">
       <c r="E780"/>
     </row>
-    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5">
       <c r="E781"/>
     </row>
-    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5">
       <c r="E782"/>
     </row>
-    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5">
       <c r="E783"/>
     </row>
-    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5">
       <c r="E784"/>
     </row>
-    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5">
       <c r="E785"/>
     </row>
-    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5">
       <c r="E786"/>
     </row>
-    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5">
       <c r="E787"/>
     </row>
-    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5">
       <c r="E788"/>
     </row>
-    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5">
       <c r="E789"/>
     </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5">
       <c r="E790"/>
     </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5">
       <c r="E791"/>
     </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5">
       <c r="E792"/>
     </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5">
       <c r="E793"/>
     </row>
-    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5">
       <c r="E794"/>
     </row>
-    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5">
       <c r="E795"/>
     </row>
-    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5">
       <c r="E796"/>
     </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5">
       <c r="E797"/>
     </row>
-    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5">
       <c r="E798"/>
     </row>
-    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5">
       <c r="E799"/>
     </row>
-    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5">
       <c r="E800"/>
     </row>
-    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5">
       <c r="E801"/>
     </row>
-    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5">
       <c r="E802"/>
     </row>
-    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5">
       <c r="E803"/>
     </row>
-    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5">
       <c r="E804"/>
     </row>
-    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5">
       <c r="E805"/>
     </row>
-    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5">
       <c r="E806"/>
     </row>
-    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5">
       <c r="E807"/>
     </row>
-    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5">
       <c r="E808"/>
     </row>
-    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5">
       <c r="E809"/>
     </row>
-    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5">
       <c r="E810"/>
     </row>
-    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5">
       <c r="E811"/>
     </row>
-    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5">
       <c r="E812"/>
     </row>
-    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5">
       <c r="E813"/>
     </row>
-    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5">
       <c r="E814"/>
     </row>
-    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5">
       <c r="E815"/>
     </row>
-    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5">
       <c r="E816"/>
     </row>
-    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5">
       <c r="E817"/>
     </row>
-    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5">
       <c r="E818"/>
     </row>
-    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5">
       <c r="E819"/>
     </row>
-    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5">
       <c r="E820"/>
     </row>
-    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5">
       <c r="E821"/>
     </row>
-    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5">
       <c r="E822"/>
     </row>
-    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5">
       <c r="E823"/>
     </row>
-    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5">
       <c r="E824"/>
     </row>
-    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5">
       <c r="E825"/>
     </row>
-    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5">
       <c r="E826"/>
     </row>
-    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5">
       <c r="E827"/>
     </row>
-    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5">
       <c r="E828"/>
     </row>
-    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5">
       <c r="E829"/>
     </row>
-    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5">
       <c r="E830"/>
     </row>
-    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5">
       <c r="E831"/>
     </row>
-    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5">
       <c r="E832"/>
     </row>
-    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5">
       <c r="E833"/>
     </row>
-    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5">
       <c r="E834"/>
     </row>
-    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5">
       <c r="E835"/>
     </row>
-    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5">
       <c r="E836"/>
     </row>
-    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5">
       <c r="E837"/>
     </row>
-    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5">
       <c r="E838"/>
     </row>
-    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5">
       <c r="E839"/>
     </row>
-    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5">
       <c r="E840"/>
     </row>
-    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5">
       <c r="E841"/>
     </row>
-    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5">
       <c r="E842"/>
     </row>
-    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5">
       <c r="E843"/>
     </row>
-    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5">
       <c r="E844"/>
     </row>
-    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5">
       <c r="E845"/>
     </row>
-    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5">
       <c r="E846"/>
     </row>
-    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5">
       <c r="E847"/>
     </row>
-    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5">
       <c r="E848"/>
     </row>
-    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5">
       <c r="E849"/>
     </row>
-    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5">
       <c r="E850"/>
     </row>
-    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5">
       <c r="E851"/>
     </row>
-    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5">
       <c r="E852"/>
     </row>
-    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5">
       <c r="E853"/>
     </row>
-    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5">
       <c r="E854"/>
     </row>
-    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5">
       <c r="E855"/>
     </row>
-    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5">
       <c r="E856"/>
     </row>
-    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5">
       <c r="E857"/>
     </row>
-    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5">
       <c r="E858"/>
     </row>
-    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5">
       <c r="E859"/>
     </row>
-    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5">
       <c r="E860"/>
     </row>
-    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5">
       <c r="E861"/>
     </row>
-    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5">
       <c r="E862"/>
     </row>
-    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5">
       <c r="E863"/>
     </row>
-    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5">
       <c r="E864"/>
     </row>
-    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5">
       <c r="E865"/>
     </row>
-    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5">
       <c r="E866"/>
     </row>
-    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5">
       <c r="E867"/>
     </row>
-    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5">
       <c r="E868"/>
     </row>
-    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5">
       <c r="E869"/>
     </row>
-    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5">
       <c r="E870"/>
     </row>
-    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5">
       <c r="E871"/>
     </row>
-    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5">
       <c r="E872"/>
     </row>
-    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5">
       <c r="E873"/>
     </row>
-    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5">
       <c r="E874"/>
     </row>
-    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5">
       <c r="E875"/>
     </row>
-    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5">
       <c r="E876"/>
     </row>
-    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5">
       <c r="E877"/>
     </row>
-    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5">
       <c r="E878"/>
     </row>
-    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5">
       <c r="E879"/>
     </row>
-    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5">
       <c r="E880"/>
     </row>
-    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5">
       <c r="E881"/>
     </row>
-    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5">
       <c r="E882"/>
     </row>
-    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5">
       <c r="E883"/>
     </row>
-    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5">
       <c r="E884"/>
     </row>
-    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5">
       <c r="E885"/>
     </row>
-    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5">
       <c r="E886"/>
     </row>
-    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5">
       <c r="E887"/>
     </row>
-    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5">
       <c r="E888"/>
     </row>
-    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5">
       <c r="E889"/>
     </row>
-    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5">
       <c r="E890"/>
     </row>
-    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5">
       <c r="E891"/>
     </row>
-    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5">
       <c r="E892"/>
     </row>
-    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5">
       <c r="E893"/>
     </row>
-    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5">
       <c r="E894"/>
     </row>
-    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5">
       <c r="E895"/>
     </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5">
       <c r="E896"/>
     </row>
-    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5">
       <c r="E897"/>
     </row>
-    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5">
       <c r="E898"/>
     </row>
-    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5">
       <c r="E899"/>
     </row>
-    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5">
       <c r="E900"/>
     </row>
-    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5">
       <c r="E901"/>
     </row>
-    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5">
       <c r="E902"/>
     </row>
-    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5">
       <c r="E903"/>
     </row>
-    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5">
       <c r="E904"/>
     </row>
-    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5">
       <c r="E905"/>
     </row>
-    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5">
       <c r="E906"/>
     </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5">
       <c r="E907"/>
     </row>
-    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5">
       <c r="E908"/>
     </row>
-    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5">
       <c r="E909"/>
     </row>
-    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5">
       <c r="E910"/>
     </row>
-    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5">
       <c r="E911"/>
     </row>
-    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5">
       <c r="E912"/>
     </row>
-    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5">
       <c r="E913"/>
     </row>
-    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5">
       <c r="E914"/>
     </row>
-    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5">
       <c r="E915"/>
     </row>
-    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5">
       <c r="E916"/>
     </row>
-    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5">
       <c r="E917"/>
     </row>
-    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5">
       <c r="E918"/>
     </row>
-    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5">
       <c r="E919"/>
     </row>
-    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5">
       <c r="E920"/>
     </row>
-    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5">
       <c r="E921"/>
     </row>
-    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5">
       <c r="E922"/>
     </row>
-    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5">
       <c r="E923"/>
     </row>
-    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5">
       <c r="E924"/>
     </row>
-    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5">
       <c r="E925"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/dataset_main.xlsx
+++ b/Data/dataset_main.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\BG_2017\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1033,7 +1038,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1622,24 +1627,24 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="195">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="60">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1841,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="75">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1874,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="135">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1934,18 +1939,18 @@
   <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="23.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.33203125" style="13"/>
+    <col min="5" max="5" width="23.375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>329</v>
       </c>
@@ -2038,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
         <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
       </c>
       <c r="F3" s="21">
         <v>1</v>
@@ -2053,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <v>0</v>
@@ -2068,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>332</v>
       </c>
@@ -2132,19 +2137,15 @@
       <c r="H5" s="21">
         <v>5</v>
       </c>
-      <c r="I5" s="20">
-        <v>7</v>
-      </c>
+      <c r="I5" s="20"/>
       <c r="J5" s="21"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="21">
-        <v>6</v>
-      </c>
+      <c r="L5" s="21"/>
       <c r="M5" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>33</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>48</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>49</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>50</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>53</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>54</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>55</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>57</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>59</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>62</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>63</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>64</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>65</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>66</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>67</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>68</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>69</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>70</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>71</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>72</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>73</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>74</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>75</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>77</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>78</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>79</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>80</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>82</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>84</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>85</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>86</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>87</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>88</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>89</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>90</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>91</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>92</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>93</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>94</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>95</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>96</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>97</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>98</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>99</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>100</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>101</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>102</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>103</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>104</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>105</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>106</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>107</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>108</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>109</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>110</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>111</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>113</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>114</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>115</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>116</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>117</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>118</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>119</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>120</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>121</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>122</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>123</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>124</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>125</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>126</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>127</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>128</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>129</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>130</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>131</v>
       </c>
@@ -6636,7 +6637,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>132</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>133</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>134</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>135</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>136</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>137</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>138</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>139</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>140</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>141</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>142</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>143</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>144</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>145</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>146</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>147</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>148</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>149</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>150</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>151</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>152</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>153</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>154</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>155</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>156</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>157</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>158</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>159</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>160</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>161</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>162</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>163</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>164</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>165</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>166</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>167</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>168</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>169</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>170</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>171</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>172</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>173</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>174</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>175</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>176</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>177</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>178</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>179</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>180</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>181</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>182</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>183</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>184</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>185</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>186</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>187</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>188</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>189</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>190</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>191</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>192</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>193</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>0.8126022913256955</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>194</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>0.77679290894439978</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>195</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>0.7548076923076924</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>196</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>0.73396674584323041</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>197</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>0.73017107309486784</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>198</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>0.72671285604311009</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>199</v>
       </c>
@@ -9492,7 +9493,7 @@
         <v>0.71849056603773587</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>200</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>0.67287630402384502</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>201</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>0.67062314540059342</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>202</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>0.65294117647058825</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>203</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>0.63795620437956213</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>204</v>
       </c>
@@ -9702,7 +9703,7 @@
         <v>0.62662807525325614</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>205</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>0.61897915168943207</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>206</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>0.59743040685224846</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>207</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>208</v>
       </c>
@@ -9870,7 +9871,7 @@
         <v>0.57132817990161622</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
         <v>209</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>0.56454989532449407</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
         <v>210</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>0.55301455301455293</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>211</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>0.53448275862068961</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>212</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>0.51332877648667119</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>213</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>0.50033990482664847</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>214</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>0.49290060851926981</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>215</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>0.4688546550569323</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>216</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>0.45502998001332445</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>217</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>0.42460317460317465</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>218</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>0.42388451443569547</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>219</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>0.41476159372958854</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>220</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>0.39636127355425599</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>221</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>0.38842443729903536</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
         <v>222</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>0.37141033822590941</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>223</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>0.35066582117945466</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>224</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>0.33878064110622252</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>225</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>0.32790988735919896</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
         <v>226</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>0.31148564294631714</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
         <v>227</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>0.30086848635235736</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
         <v>228</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>0.29295426452410378</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
         <v>229</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>0.26790123456790121</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
         <v>230</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>0.24938574938574937</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
         <v>231</v>
       </c>
@@ -10836,7 +10837,7 @@
         <v>0.22446483180428137</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>232</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>0.21167883211678828</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>233</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>0.19660194174757278</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
         <v>234</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>0.17951807228915664</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>235</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>0.17461263408820024</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
         <v>236</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>0.16706161137440756</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
         <v>237</v>
       </c>
@@ -11088,7 +11089,7 @@
         <v>0.1590643274853801</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>238</v>
       </c>
@@ -11130,7 +11131,7 @@
         <v>0.15098722415795587</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>239</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>0.14400921658986177</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>240</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>0.13631156930126004</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
         <v>241</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>0.12776831345826237</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>242</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>0.12042768711311198</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
         <v>243</v>
       </c>
@@ -11340,7 +11341,7 @@
         <v>0.11398090960134756</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
         <v>244</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>0.11161217587373168</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
         <v>245</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>0.10532212885154062</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>246</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>0.10244988864142539</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>247</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>9.8451327433628319E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
         <v>248</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>9.4609460946094598E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
         <v>249</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>9.1353996737357265E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
         <v>250</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>8.8476242490442378E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
         <v>251</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>8.4278768233387355E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
         <v>252</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>8.2479784366576825E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
         <v>253</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>8.1239978621058251E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
         <v>254</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>7.8877713075701433E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
         <v>255</v>
       </c>
@@ -11844,7 +11845,7 @@
         <v>7.7449947312961009E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
         <v>256</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
         <v>257</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>7.2501294665976185E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
         <v>258</v>
       </c>
@@ -11970,7 +11971,7 @@
         <v>7.0211667527103769E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
         <v>259</v>
       </c>
@@ -12012,7 +12013,7 @@
         <v>6.6901408450704219E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
         <v>260</v>
       </c>
@@ -12054,7 +12055,7 @@
         <v>6.6128218071680969E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>261</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>6.5097646469704562E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
         <v>262</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>6.2933597621407322E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
         <v>263</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>6.0650887573964495E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
         <v>264</v>
       </c>
@@ -12222,7 +12223,7 @@
         <v>5.5145248645987195E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
         <v>265</v>
       </c>
@@ -12264,7 +12265,7 @@
         <v>5.2901289895171656E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
         <v>266</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>5.1135431444647113E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>267</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>5.0238075829429338E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
         <v>268</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>4.8310435337794701E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
         <v>269</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>4.8002323750983844E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
         <v>270</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>4.6311326524512218E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
         <v>271</v>
       </c>
@@ -12516,7 +12517,7 @@
         <v>4.5235451874797258E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
         <v>272</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>4.6859478329974745E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
         <v>273</v>
       </c>
@@ -12600,7 +12601,7 @@
         <v>4.6457563707381348E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
         <v>274</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>4.530471623446157E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>275</v>
       </c>
@@ -12684,7 +12685,7 @@
         <v>4.3856926448038326E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
         <v>276</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>4.3354635674750515E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
         <v>277</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>4.3946943451436141E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
         <v>278</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>4.3379573570780712E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
         <v>279</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>4.278547703584927E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
         <v>280</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>4.1873798033310344E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
         <v>281</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>4.1229163490939087E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
         <v>282</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>4.0203553285944327E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
         <v>283</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>3.9329735168603296E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
         <v>284</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>3.8807691122817671E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
         <v>285</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>3.8731332520421144E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
         <v>286</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>3.8674274912044247E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
         <v>287</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>3.7261649676427942E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
         <v>288</v>
       </c>
@@ -13230,7 +13231,7 @@
         <v>3.6882463098075004E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
         <v>289</v>
       </c>
@@ -13272,7 +13273,7 @@
         <v>3.7361331731948909E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
         <v>290</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>3.6729582483410364E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
         <v>291</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>3.6206512806464863E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
         <v>292</v>
       </c>
@@ -13398,7 +13399,7 @@
         <v>3.5752780937530614E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
         <v>293</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>3.5689767690208409E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
         <v>294</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>3.5426044914335375E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
         <v>295</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>3.4928374725246965E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
         <v>296</v>
       </c>
@@ -13566,7 +13567,7 @@
         <v>3.4626941470227268E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
         <v>297</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>3.4734669836305923E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
         <v>298</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>3.4062143299398953E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
         <v>299</v>
       </c>
@@ -13692,7 +13693,7 @@
         <v>3.3389902596992427E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
         <v>300</v>
       </c>
@@ -13734,7 +13735,7 @@
         <v>3.319795161575137E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
         <v>301</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>3.3262208183872509E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
         <v>302</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>3.2571442866553814E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
         <v>303</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>3.2131980116677589E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
         <v>304</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>3.168177381692687E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
         <v>305</v>
       </c>
@@ -13944,7 +13945,7 @@
         <v>3.1449998358987825E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
         <v>306</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>3.1457401862258504E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
@@ -14008,1915 +14009,1915 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="5:5">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289"/>
     </row>
-    <row r="290" spans="5:5">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290"/>
     </row>
-    <row r="291" spans="5:5">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291"/>
     </row>
-    <row r="292" spans="5:5">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292"/>
     </row>
-    <row r="293" spans="5:5">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293"/>
     </row>
-    <row r="294" spans="5:5">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294"/>
     </row>
-    <row r="295" spans="5:5">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295"/>
     </row>
-    <row r="296" spans="5:5">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296"/>
     </row>
-    <row r="297" spans="5:5">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297"/>
     </row>
-    <row r="298" spans="5:5">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298"/>
     </row>
-    <row r="299" spans="5:5">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299"/>
     </row>
-    <row r="300" spans="5:5">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300"/>
     </row>
-    <row r="301" spans="5:5">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301"/>
     </row>
-    <row r="302" spans="5:5">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302"/>
     </row>
-    <row r="303" spans="5:5">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303"/>
     </row>
-    <row r="304" spans="5:5">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304"/>
     </row>
-    <row r="305" spans="5:5">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305"/>
     </row>
-    <row r="306" spans="5:5">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306"/>
     </row>
-    <row r="307" spans="5:5">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307"/>
     </row>
-    <row r="308" spans="5:5">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308"/>
     </row>
-    <row r="309" spans="5:5">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309"/>
     </row>
-    <row r="310" spans="5:5">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310"/>
     </row>
-    <row r="311" spans="5:5">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311"/>
     </row>
-    <row r="312" spans="5:5">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312"/>
     </row>
-    <row r="313" spans="5:5">
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313"/>
     </row>
-    <row r="314" spans="5:5">
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314"/>
     </row>
-    <row r="315" spans="5:5">
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315"/>
     </row>
-    <row r="316" spans="5:5">
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316"/>
     </row>
-    <row r="317" spans="5:5">
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317"/>
     </row>
-    <row r="318" spans="5:5">
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318"/>
     </row>
-    <row r="319" spans="5:5">
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319"/>
     </row>
-    <row r="320" spans="5:5">
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320"/>
     </row>
-    <row r="321" spans="5:5">
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321"/>
     </row>
-    <row r="322" spans="5:5">
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322"/>
     </row>
-    <row r="323" spans="5:5">
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323"/>
     </row>
-    <row r="324" spans="5:5">
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324"/>
     </row>
-    <row r="325" spans="5:5">
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325"/>
     </row>
-    <row r="326" spans="5:5">
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326"/>
     </row>
-    <row r="327" spans="5:5">
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327"/>
     </row>
-    <row r="328" spans="5:5">
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328"/>
     </row>
-    <row r="329" spans="5:5">
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329"/>
     </row>
-    <row r="330" spans="5:5">
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330"/>
     </row>
-    <row r="331" spans="5:5">
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331"/>
     </row>
-    <row r="332" spans="5:5">
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332"/>
     </row>
-    <row r="333" spans="5:5">
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333"/>
     </row>
-    <row r="334" spans="5:5">
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334"/>
     </row>
-    <row r="335" spans="5:5">
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335"/>
     </row>
-    <row r="336" spans="5:5">
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336"/>
     </row>
-    <row r="337" spans="5:5">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337"/>
     </row>
-    <row r="338" spans="5:5">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338"/>
     </row>
-    <row r="339" spans="5:5">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339"/>
     </row>
-    <row r="340" spans="5:5">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340"/>
     </row>
-    <row r="341" spans="5:5">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341"/>
     </row>
-    <row r="342" spans="5:5">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342"/>
     </row>
-    <row r="343" spans="5:5">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343"/>
     </row>
-    <row r="344" spans="5:5">
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344"/>
     </row>
-    <row r="345" spans="5:5">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345"/>
     </row>
-    <row r="346" spans="5:5">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346"/>
     </row>
-    <row r="347" spans="5:5">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347"/>
     </row>
-    <row r="348" spans="5:5">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348"/>
     </row>
-    <row r="349" spans="5:5">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349"/>
     </row>
-    <row r="350" spans="5:5">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350"/>
     </row>
-    <row r="351" spans="5:5">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351"/>
     </row>
-    <row r="352" spans="5:5">
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352"/>
     </row>
-    <row r="353" spans="5:5">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353"/>
     </row>
-    <row r="354" spans="5:5">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354"/>
     </row>
-    <row r="355" spans="5:5">
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355"/>
     </row>
-    <row r="356" spans="5:5">
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356"/>
     </row>
-    <row r="357" spans="5:5">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357"/>
     </row>
-    <row r="358" spans="5:5">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358"/>
     </row>
-    <row r="359" spans="5:5">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359"/>
     </row>
-    <row r="360" spans="5:5">
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360"/>
     </row>
-    <row r="361" spans="5:5">
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361"/>
     </row>
-    <row r="362" spans="5:5">
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362"/>
     </row>
-    <row r="363" spans="5:5">
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363"/>
     </row>
-    <row r="364" spans="5:5">
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364"/>
     </row>
-    <row r="365" spans="5:5">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365"/>
     </row>
-    <row r="366" spans="5:5">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366"/>
     </row>
-    <row r="367" spans="5:5">
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367"/>
     </row>
-    <row r="368" spans="5:5">
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368"/>
     </row>
-    <row r="369" spans="5:5">
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369"/>
     </row>
-    <row r="370" spans="5:5">
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370"/>
     </row>
-    <row r="371" spans="5:5">
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371"/>
     </row>
-    <row r="372" spans="5:5">
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372"/>
     </row>
-    <row r="373" spans="5:5">
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373"/>
     </row>
-    <row r="374" spans="5:5">
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374"/>
     </row>
-    <row r="375" spans="5:5">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375"/>
     </row>
-    <row r="376" spans="5:5">
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376"/>
     </row>
-    <row r="377" spans="5:5">
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377"/>
     </row>
-    <row r="378" spans="5:5">
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378"/>
     </row>
-    <row r="379" spans="5:5">
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379"/>
     </row>
-    <row r="380" spans="5:5">
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380"/>
     </row>
-    <row r="381" spans="5:5">
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381"/>
     </row>
-    <row r="382" spans="5:5">
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382"/>
     </row>
-    <row r="383" spans="5:5">
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383"/>
     </row>
-    <row r="384" spans="5:5">
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384"/>
     </row>
-    <row r="385" spans="5:5">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385"/>
     </row>
-    <row r="386" spans="5:5">
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386"/>
     </row>
-    <row r="387" spans="5:5">
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387"/>
     </row>
-    <row r="388" spans="5:5">
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388"/>
     </row>
-    <row r="389" spans="5:5">
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389"/>
     </row>
-    <row r="390" spans="5:5">
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390"/>
     </row>
-    <row r="391" spans="5:5">
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391"/>
     </row>
-    <row r="392" spans="5:5">
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392"/>
     </row>
-    <row r="393" spans="5:5">
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393"/>
     </row>
-    <row r="394" spans="5:5">
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394"/>
     </row>
-    <row r="395" spans="5:5">
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395"/>
     </row>
-    <row r="396" spans="5:5">
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396"/>
     </row>
-    <row r="397" spans="5:5">
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397"/>
     </row>
-    <row r="398" spans="5:5">
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398"/>
     </row>
-    <row r="399" spans="5:5">
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399"/>
     </row>
-    <row r="400" spans="5:5">
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400"/>
     </row>
-    <row r="401" spans="5:5">
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401"/>
     </row>
-    <row r="402" spans="5:5">
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402"/>
     </row>
-    <row r="403" spans="5:5">
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403"/>
     </row>
-    <row r="404" spans="5:5">
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404"/>
     </row>
-    <row r="405" spans="5:5">
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405"/>
     </row>
-    <row r="406" spans="5:5">
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406"/>
     </row>
-    <row r="407" spans="5:5">
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407"/>
     </row>
-    <row r="408" spans="5:5">
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408"/>
     </row>
-    <row r="409" spans="5:5">
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409"/>
     </row>
-    <row r="410" spans="5:5">
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410"/>
     </row>
-    <row r="411" spans="5:5">
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411"/>
     </row>
-    <row r="412" spans="5:5">
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412"/>
     </row>
-    <row r="413" spans="5:5">
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413"/>
     </row>
-    <row r="414" spans="5:5">
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414"/>
     </row>
-    <row r="415" spans="5:5">
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415"/>
     </row>
-    <row r="416" spans="5:5">
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435"/>
     </row>
-    <row r="436" spans="5:5">
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436"/>
     </row>
-    <row r="437" spans="5:5">
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437"/>
     </row>
-    <row r="438" spans="5:5">
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438"/>
     </row>
-    <row r="439" spans="5:5">
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439"/>
     </row>
-    <row r="440" spans="5:5">
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440"/>
     </row>
-    <row r="441" spans="5:5">
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441"/>
     </row>
-    <row r="442" spans="5:5">
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442"/>
     </row>
-    <row r="443" spans="5:5">
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443"/>
     </row>
-    <row r="444" spans="5:5">
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444"/>
     </row>
-    <row r="445" spans="5:5">
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445"/>
     </row>
-    <row r="446" spans="5:5">
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446"/>
     </row>
-    <row r="447" spans="5:5">
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447"/>
     </row>
-    <row r="448" spans="5:5">
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448"/>
     </row>
-    <row r="449" spans="5:5">
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449"/>
     </row>
-    <row r="450" spans="5:5">
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450"/>
     </row>
-    <row r="451" spans="5:5">
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451"/>
     </row>
-    <row r="452" spans="5:5">
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452"/>
     </row>
-    <row r="453" spans="5:5">
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453"/>
     </row>
-    <row r="454" spans="5:5">
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454"/>
     </row>
-    <row r="455" spans="5:5">
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455"/>
     </row>
-    <row r="456" spans="5:5">
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456"/>
     </row>
-    <row r="457" spans="5:5">
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457"/>
     </row>
-    <row r="458" spans="5:5">
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458"/>
     </row>
-    <row r="459" spans="5:5">
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459"/>
     </row>
-    <row r="460" spans="5:5">
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460"/>
     </row>
-    <row r="461" spans="5:5">
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461"/>
     </row>
-    <row r="462" spans="5:5">
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462"/>
     </row>
-    <row r="463" spans="5:5">
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463"/>
     </row>
-    <row r="464" spans="5:5">
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E464"/>
     </row>
-    <row r="465" spans="5:5">
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E465"/>
     </row>
-    <row r="466" spans="5:5">
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E466"/>
     </row>
-    <row r="467" spans="5:5">
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E467"/>
     </row>
-    <row r="468" spans="5:5">
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E468"/>
     </row>
-    <row r="469" spans="5:5">
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E469"/>
     </row>
-    <row r="470" spans="5:5">
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E470"/>
     </row>
-    <row r="471" spans="5:5">
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E471"/>
     </row>
-    <row r="472" spans="5:5">
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E472"/>
     </row>
-    <row r="473" spans="5:5">
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E473"/>
     </row>
-    <row r="474" spans="5:5">
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E474"/>
     </row>
-    <row r="475" spans="5:5">
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E475"/>
     </row>
-    <row r="476" spans="5:5">
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E476"/>
     </row>
-    <row r="477" spans="5:5">
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E477"/>
     </row>
-    <row r="478" spans="5:5">
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E478"/>
     </row>
-    <row r="479" spans="5:5">
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E479"/>
     </row>
-    <row r="480" spans="5:5">
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E480"/>
     </row>
-    <row r="481" spans="5:5">
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E481"/>
     </row>
-    <row r="482" spans="5:5">
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E482"/>
     </row>
-    <row r="483" spans="5:5">
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E483"/>
     </row>
-    <row r="484" spans="5:5">
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E484"/>
     </row>
-    <row r="485" spans="5:5">
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E485"/>
     </row>
-    <row r="486" spans="5:5">
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E486"/>
     </row>
-    <row r="487" spans="5:5">
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E487"/>
     </row>
-    <row r="488" spans="5:5">
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E488"/>
     </row>
-    <row r="489" spans="5:5">
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E489"/>
     </row>
-    <row r="490" spans="5:5">
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E490"/>
     </row>
-    <row r="491" spans="5:5">
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E491"/>
     </row>
-    <row r="492" spans="5:5">
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E492"/>
     </row>
-    <row r="493" spans="5:5">
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E493"/>
     </row>
-    <row r="494" spans="5:5">
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E494"/>
     </row>
-    <row r="495" spans="5:5">
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E495"/>
     </row>
-    <row r="496" spans="5:5">
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E496"/>
     </row>
-    <row r="497" spans="5:5">
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E497"/>
     </row>
-    <row r="498" spans="5:5">
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E498"/>
     </row>
-    <row r="499" spans="5:5">
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E499"/>
     </row>
-    <row r="500" spans="5:5">
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E500"/>
     </row>
-    <row r="501" spans="5:5">
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E501"/>
     </row>
-    <row r="502" spans="5:5">
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E502"/>
     </row>
-    <row r="503" spans="5:5">
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E503"/>
     </row>
-    <row r="504" spans="5:5">
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E504"/>
     </row>
-    <row r="505" spans="5:5">
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E505"/>
     </row>
-    <row r="506" spans="5:5">
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E506"/>
     </row>
-    <row r="507" spans="5:5">
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E507"/>
     </row>
-    <row r="508" spans="5:5">
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E508"/>
     </row>
-    <row r="509" spans="5:5">
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E509"/>
     </row>
-    <row r="510" spans="5:5">
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E510"/>
     </row>
-    <row r="511" spans="5:5">
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E511"/>
     </row>
-    <row r="512" spans="5:5">
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E512"/>
     </row>
-    <row r="513" spans="5:5">
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E513"/>
     </row>
-    <row r="514" spans="5:5">
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E514"/>
     </row>
-    <row r="515" spans="5:5">
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E515"/>
     </row>
-    <row r="516" spans="5:5">
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E516"/>
     </row>
-    <row r="517" spans="5:5">
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E517"/>
     </row>
-    <row r="518" spans="5:5">
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E518"/>
     </row>
-    <row r="519" spans="5:5">
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E519"/>
     </row>
-    <row r="520" spans="5:5">
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E520"/>
     </row>
-    <row r="521" spans="5:5">
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E521"/>
     </row>
-    <row r="522" spans="5:5">
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E522"/>
     </row>
-    <row r="523" spans="5:5">
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E523"/>
     </row>
-    <row r="524" spans="5:5">
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E524"/>
     </row>
-    <row r="525" spans="5:5">
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E525"/>
     </row>
-    <row r="526" spans="5:5">
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E526"/>
     </row>
-    <row r="527" spans="5:5">
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E527"/>
     </row>
-    <row r="528" spans="5:5">
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E528"/>
     </row>
-    <row r="529" spans="5:5">
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E529"/>
     </row>
-    <row r="530" spans="5:5">
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E530"/>
     </row>
-    <row r="531" spans="5:5">
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E531"/>
     </row>
-    <row r="532" spans="5:5">
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E532"/>
     </row>
-    <row r="533" spans="5:5">
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E533"/>
     </row>
-    <row r="534" spans="5:5">
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E534"/>
     </row>
-    <row r="535" spans="5:5">
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E535"/>
     </row>
-    <row r="536" spans="5:5">
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E536"/>
     </row>
-    <row r="537" spans="5:5">
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E537"/>
     </row>
-    <row r="538" spans="5:5">
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E538"/>
     </row>
-    <row r="539" spans="5:5">
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E539"/>
     </row>
-    <row r="540" spans="5:5">
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E540"/>
     </row>
-    <row r="541" spans="5:5">
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E541"/>
     </row>
-    <row r="542" spans="5:5">
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E542"/>
     </row>
-    <row r="543" spans="5:5">
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E543"/>
     </row>
-    <row r="544" spans="5:5">
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E544"/>
     </row>
-    <row r="545" spans="5:5">
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E545"/>
     </row>
-    <row r="546" spans="5:5">
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E546"/>
     </row>
-    <row r="547" spans="5:5">
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E547"/>
     </row>
-    <row r="548" spans="5:5">
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E548"/>
     </row>
-    <row r="549" spans="5:5">
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E549"/>
     </row>
-    <row r="550" spans="5:5">
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E550"/>
     </row>
-    <row r="551" spans="5:5">
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E551"/>
     </row>
-    <row r="552" spans="5:5">
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E552"/>
     </row>
-    <row r="553" spans="5:5">
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E553"/>
     </row>
-    <row r="554" spans="5:5">
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E554"/>
     </row>
-    <row r="555" spans="5:5">
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E555"/>
     </row>
-    <row r="556" spans="5:5">
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E556"/>
     </row>
-    <row r="557" spans="5:5">
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E557"/>
     </row>
-    <row r="558" spans="5:5">
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E558"/>
     </row>
-    <row r="559" spans="5:5">
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E559"/>
     </row>
-    <row r="560" spans="5:5">
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E560"/>
     </row>
-    <row r="561" spans="5:5">
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E561"/>
     </row>
-    <row r="562" spans="5:5">
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E562"/>
     </row>
-    <row r="563" spans="5:5">
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E563"/>
     </row>
-    <row r="564" spans="5:5">
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E564"/>
     </row>
-    <row r="565" spans="5:5">
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E565"/>
     </row>
-    <row r="566" spans="5:5">
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E566"/>
     </row>
-    <row r="567" spans="5:5">
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E567"/>
     </row>
-    <row r="568" spans="5:5">
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E568"/>
     </row>
-    <row r="569" spans="5:5">
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E569"/>
     </row>
-    <row r="570" spans="5:5">
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E570"/>
     </row>
-    <row r="571" spans="5:5">
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E571"/>
     </row>
-    <row r="572" spans="5:5">
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E572"/>
     </row>
-    <row r="573" spans="5:5">
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E573"/>
     </row>
-    <row r="574" spans="5:5">
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E574"/>
     </row>
-    <row r="575" spans="5:5">
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E575"/>
     </row>
-    <row r="576" spans="5:5">
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E576"/>
     </row>
-    <row r="577" spans="5:5">
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E577"/>
     </row>
-    <row r="578" spans="5:5">
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E578"/>
     </row>
-    <row r="579" spans="5:5">
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E579"/>
     </row>
-    <row r="580" spans="5:5">
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E580"/>
     </row>
-    <row r="581" spans="5:5">
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E581"/>
     </row>
-    <row r="582" spans="5:5">
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E582"/>
     </row>
-    <row r="583" spans="5:5">
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E583"/>
     </row>
-    <row r="584" spans="5:5">
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E584"/>
     </row>
-    <row r="585" spans="5:5">
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E585"/>
     </row>
-    <row r="586" spans="5:5">
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E586"/>
     </row>
-    <row r="587" spans="5:5">
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E587"/>
     </row>
-    <row r="588" spans="5:5">
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E588"/>
     </row>
-    <row r="589" spans="5:5">
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E589"/>
     </row>
-    <row r="590" spans="5:5">
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E590"/>
     </row>
-    <row r="591" spans="5:5">
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E591"/>
     </row>
-    <row r="592" spans="5:5">
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E592"/>
     </row>
-    <row r="593" spans="5:5">
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E593"/>
     </row>
-    <row r="594" spans="5:5">
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E594"/>
     </row>
-    <row r="595" spans="5:5">
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E595"/>
     </row>
-    <row r="596" spans="5:5">
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E596"/>
     </row>
-    <row r="597" spans="5:5">
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E597"/>
     </row>
-    <row r="598" spans="5:5">
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E598"/>
     </row>
-    <row r="599" spans="5:5">
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E599"/>
     </row>
-    <row r="600" spans="5:5">
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E600"/>
     </row>
-    <row r="601" spans="5:5">
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E601"/>
     </row>
-    <row r="602" spans="5:5">
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E602"/>
     </row>
-    <row r="603" spans="5:5">
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E603"/>
     </row>
-    <row r="604" spans="5:5">
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E604"/>
     </row>
-    <row r="605" spans="5:5">
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E605"/>
     </row>
-    <row r="606" spans="5:5">
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E606"/>
     </row>
-    <row r="607" spans="5:5">
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E607"/>
     </row>
-    <row r="608" spans="5:5">
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E608"/>
     </row>
-    <row r="609" spans="5:5">
+    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E609"/>
     </row>
-    <row r="610" spans="5:5">
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E610"/>
     </row>
-    <row r="611" spans="5:5">
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E611"/>
     </row>
-    <row r="612" spans="5:5">
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E612"/>
     </row>
-    <row r="613" spans="5:5">
+    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E613"/>
     </row>
-    <row r="614" spans="5:5">
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E614"/>
     </row>
-    <row r="615" spans="5:5">
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E615"/>
     </row>
-    <row r="616" spans="5:5">
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E616"/>
     </row>
-    <row r="617" spans="5:5">
+    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E617"/>
     </row>
-    <row r="618" spans="5:5">
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E618"/>
     </row>
-    <row r="619" spans="5:5">
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E619"/>
     </row>
-    <row r="620" spans="5:5">
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E620"/>
     </row>
-    <row r="621" spans="5:5">
+    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E621"/>
     </row>
-    <row r="622" spans="5:5">
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E622"/>
     </row>
-    <row r="623" spans="5:5">
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E623"/>
     </row>
-    <row r="624" spans="5:5">
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E624"/>
     </row>
-    <row r="625" spans="5:5">
+    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E625"/>
     </row>
-    <row r="626" spans="5:5">
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E626"/>
     </row>
-    <row r="627" spans="5:5">
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E627"/>
     </row>
-    <row r="628" spans="5:5">
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E628"/>
     </row>
-    <row r="629" spans="5:5">
+    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E629"/>
     </row>
-    <row r="630" spans="5:5">
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E630"/>
     </row>
-    <row r="631" spans="5:5">
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E631"/>
     </row>
-    <row r="632" spans="5:5">
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E632"/>
     </row>
-    <row r="633" spans="5:5">
+    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E633"/>
     </row>
-    <row r="634" spans="5:5">
+    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E634"/>
     </row>
-    <row r="635" spans="5:5">
+    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E635"/>
     </row>
-    <row r="636" spans="5:5">
+    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E636"/>
     </row>
-    <row r="637" spans="5:5">
+    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E637"/>
     </row>
-    <row r="638" spans="5:5">
+    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E638"/>
     </row>
-    <row r="639" spans="5:5">
+    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E639"/>
     </row>
-    <row r="640" spans="5:5">
+    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E640"/>
     </row>
-    <row r="641" spans="5:5">
+    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E641"/>
     </row>
-    <row r="642" spans="5:5">
+    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E642"/>
     </row>
-    <row r="643" spans="5:5">
+    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E643"/>
     </row>
-    <row r="644" spans="5:5">
+    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E644"/>
     </row>
-    <row r="645" spans="5:5">
+    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E645"/>
     </row>
-    <row r="646" spans="5:5">
+    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E646"/>
     </row>
-    <row r="647" spans="5:5">
+    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E647"/>
     </row>
-    <row r="648" spans="5:5">
+    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E648"/>
     </row>
-    <row r="649" spans="5:5">
+    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E649"/>
     </row>
-    <row r="650" spans="5:5">
+    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E650"/>
     </row>
-    <row r="651" spans="5:5">
+    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E651"/>
     </row>
-    <row r="652" spans="5:5">
+    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E652"/>
     </row>
-    <row r="653" spans="5:5">
+    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E653"/>
     </row>
-    <row r="654" spans="5:5">
+    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E654"/>
     </row>
-    <row r="655" spans="5:5">
+    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E655"/>
     </row>
-    <row r="656" spans="5:5">
+    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E656"/>
     </row>
-    <row r="657" spans="5:5">
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E657"/>
     </row>
-    <row r="658" spans="5:5">
+    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E658"/>
     </row>
-    <row r="659" spans="5:5">
+    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E659"/>
     </row>
-    <row r="660" spans="5:5">
+    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E660"/>
     </row>
-    <row r="661" spans="5:5">
+    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E661"/>
     </row>
-    <row r="662" spans="5:5">
+    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E662"/>
     </row>
-    <row r="663" spans="5:5">
+    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E663"/>
     </row>
-    <row r="664" spans="5:5">
+    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E664"/>
     </row>
-    <row r="665" spans="5:5">
+    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E665"/>
     </row>
-    <row r="666" spans="5:5">
+    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E666"/>
     </row>
-    <row r="667" spans="5:5">
+    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E667"/>
     </row>
-    <row r="668" spans="5:5">
+    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E668"/>
     </row>
-    <row r="669" spans="5:5">
+    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E669"/>
     </row>
-    <row r="670" spans="5:5">
+    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E670"/>
     </row>
-    <row r="671" spans="5:5">
+    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E671"/>
     </row>
-    <row r="672" spans="5:5">
+    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E672"/>
     </row>
-    <row r="673" spans="5:5">
+    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E673"/>
     </row>
-    <row r="674" spans="5:5">
+    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E674"/>
     </row>
-    <row r="675" spans="5:5">
+    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E675"/>
     </row>
-    <row r="676" spans="5:5">
+    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E676"/>
     </row>
-    <row r="677" spans="5:5">
+    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E677"/>
     </row>
-    <row r="678" spans="5:5">
+    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E678"/>
     </row>
-    <row r="679" spans="5:5">
+    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E679"/>
     </row>
-    <row r="680" spans="5:5">
+    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E680"/>
     </row>
-    <row r="681" spans="5:5">
+    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E681"/>
     </row>
-    <row r="682" spans="5:5">
+    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E682"/>
     </row>
-    <row r="683" spans="5:5">
+    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E683"/>
     </row>
-    <row r="684" spans="5:5">
+    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E684"/>
     </row>
-    <row r="685" spans="5:5">
+    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E685"/>
     </row>
-    <row r="686" spans="5:5">
+    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E686"/>
     </row>
-    <row r="687" spans="5:5">
+    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E687"/>
     </row>
-    <row r="688" spans="5:5">
+    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E688"/>
     </row>
-    <row r="689" spans="5:5">
+    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E689"/>
     </row>
-    <row r="690" spans="5:5">
+    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E690"/>
     </row>
-    <row r="691" spans="5:5">
+    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E691"/>
     </row>
-    <row r="692" spans="5:5">
+    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E692"/>
     </row>
-    <row r="693" spans="5:5">
+    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E693"/>
     </row>
-    <row r="694" spans="5:5">
+    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E694"/>
     </row>
-    <row r="695" spans="5:5">
+    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E695"/>
     </row>
-    <row r="696" spans="5:5">
+    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E696"/>
     </row>
-    <row r="697" spans="5:5">
+    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E697"/>
     </row>
-    <row r="698" spans="5:5">
+    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E698"/>
     </row>
-    <row r="699" spans="5:5">
+    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E699"/>
     </row>
-    <row r="700" spans="5:5">
+    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E700"/>
     </row>
-    <row r="701" spans="5:5">
+    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E701"/>
     </row>
-    <row r="702" spans="5:5">
+    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E702"/>
     </row>
-    <row r="703" spans="5:5">
+    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E703"/>
     </row>
-    <row r="704" spans="5:5">
+    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E704"/>
     </row>
-    <row r="705" spans="5:5">
+    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E705"/>
     </row>
-    <row r="706" spans="5:5">
+    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E706"/>
     </row>
-    <row r="707" spans="5:5">
+    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E707"/>
     </row>
-    <row r="708" spans="5:5">
+    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E708"/>
     </row>
-    <row r="709" spans="5:5">
+    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E709"/>
     </row>
-    <row r="710" spans="5:5">
+    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E710"/>
     </row>
-    <row r="711" spans="5:5">
+    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E711"/>
     </row>
-    <row r="712" spans="5:5">
+    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E712"/>
     </row>
-    <row r="713" spans="5:5">
+    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E713"/>
     </row>
-    <row r="714" spans="5:5">
+    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E714"/>
     </row>
-    <row r="715" spans="5:5">
+    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E715"/>
     </row>
-    <row r="716" spans="5:5">
+    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E716"/>
     </row>
-    <row r="717" spans="5:5">
+    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E717"/>
     </row>
-    <row r="718" spans="5:5">
+    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E718"/>
     </row>
-    <row r="719" spans="5:5">
+    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E719"/>
     </row>
-    <row r="720" spans="5:5">
+    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E720"/>
     </row>
-    <row r="721" spans="5:5">
+    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E721"/>
     </row>
-    <row r="722" spans="5:5">
+    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E722"/>
     </row>
-    <row r="723" spans="5:5">
+    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E723"/>
     </row>
-    <row r="724" spans="5:5">
+    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E724"/>
     </row>
-    <row r="725" spans="5:5">
+    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E725"/>
     </row>
-    <row r="726" spans="5:5">
+    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E726"/>
     </row>
-    <row r="727" spans="5:5">
+    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E727"/>
     </row>
-    <row r="728" spans="5:5">
+    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E728"/>
     </row>
-    <row r="729" spans="5:5">
+    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E729"/>
     </row>
-    <row r="730" spans="5:5">
+    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E730"/>
     </row>
-    <row r="731" spans="5:5">
+    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E731"/>
     </row>
-    <row r="732" spans="5:5">
+    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E732"/>
     </row>
-    <row r="733" spans="5:5">
+    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E733"/>
     </row>
-    <row r="734" spans="5:5">
+    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E734"/>
     </row>
-    <row r="735" spans="5:5">
+    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E735"/>
     </row>
-    <row r="736" spans="5:5">
+    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E736"/>
     </row>
-    <row r="737" spans="5:5">
+    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E737"/>
     </row>
-    <row r="738" spans="5:5">
+    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E738"/>
     </row>
-    <row r="739" spans="5:5">
+    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E739"/>
     </row>
-    <row r="740" spans="5:5">
+    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E740"/>
     </row>
-    <row r="741" spans="5:5">
+    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E741"/>
     </row>
-    <row r="742" spans="5:5">
+    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E742"/>
     </row>
-    <row r="743" spans="5:5">
+    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E743"/>
     </row>
-    <row r="744" spans="5:5">
+    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E744"/>
     </row>
-    <row r="745" spans="5:5">
+    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E745"/>
     </row>
-    <row r="746" spans="5:5">
+    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E746"/>
     </row>
-    <row r="747" spans="5:5">
+    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E747"/>
     </row>
-    <row r="748" spans="5:5">
+    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E748"/>
     </row>
-    <row r="749" spans="5:5">
+    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E749"/>
     </row>
-    <row r="750" spans="5:5">
+    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E750"/>
     </row>
-    <row r="751" spans="5:5">
+    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E751"/>
     </row>
-    <row r="752" spans="5:5">
+    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E752"/>
     </row>
-    <row r="753" spans="5:5">
+    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E753"/>
     </row>
-    <row r="754" spans="5:5">
+    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E754"/>
     </row>
-    <row r="755" spans="5:5">
+    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E755"/>
     </row>
-    <row r="756" spans="5:5">
+    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E756"/>
     </row>
-    <row r="757" spans="5:5">
+    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E757"/>
     </row>
-    <row r="758" spans="5:5">
+    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E758"/>
     </row>
-    <row r="759" spans="5:5">
+    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E759"/>
     </row>
-    <row r="760" spans="5:5">
+    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E760"/>
     </row>
-    <row r="761" spans="5:5">
+    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E761"/>
     </row>
-    <row r="762" spans="5:5">
+    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E762"/>
     </row>
-    <row r="763" spans="5:5">
+    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E763"/>
     </row>
-    <row r="764" spans="5:5">
+    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E764"/>
     </row>
-    <row r="765" spans="5:5">
+    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E765"/>
     </row>
-    <row r="766" spans="5:5">
+    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E766"/>
     </row>
-    <row r="767" spans="5:5">
+    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E767"/>
     </row>
-    <row r="768" spans="5:5">
+    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E768"/>
     </row>
-    <row r="769" spans="5:5">
+    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E769"/>
     </row>
-    <row r="770" spans="5:5">
+    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E770"/>
     </row>
-    <row r="771" spans="5:5">
+    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E771"/>
     </row>
-    <row r="772" spans="5:5">
+    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E772"/>
     </row>
-    <row r="773" spans="5:5">
+    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E773"/>
     </row>
-    <row r="774" spans="5:5">
+    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E774"/>
     </row>
-    <row r="775" spans="5:5">
+    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E775"/>
     </row>
-    <row r="776" spans="5:5">
+    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E776"/>
     </row>
-    <row r="777" spans="5:5">
+    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E777"/>
     </row>
-    <row r="778" spans="5:5">
+    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E778"/>
     </row>
-    <row r="779" spans="5:5">
+    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E779"/>
     </row>
-    <row r="780" spans="5:5">
+    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E780"/>
     </row>
-    <row r="781" spans="5:5">
+    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E781"/>
     </row>
-    <row r="782" spans="5:5">
+    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E782"/>
     </row>
-    <row r="783" spans="5:5">
+    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E783"/>
     </row>
-    <row r="784" spans="5:5">
+    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E784"/>
     </row>
-    <row r="785" spans="5:5">
+    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E785"/>
     </row>
-    <row r="786" spans="5:5">
+    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E786"/>
     </row>
-    <row r="787" spans="5:5">
+    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E787"/>
     </row>
-    <row r="788" spans="5:5">
+    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E788"/>
     </row>
-    <row r="789" spans="5:5">
+    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E789"/>
     </row>
-    <row r="790" spans="5:5">
+    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E790"/>
     </row>
-    <row r="791" spans="5:5">
+    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E791"/>
     </row>
-    <row r="792" spans="5:5">
+    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E792"/>
     </row>
-    <row r="793" spans="5:5">
+    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E793"/>
     </row>
-    <row r="794" spans="5:5">
+    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E794"/>
     </row>
-    <row r="795" spans="5:5">
+    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E795"/>
     </row>
-    <row r="796" spans="5:5">
+    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E796"/>
     </row>
-    <row r="797" spans="5:5">
+    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E797"/>
     </row>
-    <row r="798" spans="5:5">
+    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E798"/>
     </row>
-    <row r="799" spans="5:5">
+    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E799"/>
     </row>
-    <row r="800" spans="5:5">
+    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E800"/>
     </row>
-    <row r="801" spans="5:5">
+    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E801"/>
     </row>
-    <row r="802" spans="5:5">
+    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E802"/>
     </row>
-    <row r="803" spans="5:5">
+    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E803"/>
     </row>
-    <row r="804" spans="5:5">
+    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E804"/>
     </row>
-    <row r="805" spans="5:5">
+    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E805"/>
     </row>
-    <row r="806" spans="5:5">
+    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E806"/>
     </row>
-    <row r="807" spans="5:5">
+    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E807"/>
     </row>
-    <row r="808" spans="5:5">
+    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E808"/>
     </row>
-    <row r="809" spans="5:5">
+    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E809"/>
     </row>
-    <row r="810" spans="5:5">
+    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E810"/>
     </row>
-    <row r="811" spans="5:5">
+    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E811"/>
     </row>
-    <row r="812" spans="5:5">
+    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E812"/>
     </row>
-    <row r="813" spans="5:5">
+    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E813"/>
     </row>
-    <row r="814" spans="5:5">
+    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E814"/>
     </row>
-    <row r="815" spans="5:5">
+    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E815"/>
     </row>
-    <row r="816" spans="5:5">
+    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E816"/>
     </row>
-    <row r="817" spans="5:5">
+    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E817"/>
     </row>
-    <row r="818" spans="5:5">
+    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E818"/>
     </row>
-    <row r="819" spans="5:5">
+    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E819"/>
     </row>
-    <row r="820" spans="5:5">
+    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E820"/>
     </row>
-    <row r="821" spans="5:5">
+    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E821"/>
     </row>
-    <row r="822" spans="5:5">
+    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E822"/>
     </row>
-    <row r="823" spans="5:5">
+    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E823"/>
     </row>
-    <row r="824" spans="5:5">
+    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E824"/>
     </row>
-    <row r="825" spans="5:5">
+    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E825"/>
     </row>
-    <row r="826" spans="5:5">
+    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E826"/>
     </row>
-    <row r="827" spans="5:5">
+    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E827"/>
     </row>
-    <row r="828" spans="5:5">
+    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E828"/>
     </row>
-    <row r="829" spans="5:5">
+    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E829"/>
     </row>
-    <row r="830" spans="5:5">
+    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E830"/>
     </row>
-    <row r="831" spans="5:5">
+    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E831"/>
     </row>
-    <row r="832" spans="5:5">
+    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E832"/>
     </row>
-    <row r="833" spans="5:5">
+    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E833"/>
     </row>
-    <row r="834" spans="5:5">
+    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E834"/>
     </row>
-    <row r="835" spans="5:5">
+    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E835"/>
     </row>
-    <row r="836" spans="5:5">
+    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E836"/>
     </row>
-    <row r="837" spans="5:5">
+    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E837"/>
     </row>
-    <row r="838" spans="5:5">
+    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E838"/>
     </row>
-    <row r="839" spans="5:5">
+    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E839"/>
     </row>
-    <row r="840" spans="5:5">
+    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E840"/>
     </row>
-    <row r="841" spans="5:5">
+    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E841"/>
     </row>
-    <row r="842" spans="5:5">
+    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E842"/>
     </row>
-    <row r="843" spans="5:5">
+    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E843"/>
     </row>
-    <row r="844" spans="5:5">
+    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E844"/>
     </row>
-    <row r="845" spans="5:5">
+    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E845"/>
     </row>
-    <row r="846" spans="5:5">
+    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E846"/>
     </row>
-    <row r="847" spans="5:5">
+    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E847"/>
     </row>
-    <row r="848" spans="5:5">
+    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E848"/>
     </row>
-    <row r="849" spans="5:5">
+    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E849"/>
     </row>
-    <row r="850" spans="5:5">
+    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E850"/>
     </row>
-    <row r="851" spans="5:5">
+    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E851"/>
     </row>
-    <row r="852" spans="5:5">
+    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E852"/>
     </row>
-    <row r="853" spans="5:5">
+    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E853"/>
     </row>
-    <row r="854" spans="5:5">
+    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E854"/>
     </row>
-    <row r="855" spans="5:5">
+    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E855"/>
     </row>
-    <row r="856" spans="5:5">
+    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E856"/>
     </row>
-    <row r="857" spans="5:5">
+    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E857"/>
     </row>
-    <row r="858" spans="5:5">
+    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E858"/>
     </row>
-    <row r="859" spans="5:5">
+    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E859"/>
     </row>
-    <row r="860" spans="5:5">
+    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E860"/>
     </row>
-    <row r="861" spans="5:5">
+    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E861"/>
     </row>
-    <row r="862" spans="5:5">
+    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E862"/>
     </row>
-    <row r="863" spans="5:5">
+    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E863"/>
     </row>
-    <row r="864" spans="5:5">
+    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E864"/>
     </row>
-    <row r="865" spans="5:5">
+    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E865"/>
     </row>
-    <row r="866" spans="5:5">
+    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E866"/>
     </row>
-    <row r="867" spans="5:5">
+    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E867"/>
     </row>
-    <row r="868" spans="5:5">
+    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E868"/>
     </row>
-    <row r="869" spans="5:5">
+    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E869"/>
     </row>
-    <row r="870" spans="5:5">
+    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E870"/>
     </row>
-    <row r="871" spans="5:5">
+    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E871"/>
     </row>
-    <row r="872" spans="5:5">
+    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E872"/>
     </row>
-    <row r="873" spans="5:5">
+    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E873"/>
     </row>
-    <row r="874" spans="5:5">
+    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E874"/>
     </row>
-    <row r="875" spans="5:5">
+    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E875"/>
     </row>
-    <row r="876" spans="5:5">
+    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E876"/>
     </row>
-    <row r="877" spans="5:5">
+    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E877"/>
     </row>
-    <row r="878" spans="5:5">
+    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E878"/>
     </row>
-    <row r="879" spans="5:5">
+    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E879"/>
     </row>
-    <row r="880" spans="5:5">
+    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E880"/>
     </row>
-    <row r="881" spans="5:5">
+    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E881"/>
     </row>
-    <row r="882" spans="5:5">
+    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E882"/>
     </row>
-    <row r="883" spans="5:5">
+    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E883"/>
     </row>
-    <row r="884" spans="5:5">
+    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E884"/>
     </row>
-    <row r="885" spans="5:5">
+    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E885"/>
     </row>
-    <row r="886" spans="5:5">
+    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E886"/>
     </row>
-    <row r="887" spans="5:5">
+    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E887"/>
     </row>
-    <row r="888" spans="5:5">
+    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E888"/>
     </row>
-    <row r="889" spans="5:5">
+    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E889"/>
     </row>
-    <row r="890" spans="5:5">
+    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E890"/>
     </row>
-    <row r="891" spans="5:5">
+    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E891"/>
     </row>
-    <row r="892" spans="5:5">
+    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E892"/>
     </row>
-    <row r="893" spans="5:5">
+    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E893"/>
     </row>
-    <row r="894" spans="5:5">
+    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E894"/>
     </row>
-    <row r="895" spans="5:5">
+    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E895"/>
     </row>
-    <row r="896" spans="5:5">
+    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E896"/>
     </row>
-    <row r="897" spans="5:5">
+    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E897"/>
     </row>
-    <row r="898" spans="5:5">
+    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E898"/>
     </row>
-    <row r="899" spans="5:5">
+    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E899"/>
     </row>
-    <row r="900" spans="5:5">
+    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E900"/>
     </row>
-    <row r="901" spans="5:5">
+    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E901"/>
     </row>
-    <row r="902" spans="5:5">
+    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E902"/>
     </row>
-    <row r="903" spans="5:5">
+    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E903"/>
     </row>
-    <row r="904" spans="5:5">
+    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E904"/>
     </row>
-    <row r="905" spans="5:5">
+    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E905"/>
     </row>
-    <row r="906" spans="5:5">
+    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E906"/>
     </row>
-    <row r="907" spans="5:5">
+    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E907"/>
     </row>
-    <row r="908" spans="5:5">
+    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E908"/>
     </row>
-    <row r="909" spans="5:5">
+    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E909"/>
     </row>
-    <row r="910" spans="5:5">
+    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E910"/>
     </row>
-    <row r="911" spans="5:5">
+    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E911"/>
     </row>
-    <row r="912" spans="5:5">
+    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E912"/>
     </row>
-    <row r="913" spans="5:5">
+    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E913"/>
     </row>
-    <row r="914" spans="5:5">
+    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E914"/>
     </row>
-    <row r="915" spans="5:5">
+    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E915"/>
     </row>
-    <row r="916" spans="5:5">
+    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E916"/>
     </row>
-    <row r="917" spans="5:5">
+    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E917"/>
     </row>
-    <row r="918" spans="5:5">
+    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E918"/>
     </row>
-    <row r="919" spans="5:5">
+    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E919"/>
     </row>
-    <row r="920" spans="5:5">
+    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E920"/>
     </row>
-    <row r="921" spans="5:5">
+    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E921"/>
     </row>
-    <row r="922" spans="5:5">
+    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E922"/>
     </row>
-    <row r="923" spans="5:5">
+    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E923"/>
     </row>
-    <row r="924" spans="5:5">
+    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E924"/>
     </row>
-    <row r="925" spans="5:5">
+    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E925"/>
     </row>
   </sheetData>
